--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -1818,6 +1818,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -1818,7 +1818,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0173217733986036</v>
+        <v>0.0171039426654218</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01280748119536479</v>
+        <v>0.005148270181219106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05023996394084985</v>
+        <v>0.05041776893944781</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003303392954492557</v>
+        <v>0.01418887012995396</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0147644534615506</v>
+        <v>0.01455952377380456</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01411156751026887</v>
+        <v>-0.008556772618327546</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009366927676415036</v>
+        <v>0.009403046153850169</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003620161514898301</v>
+        <v>-0.004023307436181844</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01474756377714381</v>
+        <v>0.01485969593251723</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007366759377583909</v>
+        <v>-0.002910230579807549</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01970132777699669</v>
+        <v>0.01976420374605984</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002955818294959611</v>
+        <v>-0.004032883511710939</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004987934635486701</v>
+        <v>0.004773826605376409</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.04314999542417863</v>
+        <v>0.01138156950887104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.007088580982189274</v>
+        <v>0.006939964655087057</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02119556217916874</v>
+        <v>0.004398578920656204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01438961984776591</v>
+        <v>0.01422510772475635</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0116648992576881</v>
+        <v>0.005633047210300335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008754595102747972</v>
+        <v>0.008768392719631509</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001340782122905226</v>
+        <v>-0.0139849735922043</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01503247123341127</v>
+        <v>0.01482466932468831</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01405517959396152</v>
+        <v>0.01847940865892261</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003399619584312913</v>
+        <v>0.003224633006596613</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.05169519973145342</v>
+        <v>0.02407079646017696</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006455902533870013</v>
+        <v>0.006356970575431724</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01555555555555566</v>
+        <v>0.03950338600451486</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01469118874946169</v>
+        <v>0.01451872462446193</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01197142305464383</v>
+        <v>0.01029248908865865</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01088993377417801</v>
+        <v>0.01076187633559326</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01199137698733499</v>
+        <v>0.003681985544797373</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02304463754476419</v>
+        <v>0.02305445456918512</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0001910098051700615</v>
+        <v>0.007002355337704547</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008406954532969578</v>
+        <v>0.008478787247079518</v>
       </c>
       <c r="E18" s="1">
-        <v>0.008307541944942098</v>
+        <v>0.004523424878836835</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01673787288054024</v>
+        <v>0.01684094958764486</v>
       </c>
       <c r="E19" s="1">
-        <v>0.005921954868470358</v>
+        <v>-0.003718163227365623</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01233533861926113</v>
+        <v>0.01245173079057989</v>
       </c>
       <c r="E20" s="1">
-        <v>0.009198562063861271</v>
+        <v>-0.02184389732844427</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007221546489932315</v>
+        <v>0.007237723434861793</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002004677581022296</v>
+        <v>0.00533511170390133</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01368886097272583</v>
+        <v>0.01371034051994097</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001333866880085521</v>
+        <v>-0.01412015452244564</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01934217744158974</v>
+        <v>0.01924193549859952</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.005416230485640217</v>
+        <v>0.006315211422295519</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01017707823327902</v>
+        <v>0.009964776408268577</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02109077394778403</v>
+        <v>0.03189066059225509</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02173956706587186</v>
+        <v>0.02132579037181821</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01926376540321317</v>
+        <v>0.01630218687872764</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01113623623751565</v>
+        <v>0.011151180448865</v>
       </c>
       <c r="E26" s="1">
-        <v>0.001106738809641072</v>
+        <v>-0.01332760103181418</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0192511426947485</v>
+        <v>0.01962983724302896</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01943176525384249</v>
+        <v>0.01065462918966342</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05659870188102829</v>
+        <v>0.05733340412578218</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01274296314218892</v>
+        <v>-0.006450585330891045</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0204765903757231</v>
+        <v>0.02018592540884923</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01442654484251016</v>
+        <v>0.007806782141985824</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03076270162957414</v>
+        <v>0.03110649771622604</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01093822868529282</v>
+        <v>0.009394002935625867</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0158811289665</v>
+        <v>0.01612740475273889</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01526891522333651</v>
+        <v>0.002020202020202033</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01349283629578833</v>
+        <v>0.01379839623794664</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02240587695133156</v>
+        <v>-0.007903718340219301</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02085843418670366</v>
+        <v>0.021469158126023</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0290377039954981</v>
+        <v>0.03642130591709503</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04019171030813306</v>
+        <v>0.0407774289321868</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01433480656529285</v>
+        <v>-0.0008013858696956921</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01105328767162593</v>
+        <v>0.01107545253138012</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001769911504424737</v>
+        <v>-0.009893992932862195</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01006625190644758</v>
+        <v>0.01012158081277646</v>
       </c>
       <c r="E36" s="1">
-        <v>0.005260293850897879</v>
+        <v>-0.05232767953807282</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0124691844773497</v>
+        <v>0.01208075531194488</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.03137870170621693</v>
+        <v>0.02125936424377395</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007490803273390388</v>
+        <v>0.007461254505680638</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.004178636719770146</v>
+        <v>0.001573564122737681</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01144699990948694</v>
+        <v>0.01141632599974875</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.002913907284768258</v>
+        <v>0.00823591923485667</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01707703600254689</v>
+        <v>0.01717093023756389</v>
       </c>
       <c r="E40" s="1">
-        <v>0.005262092693786746</v>
+        <v>-0.005033219247030374</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01729040684184813</v>
+        <v>0.01695737881478569</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01949122178430662</v>
+        <v>0.008550756413067129</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03410379421869364</v>
+        <v>0.03393276013191921</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.005248816865050854</v>
+        <v>-0.001585837033619919</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0112873956523996</v>
+        <v>0.01121568941561138</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.006586169045005419</v>
+        <v>0.001962430939226545</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02256752026305651</v>
+        <v>0.02271739684859674</v>
       </c>
       <c r="E44" s="1">
-        <v>0.006404801361580059</v>
+        <v>-0.00747663551401867</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0138147510721363</v>
+        <v>0.01403549441198414</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01574017035919861</v>
+        <v>0.01131373123091706</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007831596673814677</v>
+        <v>0.007654977085293118</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0227817745803357</v>
+        <v>0.01932515337423291</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01354213591513788</v>
+        <v>0.01329406526637638</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01854901620871963</v>
+        <v>0.03166122052459586</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009984053268629974</v>
+        <v>0.009753051326308271</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02336654615995049</v>
+        <v>0.01589021307331162</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01406623782084205</v>
+        <v>0.01414898844852478</v>
       </c>
       <c r="E49" s="1">
-        <v>0.005646653036814664</v>
+        <v>0.007122408618805753</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008282825134250169</v>
+        <v>0.008197172015605821</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01057351268152318</v>
+        <v>0.0135272235373689</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01037300509351147</v>
+        <v>0.01031843426236247</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.005494505494505475</v>
+        <v>0.04479942349267341</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008635128300303023</v>
+        <v>0.008593748878920258</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.005025751786010724</v>
+        <v>-0.0007931538300981478</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1415753341223012</v>
+        <v>0.1416225551003764</v>
       </c>
       <c r="E53" s="1">
-        <v>9.85707244947065E-05</v>
+        <v>-0.0001971220185293943</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04386687955059615</v>
+        <v>0.043843920391891</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0007581501137224889</v>
+        <v>0.001770359129994903</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.0002348905144140545</v>
+        <v>0.003842323648204804</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0171039426654218</v>
+        <v>0.01712619400320521</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005148270181219106</v>
+        <v>-0.01516082769924199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05041776893944781</v>
+        <v>0.05093742205383563</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01418887012995396</v>
+        <v>-0.03435882553663749</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01455952377380456</v>
+        <v>0.01437968981720249</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008556772618327546</v>
+        <v>0.007094281647499923</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009403046153850169</v>
+        <v>0.009329368355680776</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004023307436181844</v>
+        <v>0.005989692157682081</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01485969593251723</v>
+        <v>0.01475973909643621</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002910230579807549</v>
+        <v>-0.008157461457865445</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01976420374605984</v>
+        <v>0.0196091523050274</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004032883511710939</v>
+        <v>0.002180345740538936</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004773826605376409</v>
+        <v>0.004809679897896814</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01138156950887104</v>
+        <v>-0.05848976310936682</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006939964655087057</v>
+        <v>0.006943810270916433</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004398578920656204</v>
+        <v>-0.04311942058278573</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01422510772475635</v>
+        <v>0.01425048345855037</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005633047210300335</v>
+        <v>-0.001333688983729098</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008768392719631509</v>
+        <v>0.008612674296876214</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0139849735922043</v>
+        <v>-0.001131648434553045</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01482466932468831</v>
+        <v>0.01504082871551042</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01847940865892261</v>
+        <v>0.0111456713322966</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003224633006596613</v>
+        <v>0.003289612734553757</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02407079646017696</v>
+        <v>-0.02281368821292773</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006356970575431724</v>
+        <v>0.006582799192882152</v>
       </c>
       <c r="E14" s="1">
-        <v>0.03950338600451486</v>
+        <v>-0.02334419109663433</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01451872462446193</v>
+        <v>0.01461201435095188</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01029248908865865</v>
+        <v>0.01650654458701406</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01076187633559326</v>
+        <v>0.0107601574014538</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003681985544797373</v>
+        <v>0.00326086956521765</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02305445456918512</v>
+        <v>0.02312702852358664</v>
       </c>
       <c r="E17" s="1">
-        <v>0.007002355337704547</v>
+        <v>-0.03103862443896577</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008478787247079518</v>
+        <v>0.008484540055356486</v>
       </c>
       <c r="E18" s="1">
-        <v>0.004523424878836835</v>
+        <v>0.002412351238340271</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01684094958764486</v>
+        <v>0.01671411116359157</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003718163227365623</v>
+        <v>-0.001866019779809713</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01245173079057989</v>
+        <v>0.0121331170988736</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02184389732844427</v>
+        <v>-0.01499491244042184</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007237723434861793</v>
+        <v>0.007248486466903251</v>
       </c>
       <c r="E21" s="1">
-        <v>0.00533511170390133</v>
+        <v>-0.004643449419568624</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01371034051994097</v>
+        <v>0.01346501146128302</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01412015452244564</v>
+        <v>0.006350493176597638</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01924193549859952</v>
+        <v>0.0192893365155953</v>
       </c>
       <c r="E23" s="1">
-        <v>0.006315211422295519</v>
+        <v>0.008412914961346107</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009964776408268577</v>
+        <v>0.01024320201325352</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03189066059225509</v>
+        <v>-0.00570272259013993</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02132579037181821</v>
+        <v>0.02159048974248229</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01630218687872764</v>
+        <v>-0.0214397496087636</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.011151180448865</v>
+        <v>0.01096044837482325</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01332760103181418</v>
+        <v>-0.002801120448179373</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01962983724302896</v>
+        <v>0.01976304984612247</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01065462918966342</v>
+        <v>-0.02502667221207566</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05733340412578218</v>
+        <v>0.05674553539757024</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.006450585330891045</v>
+        <v>-0.03390509778775253</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02018592540884923</v>
+        <v>0.0202656453624283</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007806782141985824</v>
+        <v>0.002178649237472685</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03110649771622604</v>
+        <v>0.03127853001154486</v>
       </c>
       <c r="E30" s="1">
-        <v>0.009394002935625867</v>
+        <v>-0.04005151855083311</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01612740475273889</v>
+        <v>0.01609813113843588</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002020202020202033</v>
+        <v>-0.03113799283154117</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01379839623794664</v>
+        <v>0.01363694006324103</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.007903718340219301</v>
+        <v>-0.02571066449393422</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.021469158126023</v>
+        <v>0.02216592424699482</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03642130591709503</v>
+        <v>-0.05213170113972154</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0407774289321868</v>
+        <v>0.0405887951892303</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0008013858696956921</v>
+        <v>-0.02923802480045345</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01107545253138012</v>
+        <v>0.0109238989271281</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.009893992932862195</v>
+        <v>0.05960028551034968</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01012158081277646</v>
+        <v>0.009555227698237861</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.05232767953807282</v>
+        <v>-0.01209063214013728</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01208075531194488</v>
+        <v>0.01229036094495764</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02125936424377395</v>
+        <v>-0.02498017446471057</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007461254505680638</v>
+        <v>0.007444391506549284</v>
       </c>
       <c r="E38" s="1">
-        <v>0.001573564122737681</v>
+        <v>0.007200837915684932</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01141632599974875</v>
+        <v>0.0114662927309242</v>
       </c>
       <c r="E39" s="1">
-        <v>0.00823591923485667</v>
+        <v>0.02608695652173898</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01717093023756389</v>
+        <v>0.0170191122435579</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.005033219247030374</v>
+        <v>-0.01254552812626486</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01695737881478569</v>
+        <v>0.01703691588563518</v>
       </c>
       <c r="E41" s="1">
-        <v>0.008550756413067129</v>
+        <v>-0.007536231884057831</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03393276013191921</v>
+        <v>0.03374927267573737</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.001585837033619919</v>
+        <v>-0.03615675628844528</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01121568941561138</v>
+        <v>0.011194685825444</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001962430939226545</v>
+        <v>-0.009788525501336465</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02271739684859674</v>
+        <v>0.02246124378437168</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.00747663551401867</v>
+        <v>-0.01058201058201058</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01403549441198414</v>
+        <v>0.01413995792872022</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01131373123091706</v>
+        <v>-0.04019934241816414</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007654977085293118</v>
+        <v>0.007773044140224124</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01932515337423291</v>
+        <v>-0.008764670478483172</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01329406526637638</v>
+        <v>0.01366247594403071</v>
       </c>
       <c r="E47" s="1">
-        <v>0.03166122052459586</v>
+        <v>-0.01262680306467501</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009753051326308271</v>
+        <v>0.00987010525118137</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01589021307331162</v>
+        <v>0.001599715606114493</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01414898844852478</v>
+        <v>0.0141952206936353</v>
       </c>
       <c r="E49" s="1">
-        <v>0.007122408618805753</v>
+        <v>-0.006165719150805993</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008197172015605821</v>
+        <v>0.008276256936091025</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0135272235373689</v>
+        <v>-0.01955288621955287</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01031843426236247</v>
+        <v>0.0107394298035609</v>
       </c>
       <c r="E51" s="1">
-        <v>0.04479942349267341</v>
+        <v>-0.0495459248189446</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008593748878920258</v>
+        <v>0.008554065226972159</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.0007931538300981478</v>
+        <v>-0.0006684491978610207</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1416225551003764</v>
+        <v>0.1410526681738788</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.0001971220185293943</v>
+        <v>0.0001971608832807004</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.043843920391891</v>
+        <v>0.0437534250568656</v>
       </c>
       <c r="E54" s="1">
-        <v>0.001770359129994903</v>
+        <v>-0.01577884372633176</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E55" s="1">
-        <v>0.003842323648204804</v>
+        <v>-0.01396471161156365</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01712619400320521</v>
+        <v>0.01710541896968546</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01516082769924199</v>
+        <v>-0.005928853754940788</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05093742205383563</v>
+        <v>0.04988388614021398</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.03435882553663749</v>
+        <v>0.0155119402640036</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01437968981720249</v>
+        <v>0.01468680031770275</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007094281647499923</v>
+        <v>-0.001660123387548951</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009329368355680776</v>
+        <v>0.00951816685536281</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005989692157682081</v>
+        <v>0.001107726391581298</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01475973909643621</v>
+        <v>0.01484666650983174</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008157461457865445</v>
+        <v>0.01486455896778072</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0196091523050274</v>
+        <v>0.01993022690785243</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002180345740538936</v>
+        <v>-0.005361305361305413</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004809679897896814</v>
+        <v>0.004592495738603883</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.05848976310936682</v>
+        <v>-0.00477099236641243</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006943810270916433</v>
+        <v>0.006738498381997301</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.04311942058278573</v>
+        <v>-0.005632811124801962</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01425048345855037</v>
+        <v>0.01443303085938094</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001333688983729098</v>
+        <v>-0.01415598290598297</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008612674296876214</v>
+        <v>0.008724766627319551</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001131648434553045</v>
+        <v>-0.0157099697885198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01504082871551042</v>
+        <v>0.01542385858603032</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0111456713322966</v>
+        <v>-0.01794411689310416</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003289612734553757</v>
+        <v>0.003260090762613795</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02281368821292773</v>
+        <v>0.02440749911567042</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006582799192882152</v>
+        <v>0.00652018152522759</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02334419109663433</v>
+        <v>-0.009449694274596854</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01461201435095188</v>
+        <v>0.01506356658047994</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01650654458701406</v>
+        <v>-0.01592134475103091</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0107601574014538</v>
+        <v>0.01094813238265008</v>
       </c>
       <c r="E16" s="1">
-        <v>0.00326086956521765</v>
+        <v>-0.01124052004333687</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02312702852358664</v>
+        <v>0.02272656732953147</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.03103862443896577</v>
+        <v>0.01702766179540705</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008484540055356486</v>
+        <v>0.00862545980475633</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002412351238340271</v>
+        <v>0.005936146317985003</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01671411116359157</v>
+        <v>0.01691919396599358</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001866019779809713</v>
+        <v>-0.002679628591013894</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0121331170988736</v>
+        <v>0.01212044052691001</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01499491244042184</v>
+        <v>0.001957266351329201</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007248486466903251</v>
+        <v>0.007317008398774026</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.004643449419568624</v>
+        <v>-0.008330556481172979</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01346501146128302</v>
+        <v>0.01374242999643299</v>
       </c>
       <c r="E22" s="1">
-        <v>0.006350493176597638</v>
+        <v>-0.01745435016111707</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0192893365155953</v>
+        <v>0.01972709931624584</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008412914961346107</v>
+        <v>-0.01379932356257041</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01024320201325352</v>
+        <v>0.01032902979606649</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.00570272259013993</v>
+        <v>-0.01230342275670671</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02159048974248229</v>
+        <v>0.02142681433136492</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0214397496087636</v>
+        <v>0.0004797697105389798</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01096044837482325</v>
+        <v>0.01108453923248808</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.002801120448179373</v>
+        <v>-0.005680399500624267</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01976304984612247</v>
+        <v>0.01954133559175631</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02502667221207566</v>
+        <v>0.0058237661590963</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05674553539757024</v>
+        <v>0.05559798225933367</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.03390509778775253</v>
+        <v>-0.004480212395254424</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0202656453624283</v>
+        <v>0.02059743432553831</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002178649237472685</v>
+        <v>-0.002898550724637627</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03127853001154486</v>
+        <v>0.030451017058039</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.04005151855083311</v>
+        <v>0.01138281757195414</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01609813113843588</v>
+        <v>0.01581775807632339</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.03113799283154117</v>
+        <v>0.009788053949903786</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01363694006324103</v>
+        <v>0.01347449267689613</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02571066449393422</v>
+        <v>-0.01189370005575174</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02216592424699482</v>
+        <v>0.02130793609121625</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.05213170113972154</v>
+        <v>0.007682030728123124</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0405887951892303</v>
+        <v>0.03996009012341261</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.02923802480045345</v>
+        <v>0.002780333837949289</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0109238989271281</v>
+        <v>0.01173889672953705</v>
       </c>
       <c r="E35" s="1">
-        <v>0.05960028551034968</v>
+        <v>-0.003368137420006745</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009555227698237861</v>
+        <v>0.009573388565587081</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01209063214013728</v>
+        <v>-0.003372843789149038</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01229036094495764</v>
+        <v>0.01215305955621909</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02498017446471057</v>
+        <v>-0.003660024400162665</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007444391506549284</v>
+        <v>0.007604187650751809</v>
       </c>
       <c r="E38" s="1">
-        <v>0.007200837915684932</v>
+        <v>-0.002339789418952298</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0114662927309242</v>
+        <v>0.01193204092126419</v>
       </c>
       <c r="E39" s="1">
-        <v>0.02608695652173898</v>
+        <v>-0.01052901900359515</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0170191122435579</v>
+        <v>0.01704360755657046</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01254552812626486</v>
+        <v>0.003688524590164111</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01703691588563518</v>
+        <v>0.01714798845035954</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.007536231884057831</v>
+        <v>-0.02701518691588811</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03374927267573737</v>
+        <v>0.03298970009669071</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.03615675628844528</v>
+        <v>0.009707865168539387</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.011194685825444</v>
+        <v>0.01124209902860531</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.009788525501336465</v>
+        <v>0.002303151798640934</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02246124378437168</v>
+        <v>0.02253829951794346</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01058201058201058</v>
+        <v>-0.06235837940723277</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01413995792872022</v>
+        <v>0.01376374768528449</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.04019934241816414</v>
+        <v>0.0222126467736723</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007773044140224124</v>
+        <v>0.007814036739306938</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.008764670478483172</v>
+        <v>0.06098440286896123</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01366247594403071</v>
+        <v>0.01368101396549144</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01262680306467501</v>
+        <v>-0.02336570140454308</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00987010525118137</v>
+        <v>0.01002590346309315</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001599715606114493</v>
+        <v>-0.007985803016859028</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.0141952206936353</v>
+        <v>0.01430749701931264</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.006165719150805993</v>
+        <v>0.008166028767634392</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008276256936091025</v>
+        <v>0.008229352763994864</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01955288621955287</v>
+        <v>-0.006398039749523576</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0107394298035609</v>
+        <v>0.0103518960650973</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0495459248189446</v>
+        <v>0.01149008224479897</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008554065226972159</v>
+        <v>0.008669413123037463</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.0006684491978610207</v>
+        <v>-0.0007525083612038852</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1410526681738788</v>
+        <v>0.1430785286326874</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0001971608832807004</v>
+        <v>0.0001971220185295053</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.0437534250568656</v>
+        <v>0.04367292642313365</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.01577884372633176</v>
+        <v>0.001923816852635873</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01396471161156365</v>
+        <v>-0.00121389444126252</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01710541896968546</v>
+        <v>0.01702466959398167</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005928853754940788</v>
+        <v>0.008998639740504411</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04988388614021398</v>
+        <v>0.0507192498175759</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0155119402640036</v>
+        <v>0.01167820069204151</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01468680031770275</v>
+        <v>0.01468023867713365</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001660123387548951</v>
+        <v>0.02168490595716954</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00951816685536281</v>
+        <v>0.009540291286548735</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001107726391581298</v>
+        <v>-0.003457814661134151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01484666650983174</v>
+        <v>0.01508566806825289</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01486455896778072</v>
+        <v>0.02453531598513026</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01993022690785243</v>
+        <v>0.01984746760607948</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005361305361305413</v>
+        <v>0.01695180064057511</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004592495738603883</v>
+        <v>0.004576139927312426</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00477099236641243</v>
+        <v>-0.01165665842458485</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006738498381997301</v>
+        <v>0.006708685329175993</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005632811124801962</v>
+        <v>-0.01026730394760156</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01443303085938094</v>
+        <v>0.01424601027393572</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01415598290598297</v>
+        <v>-0.01192088864806273</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008724766627319551</v>
+        <v>0.008598138039163422</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0157099697885198</v>
+        <v>0.02079496623695531</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01542385858603032</v>
+        <v>0.01516550038123162</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01794411689310416</v>
+        <v>-0.02845210127903963</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003260090762613795</v>
+        <v>0.003343720348563554</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02440749911567042</v>
+        <v>-0.05110497237569056</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.00652018152522759</v>
+        <v>0.006466417351276912</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.009449694274596854</v>
+        <v>-0.0145903479236813</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01506356658047994</v>
+        <v>0.01484175066239971</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01592134475103091</v>
+        <v>-0.02687894804692526</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01094813238265008</v>
+        <v>0.0108382261436347</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01124052004333687</v>
+        <v>-0.01438159156279972</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02272656732953147</v>
+        <v>0.02314163913890169</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01702766179540705</v>
+        <v>0.01238052472897566</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.00862545980475633</v>
+        <v>0.008687207148685145</v>
       </c>
       <c r="E18" s="1">
-        <v>0.005936146317985003</v>
+        <v>0.01084529505582132</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01691919396599358</v>
+        <v>0.0168943647856073</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002679628591013894</v>
+        <v>0.002874281429642744</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01212044052691001</v>
+        <v>0.01215892310648732</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001957266351329201</v>
+        <v>0.008410657116501241</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007317008398774026</v>
+        <v>0.007264872435300515</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008330556481172979</v>
+        <v>0.007728494623655768</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01374242999643299</v>
+        <v>0.01351897542032491</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01745435016111707</v>
+        <v>0.003962831374692444</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01972709931624584</v>
+        <v>0.01947852356130507</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01379932356257041</v>
+        <v>0.001920526773057762</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01032902979606649</v>
+        <v>0.01021434651427367</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01230342275670671</v>
+        <v>-0.007211763604008548</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02142681433136492</v>
+        <v>0.02146314826424441</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0004797697105389798</v>
+        <v>-0.008072250639386103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01108453923248808</v>
+        <v>0.01103496991000045</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005680399500624267</v>
+        <v>0.01111180865088857</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01954133559175631</v>
+        <v>0.01967902802340618</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0058237661590963</v>
+        <v>0.03267503826224849</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05559798225933367</v>
+        <v>0.05541616085968796</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004480212395254424</v>
+        <v>0.0283356946412201</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02059743432553831</v>
+        <v>0.0205626925555389</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002898550724637627</v>
+        <v>-0.007509689922480578</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.030451017058039</v>
+        <v>0.03083506594523802</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01138281757195414</v>
+        <v>0.02383601506333433</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01581775807632339</v>
+        <v>0.01599199574047502</v>
       </c>
       <c r="E31" s="1">
-        <v>0.009788053949903786</v>
+        <v>0.02343153716989765</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01347449267689613</v>
+        <v>0.01333041281661152</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01189370005575174</v>
+        <v>0.01156667293586611</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02130793609121625</v>
+        <v>0.02149772027416248</v>
       </c>
       <c r="E33" s="1">
-        <v>0.007682030728123124</v>
+        <v>0.008507347254447017</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03996009012341261</v>
+        <v>0.04011989383025482</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002780333837949289</v>
+        <v>0.001840194182420873</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01173889672953705</v>
+        <v>0.01171357755887872</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003368137420006745</v>
+        <v>-0.01757350456235218</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009573388565587081</v>
+        <v>0.009552694984763613</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.003372843789149038</v>
+        <v>0.02397988783600846</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01215305955621909</v>
+        <v>0.01212329546267863</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.003660024400162665</v>
+        <v>-0.02102040816326534</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007604187650751809</v>
+        <v>0.007595615728657836</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.002339789418952298</v>
+        <v>-0.01667752442996751</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01193204092126419</v>
+        <v>0.01182075738733652</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01052901900359515</v>
+        <v>-0.02257980794186354</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01704360755657046</v>
+        <v>0.01712726401272706</v>
       </c>
       <c r="E40" s="1">
-        <v>0.003688524590164111</v>
+        <v>0.02694977541853794</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01714798845035954</v>
+        <v>0.01670501045647593</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.02701518691588811</v>
+        <v>0.0120066036319979</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03298970009669071</v>
+        <v>0.03335044357524957</v>
       </c>
       <c r="E42" s="1">
-        <v>0.009707865168539387</v>
+        <v>0.01486690999732931</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01124209902860531</v>
+        <v>0.01128168606520616</v>
       </c>
       <c r="E43" s="1">
-        <v>0.002303151798640934</v>
+        <v>0.002702318304650841</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02253829951794346</v>
+        <v>0.02115853190968013</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.06235837940723277</v>
+        <v>0.00531657805703234</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01376374768528449</v>
+        <v>0.01408657656789184</v>
       </c>
       <c r="E45" s="1">
-        <v>0.0222126467736723</v>
+        <v>0.00172828057159724</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007814036739306938</v>
+        <v>0.008300647213360877</v>
       </c>
       <c r="E46" s="1">
-        <v>0.06098440286896123</v>
+        <v>-0.01988697331711853</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01368101396549144</v>
+        <v>0.01337758645609895</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02336570140454308</v>
+        <v>0.003240268098894772</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01002590346309315</v>
+        <v>0.009957926444528357</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.007985803016859028</v>
+        <v>0.003846153846153832</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01430749701931264</v>
+        <v>0.01444186334920626</v>
       </c>
       <c r="E49" s="1">
-        <v>0.008166028767634392</v>
+        <v>0.001754289786743968</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008229352763994864</v>
+        <v>0.008186638753173076</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.006398039749523576</v>
+        <v>0.0001370050691875679</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0103518960650973</v>
+        <v>0.01048356614494284</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01149008224479897</v>
+        <v>0.01028339112758592</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008669413123037463</v>
+        <v>0.00867341793098882</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.0007525083612038852</v>
+        <v>0.01087775081583131</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1430785286326874</v>
+        <v>0.1432806601579659</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0001971220185295053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04367292642313365</v>
+        <v>0.04381012600341696</v>
       </c>
       <c r="E54" s="1">
-        <v>0.001923816852635873</v>
+        <v>0.00972862263184826</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.00121389444126252</v>
+        <v>0.005777984389961244</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01702466959398167</v>
+        <v>0.01707918519689809</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008998639740504411</v>
+        <v>-0.02141449756299907</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0507192498175759</v>
+        <v>0.05101678520734131</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01167820069204151</v>
+        <v>0.00856030628087967</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01468023867713365</v>
+        <v>0.0149124145736529</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02168490595716954</v>
+        <v>-0.005828531210135046</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009540291286548735</v>
+        <v>0.009452685259593467</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003457814661134151</v>
+        <v>0.01651630811936156</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01508566806825289</v>
+        <v>0.01536700936094633</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02453531598513026</v>
+        <v>0.01204644412191569</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01984746760607948</v>
+        <v>0.02006796552859551</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01695180064057511</v>
+        <v>0.0185896451067753</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004576139927312426</v>
+        <v>0.004496814900974267</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01165665842458485</v>
+        <v>-0.05218012866333088</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006708685329175993</v>
+        <v>0.006601660924045575</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01026730394760156</v>
+        <v>-0.01234126274369507</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01424601027393572</v>
+        <v>0.0139953204288108</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01192088864806273</v>
+        <v>-0.01096791883740067</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008598138039163422</v>
+        <v>0.008726514365605268</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02079496623695531</v>
+        <v>0.01691347816282041</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01516550038123162</v>
+        <v>0.01464936621910072</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02845210127903963</v>
+        <v>-0.02364320257925834</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003343720348563554</v>
+        <v>0.00315461231182408</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.05110497237569056</v>
+        <v>-0.07823871906841351</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006466417351276912</v>
+        <v>0.006335463861009973</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0145903479236813</v>
+        <v>-0.04014806378132119</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01484175066239971</v>
+        <v>0.0143598490338598</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02687894804692526</v>
+        <v>-0.01000198714976486</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0108382261436347</v>
+        <v>0.01062098730312823</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01438159156279972</v>
+        <v>-0.0145914396887159</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02314163913890169</v>
+        <v>0.02329355497748329</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01238052472897566</v>
+        <v>-0.03928526169053337</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008687207148685145</v>
+        <v>0.008730975035956776</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01084529505582132</v>
+        <v>-0.01199116440517511</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0168943647856073</v>
+        <v>0.01684559038628454</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002874281429642744</v>
+        <v>-0.0009345794392523477</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01215892310648732</v>
+        <v>0.01219074967829875</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008410657116501241</v>
+        <v>-0.01162290142057676</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007264872435300515</v>
+        <v>0.007278961238447397</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007728494623655768</v>
+        <v>0.0003334444814939719</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01351897542032491</v>
+        <v>0.01349457738280728</v>
       </c>
       <c r="E22" s="1">
-        <v>0.003962831374692444</v>
+        <v>-0.02136926636722447</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01947852356130507</v>
+        <v>0.01940381763192129</v>
       </c>
       <c r="E23" s="1">
-        <v>0.001920526773057762</v>
+        <v>-0.01086212404728226</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01021434651427367</v>
+        <v>0.010082426956277</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.007211763604008548</v>
+        <v>-0.05415094339622639</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02146314826424441</v>
+        <v>0.02116758636833573</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.008072250639386103</v>
+        <v>-0.02723390540649429</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01103496991000045</v>
+        <v>0.0110934903699211</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01111180865088857</v>
+        <v>-0.007450639513224777</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01967902802340618</v>
+        <v>0.0202052951371379</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03267503826224849</v>
+        <v>-0.02789136296269856</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05541616085968796</v>
+        <v>0.05665904121629885</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0283356946412201</v>
+        <v>-0.00688872680119923</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0205626925555389</v>
+        <v>0.02029103184521763</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.007509689922480578</v>
+        <v>-0.02684891383939469</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03083506594523802</v>
+        <v>0.03138868769406991</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02383601506333433</v>
+        <v>-0.02503657262277958</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01599199574047502</v>
+        <v>0.01627268943753604</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02343153716989765</v>
+        <v>-0.01170855395629788</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01333041281661152</v>
+        <v>0.01340713512429904</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01156667293586611</v>
+        <v>-0.01227107929720184</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02149772027416248</v>
+        <v>0.02155605827747738</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008507347254447017</v>
+        <v>-0.06441717791411039</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04011989383025482</v>
+        <v>0.03996281768869644</v>
       </c>
       <c r="E34" s="1">
-        <v>0.001840194182420873</v>
+        <v>0.005239598363117937</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01171357755887872</v>
+        <v>0.01144161945161896</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01757350456235218</v>
+        <v>-0.01719986240110083</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009552694984763613</v>
+        <v>0.009725573328156333</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02397988783600846</v>
+        <v>-0.01000944287063277</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01212329546267863</v>
+        <v>0.01180027702730826</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02102040816326534</v>
+        <v>-0.0485720241817803</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007595615728657836</v>
+        <v>0.007426032163860364</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01667752442996751</v>
+        <v>-0.02729561415131854</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01182075738733652</v>
+        <v>0.01148747251890873</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02257980794186354</v>
+        <v>-0.02018056293149229</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01712726401272706</v>
+        <v>0.01748779572071494</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02694977541853794</v>
+        <v>-0.00576540755467192</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01670501045647593</v>
+        <v>0.01680846186541757</v>
       </c>
       <c r="E41" s="1">
-        <v>0.0120066036319979</v>
+        <v>-0.01431113747590096</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03335044357524957</v>
+        <v>0.03365182191652636</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01486690999732931</v>
+        <v>0.0003216374269006117</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01128168606520616</v>
+        <v>0.01124718670276792</v>
       </c>
       <c r="E43" s="1">
-        <v>0.002702318304650841</v>
+        <v>-0.01470855496453893</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02115853190968013</v>
+        <v>0.02114882531362203</v>
       </c>
       <c r="E44" s="1">
-        <v>0.00531657805703234</v>
+        <v>0.0007211538461540101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01408657656789184</v>
+        <v>0.01402985782498829</v>
       </c>
       <c r="E45" s="1">
-        <v>0.00172828057159724</v>
+        <v>-0.02360713684564875</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008300647213360877</v>
+        <v>0.008088835299619783</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01988697331711853</v>
+        <v>-0.0263119480329902</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01337758645609895</v>
+        <v>0.01334383296416367</v>
       </c>
       <c r="E47" s="1">
-        <v>0.003240268098894772</v>
+        <v>-0.03437748871781265</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009957926444528357</v>
+        <v>0.009938799930767774</v>
       </c>
       <c r="E48" s="1">
-        <v>0.003846153846153832</v>
+        <v>-0.05016484006058997</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01444186334920626</v>
+        <v>0.01438408752937278</v>
       </c>
       <c r="E49" s="1">
-        <v>0.001754289786743968</v>
+        <v>-0.01963279155037478</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008186638753173076</v>
+        <v>0.008140723391502772</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0001370050691875679</v>
+        <v>-0.008835616438356064</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01048356614494284</v>
+        <v>0.01053052753232338</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01028339112758592</v>
+        <v>-0.0124275062137531</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00867341793098882</v>
+        <v>0.008717396230622038</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01087775081583131</v>
+        <v>-0.005628673123086014</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,7 +1686,7 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1432806601579659</v>
+        <v>0.142457542700013</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04381012600341696</v>
+        <v>0.0439822096658725</v>
       </c>
       <c r="E54" s="1">
-        <v>0.00972862263184826</v>
+        <v>-0.00773326572008104</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>0.005777984389961244</v>
+        <v>-0.01162587596824005</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01707918519689809</v>
+        <v>0.01691003702013555</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02141449756299907</v>
+        <v>-0.02124728448047486</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05101678520734131</v>
+        <v>0.05205873288577577</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00856030628087967</v>
+        <v>-0.0160733067729083</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0149124145736529</v>
+        <v>0.01499988388952956</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005828531210135046</v>
+        <v>-0.0146899404880424</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009452685259593467</v>
+        <v>0.009721833552966928</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01651630811936156</v>
+        <v>0.002594210813763098</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01536700936094633</v>
+        <v>0.01573506104863808</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01204644412191569</v>
+        <v>-0.00466083464792777</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02006796552859551</v>
+        <v>0.02068146199781557</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0185896451067753</v>
+        <v>-0.0003016591251885359</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004496814900974267</v>
+        <v>0.004312304842097714</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.05218012866333088</v>
+        <v>0.01599870717517771</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006601660924045575</v>
+        <v>0.006596882631285506</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01234126274369507</v>
+        <v>0.02028250633828321</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0139953204288108</v>
+        <v>0.0140046370637273</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01096791883740067</v>
+        <v>-0.00277238702522864</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008726514365605268</v>
+        <v>0.008978492920844934</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01691347816282041</v>
+        <v>0.002956830277942135</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01464936621910072</v>
+        <v>0.01447124923463209</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02364320257925834</v>
+        <v>-0.001651073197578401</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.00315461231182408</v>
+        <v>0.002942002845570327</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.07823871906841351</v>
+        <v>-0.01894986182392411</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006335463861009973</v>
+        <v>0.006152637049043669</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.04014806378132119</v>
+        <v>0.01275585879560959</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0143598490338598</v>
+        <v>0.01438344212246268</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01000198714976486</v>
+        <v>0.007761273919443479</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01062098730312823</v>
+        <v>0.01058911959852533</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0145914396887159</v>
+        <v>-0.01170497814130589</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02329355497748329</v>
+        <v>0.02264169106654084</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.03928526169053337</v>
+        <v>-0.02842632898034569</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008730975035956776</v>
+        <v>0.008727748196902354</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01199116440517511</v>
+        <v>-0.00511018843819866</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01684559038628454</v>
+        <v>0.01702781005153738</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0009345794392523477</v>
+        <v>0.00972871842843781</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01219074967829875</v>
+        <v>0.01219078636680069</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01162290142057676</v>
+        <v>-0.01910932055749148</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007278961238447397</v>
+        <v>0.007367036621923327</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0003334444814939719</v>
+        <v>-0.0003333333333334076</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01349457738280728</v>
+        <v>0.01336154786239283</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02136926636722447</v>
+        <v>0.01821974965229445</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01940381763192129</v>
+        <v>0.01941881165354728</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01086212404728226</v>
+        <v>0.01674895030683343</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.010082426956277</v>
+        <v>0.009648627774642772</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.05415094339622639</v>
+        <v>0.0186515060841812</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02116758636833573</v>
+        <v>0.0208333158698062</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02723390540649429</v>
+        <v>-0.002981860349540288</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0110934903699211</v>
+        <v>0.0111403531360333</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.007450639513224777</v>
+        <v>0.0003127736769672484</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0202052951371379</v>
+        <v>0.01987278039673606</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02789136296269856</v>
+        <v>0.01476828125861052</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05665904121629885</v>
+        <v>0.05693060066264317</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.00688872680119923</v>
+        <v>-0.01999347151950381</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02029103184521763</v>
+        <v>0.01997850732771556</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02684891383939469</v>
+        <v>0.00953097567093053</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03138868769406991</v>
+        <v>0.03096279211585289</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02503657262277958</v>
+        <v>-0.01714824659178604</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01627268943753604</v>
+        <v>0.01627132821895466</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01170855395629788</v>
+        <v>-0.04029580440688219</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01340713512429904</v>
+        <v>0.01339838304550245</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01227107929720184</v>
+        <v>-0.01204705882352941</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02155605827747738</v>
+        <v>0.02040470035174872</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.06441717791411039</v>
+        <v>-0.02810304449648715</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03996281768869644</v>
+        <v>0.04064473747954256</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005239598363117937</v>
+        <v>-0.004310914942708854</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01144161945161896</v>
+        <v>0.0113770938534243</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01719986240110083</v>
+        <v>-0.005250262513125659</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009725573328156333</v>
+        <v>0.009741478983958723</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01000944287063277</v>
+        <v>-0.01697825257535279</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01180027702730826</v>
+        <v>0.01135917403461421</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0485720241817803</v>
+        <v>-0.0006573181419806673</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007426032163860364</v>
+        <v>0.00730829943804583</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02729561415131854</v>
+        <v>0.002179539572265465</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01148747251890873</v>
+        <v>0.01138804485380824</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02018056293149229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01748779572071494</v>
+        <v>0.01759148790766345</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.00576540755467192</v>
+        <v>-0.007198560287942413</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01680846186541757</v>
+        <v>0.01676279584224603</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01431113747590096</v>
+        <v>0.01143458963364163</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03365182191652636</v>
+        <v>0.03405860673954311</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0003216374269006117</v>
+        <v>-0.02706731752944969</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01124718670276792</v>
+        <v>0.01121210740903384</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01470855496453893</v>
+        <v>-0.001715165550028264</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02114882531362203</v>
+        <v>0.02141302200831242</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0007211538461540101</v>
+        <v>-0.000384338217631619</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01402985782498829</v>
+        <v>0.01385978519501246</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.02360713684564875</v>
+        <v>-0.01463172865577722</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008088835299619783</v>
+        <v>0.007968644761197418</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0263119480329902</v>
+        <v>0.005547018477568333</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01334383296416367</v>
+        <v>0.01303666818433594</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.03437748871781265</v>
+        <v>0.0136540664375715</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009938799930767774</v>
+        <v>0.009551263425774649</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.05016484006058997</v>
+        <v>0.02026266416510314</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01438408752937278</v>
+        <v>0.01426756062749081</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01963279155037478</v>
+        <v>0.008624419107693626</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008140723391502772</v>
+        <v>0.008163705307430144</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.008835616438356064</v>
+        <v>-0.001174763319743088</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01053052753232338</v>
+        <v>0.01052198664768682</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0124275062137531</v>
+        <v>0.001438159156279983</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008717396230622038</v>
+        <v>0.008770291174151479</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.005628673123086014</v>
+        <v>0.006284858070424004</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.142457542700013</v>
+        <v>0.1441332176108601</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>0.0001970831690973895</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.0439822096658725</v>
+        <v>0.04415542909353586</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.00773326572008104</v>
+        <v>-0.008560112431327593</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.01162587596824005</v>
+        <v>-0.005166565834169301</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01691003702013555</v>
+        <v>0.01663669925495738</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02124728448047486</v>
+        <v>0.01185578172368995</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05205873288577577</v>
+        <v>0.05148799300743596</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0160733067729083</v>
+        <v>-0.01321965488310917</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01499988388952956</v>
+        <v>0.01485629250112356</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0146899404880424</v>
+        <v>-0.006915598266609591</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009721833552966928</v>
+        <v>0.009797674368345449</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002594210813763098</v>
+        <v>0.01143946615824576</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01573506104863808</v>
+        <v>0.01574306008728758</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00466083464792777</v>
+        <v>0.005907355377854584</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02068146199781557</v>
+        <v>0.02078259790637001</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0003016591251885359</v>
+        <v>0.006940253470126612</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004312304842097714</v>
+        <v>0.00440404995856443</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01599870717517771</v>
+        <v>0.009596521923545875</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006596882631285506</v>
+        <v>0.006765639064705493</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02028250633828321</v>
+        <v>-0.00283990060347894</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0140046370637273</v>
+        <v>0.01403834080159272</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00277238702522864</v>
+        <v>0.01668056713928268</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008978492920844934</v>
+        <v>0.009051807560241799</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002956830277942135</v>
+        <v>-7.370283018892643E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01447124923463209</v>
+        <v>0.01452238701144925</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001651073197578401</v>
+        <v>0.03996692392502732</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002942002845570327</v>
+        <v>0.002901241754687612</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01894986182392411</v>
+        <v>0.04024144869215296</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006152637049043669</v>
+        <v>0.006263479899714779</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01275585879560959</v>
+        <v>-0.003514938488576425</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01438344212246268</v>
+        <v>0.01457035465322265</v>
       </c>
       <c r="E15" s="1">
-        <v>0.007761273919443479</v>
+        <v>0.01281370335944776</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01058911959852533</v>
+        <v>0.01051952399837063</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01170497814130589</v>
+        <v>0.02340182648401834</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02264169106654084</v>
+        <v>0.02211231564212296</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02842632898034569</v>
+        <v>0.009300115402891995</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008727748196902354</v>
+        <v>0.008728242800017941</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00511018843819866</v>
+        <v>0.00786516853932584</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01702781005153738</v>
+        <v>0.01728276134526827</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00972871842843781</v>
+        <v>0.0003705762460626261</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01219078636680069</v>
+        <v>0.0120199304844396</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01910932055749148</v>
+        <v>0.01620691569073673</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007367036621923327</v>
+        <v>0.007402828142004057</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0003333333333334076</v>
+        <v>0.003001000333444637</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01336154786239283</v>
+        <v>0.01367564805541602</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01821974965229445</v>
+        <v>0.01174702909438619</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01941881165354728</v>
+        <v>0.01984659510514513</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01674895030683343</v>
+        <v>0.01098202940642579</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009648627774642772</v>
+        <v>0.009879632988538233</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0186515060841812</v>
+        <v>0.02467443454420848</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0208333158698062</v>
+        <v>0.02087906690498521</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.002981860349540288</v>
+        <v>0.02243083824873304</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0111403531360333</v>
+        <v>0.01120171192737455</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0003127736769672484</v>
+        <v>0.0208867487961979</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01987278039673606</v>
+        <v>0.0202709986561068</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01476828125861052</v>
+        <v>-0.008000724047425245</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05693060066264317</v>
+        <v>0.05608211224473809</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01999347151950381</v>
+        <v>0.004163544008660258</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01997850732771556</v>
+        <v>0.02027366723144884</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00953097567093053</v>
+        <v>0.02409937888198765</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03096279211585289</v>
+        <v>0.03058987914594685</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01714824659178604</v>
+        <v>0.003663962313530611</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01627132821895466</v>
+        <v>0.01569676030510297</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.04029580440688219</v>
+        <v>0.0007862871520678549</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01339838304550245</v>
+        <v>0.013305716798624</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01204705882352941</v>
+        <v>0.02267314470801174</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02040470035174872</v>
+        <v>0.01993425780513155</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02810304449648715</v>
+        <v>0.0131325301204821</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04064473747954256</v>
+        <v>0.04067969579986349</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.004310914942708854</v>
+        <v>-3.443983606643553E-05</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0113770938534243</v>
+        <v>0.01137613668316945</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.005250262513125659</v>
+        <v>0.01090781140042218</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009741478983958723</v>
+        <v>0.009625818116317273</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01697825257535279</v>
+        <v>0.007956530176596033</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01135917403461421</v>
+        <v>0.01141066137665726</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0006573181419806673</v>
+        <v>0.03069502302126725</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00730829943804583</v>
+        <v>0.007362265796804861</v>
       </c>
       <c r="E38" s="1">
-        <v>0.002179539572265465</v>
+        <v>0.02419464455620512</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01138804485380824</v>
+        <v>0.0114471875016516</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>0.02059620596205947</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01759148790766345</v>
+        <v>0.01755555645960958</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.007198560287942413</v>
+        <v>0.01732124874118823</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01676279584224603</v>
+        <v>0.0170425228501</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01143458963364163</v>
+        <v>0.01018966158423207</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03405860673954311</v>
+        <v>0.03330882384758051</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02706731752944969</v>
+        <v>-0.003875619648490369</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01121210740903384</v>
+        <v>0.01125100585109294</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.001715165550028264</v>
+        <v>0.01216536240341948</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02141302200831242</v>
+        <v>0.02151595576755779</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.000384338217631619</v>
+        <v>-0.0004806074878647149</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01385978519501246</v>
+        <v>0.01372791877492847</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01463172865577722</v>
+        <v>0.00968793054431738</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007968644761197418</v>
+        <v>0.008054460883341483</v>
       </c>
       <c r="E46" s="1">
-        <v>0.005547018477568333</v>
+        <v>0.02195385590219523</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01303666818433594</v>
+        <v>0.01328330076575076</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0136540664375715</v>
+        <v>0.01365095149844064</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009551263425774649</v>
+        <v>0.009795406079304703</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02026266416510314</v>
+        <v>0.02602059580728211</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01426756062749081</v>
+        <v>0.01446534621351288</v>
       </c>
       <c r="E49" s="1">
-        <v>0.008624419107693626</v>
+        <v>0.006572120373573132</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008163705307430144</v>
+        <v>0.008196462448730447</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.001174763319743088</v>
+        <v>0.01418292514182951</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01052198664768682</v>
+        <v>0.01059184239014025</v>
       </c>
       <c r="E51" s="1">
-        <v>0.001438159156279983</v>
+        <v>0.02979894686452855</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008770291174151479</v>
+        <v>0.008871245081160177</v>
       </c>
       <c r="E52" s="1">
-        <v>0.006284858070424004</v>
+        <v>-0.0001654464987386195</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1441332176108601</v>
+        <v>0.1449103125118014</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0001970831690973895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04415542909353586</v>
+        <v>0.04400480739044434</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.008560112431327593</v>
+        <v>0.001546391752577536</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.005166565834169301</v>
+        <v>0.006976097593344166</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01663669925495738</v>
+        <v>0.01671731868329314</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01185578172368995</v>
+        <v>-0.005296666845005737</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05148799300743596</v>
+        <v>0.05045535800768499</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01321965488310917</v>
+        <v>0.001894125911773736</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01485629250112356</v>
+        <v>0.01465134315076126</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006915598266609591</v>
+        <v>0.0401772592642835</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009797674368345449</v>
+        <v>0.00984110204442369</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01143946615824576</v>
+        <v>0.002288945738521564</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01574306008728758</v>
+        <v>0.0157263513759721</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005907355377854584</v>
+        <v>0.02198667908042662</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02078259790637001</v>
+        <v>0.02078185813310041</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006940253470126612</v>
+        <v>0.01475876535810605</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00440404995856443</v>
+        <v>0.004415510488452306</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009596521923545875</v>
+        <v>0.0301438924482722</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006765639064705493</v>
+        <v>0.006699687647369741</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00283990060347894</v>
+        <v>0.02723389106443563</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01403834080159272</v>
+        <v>0.01417363165021381</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01668056713928268</v>
+        <v>0.007656549083948638</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.009051807560241799</v>
+        <v>0.008988436208206288</v>
       </c>
       <c r="E11" s="1">
-        <v>-7.370283018892643E-05</v>
+        <v>0.0107614063536523</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01452238701144925</v>
+        <v>0.0149981734267984</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03996692392502732</v>
+        <v>0.01881791677710032</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002901241754687612</v>
+        <v>0.002997083975593219</v>
       </c>
       <c r="E13" s="1">
-        <v>0.04024144869215296</v>
+        <v>0.008123791102514488</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006263479899714779</v>
+        <v>0.006198224732503423</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003514938488576425</v>
+        <v>0.01058201058201047</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01457035465322265</v>
+        <v>0.01465482139135189</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01281370335944776</v>
+        <v>0.01665027859718093</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01051952399837063</v>
+        <v>0.01069111779257204</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02340182648401834</v>
+        <v>0.01812604573340759</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02211231564212296</v>
+        <v>0.02216334904349709</v>
       </c>
       <c r="E17" s="1">
-        <v>0.009300115402891995</v>
+        <v>0.00309389292440132</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008728242800017941</v>
+        <v>0.008735949067427383</v>
       </c>
       <c r="E18" s="1">
-        <v>0.00786516853932584</v>
+        <v>0.01831501831501847</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01728276134526827</v>
+        <v>0.01716939058177251</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0003705762460626261</v>
+        <v>0.01827498919553006</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0120199304844396</v>
+        <v>0.01213011561406714</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01620691569073673</v>
+        <v>0.01212518433557253</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007402828142004057</v>
+        <v>0.007373605043329602</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003001000333444637</v>
+        <v>0.007646276595744572</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01367564805541602</v>
+        <v>0.01374044162922644</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01174702909438619</v>
+        <v>0.02551640340218686</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01984659510514513</v>
+        <v>0.01992554842578806</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01098202940642579</v>
+        <v>0.02168058173983289</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009879632988538233</v>
+        <v>0.01005327472045215</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02467443454420848</v>
+        <v>0.008791208791208538</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02087906690498521</v>
+        <v>0.02119951201278296</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02243083824873304</v>
+        <v>0.007962947915820306</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01120171192737455</v>
+        <v>0.01135645552840835</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0208867487961979</v>
+        <v>0.02897396630934157</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0202709986561068</v>
+        <v>0.01996950676163346</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.008000724047425245</v>
+        <v>0.06605477802310111</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05608211224473809</v>
+        <v>0.05592547104321645</v>
       </c>
       <c r="E28" s="1">
-        <v>0.004163544008660258</v>
+        <v>0.005141388174807027</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02027366723144884</v>
+        <v>0.02061841395144164</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02409937888198765</v>
+        <v>0.05312954876273657</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03058987914594685</v>
+        <v>0.03048926323444044</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003663962313530611</v>
+        <v>0.05015210777922618</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01569676030510297</v>
+        <v>0.01560027343608696</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0007862871520678549</v>
+        <v>0.04486172218730378</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.013305716798624</v>
+        <v>0.01351313032510353</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02267314470801174</v>
+        <v>0.02375407545412211</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01993425780513155</v>
+        <v>0.02005613151539059</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0131325301204821</v>
+        <v>0.0463788797716731</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04067969579986349</v>
+        <v>0.04039648497618697</v>
       </c>
       <c r="E34" s="1">
-        <v>-3.443983606643553E-05</v>
+        <v>-0.003803272881139019</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01137613668316945</v>
+        <v>0.01142055453357854</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01090781140042218</v>
+        <v>0.01879568395405506</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009625818116317273</v>
+        <v>0.009635190201458369</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007956530176596033</v>
+        <v>0.02021563342318067</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01141066137665726</v>
+        <v>0.01167943501182403</v>
       </c>
       <c r="E37" s="1">
-        <v>0.03069502302126725</v>
+        <v>0.0138268453520527</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007362265796804861</v>
+        <v>0.007488155100114365</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02419464455620512</v>
+        <v>0.008360982083609914</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0114471875016516</v>
+        <v>0.01160201931410685</v>
       </c>
       <c r="E39" s="1">
-        <v>0.02059620596205947</v>
+        <v>0.027084439723845</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01755555645960958</v>
+        <v>0.01773591315873405</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01732124874118823</v>
+        <v>0.0407840031676896</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0170425228501</v>
+        <v>0.01709691067308394</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01018966158423207</v>
+        <v>0.0211309085554412</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03330882384758051</v>
+        <v>0.03294987000655499</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.003875619648490369</v>
+        <v>0.02075039208589713</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01125100585109294</v>
+        <v>0.01130898582587146</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01216536240341948</v>
+        <v>0.02103739982190556</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02151595576755779</v>
+        <v>0.02135662910917687</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0004806074878647149</v>
+        <v>0.02673462518632497</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01372791877492847</v>
+        <v>0.01376488869166345</v>
       </c>
       <c r="E45" s="1">
-        <v>0.00968793054431738</v>
+        <v>0.04405458089668635</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008054460883341483</v>
+        <v>0.008174262901191864</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02195385590219523</v>
+        <v>0.0261142315267342</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01328330076575076</v>
+        <v>0.01337135061340926</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01365095149844064</v>
+        <v>0.02341137123745818</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009795406079304703</v>
+        <v>0.00998066230736013</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02602059580728211</v>
+        <v>0.009767900349493708</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01446534621351288</v>
+        <v>0.01445954302676364</v>
       </c>
       <c r="E49" s="1">
-        <v>0.006572120373573132</v>
+        <v>0.04041237113402052</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008196462448730447</v>
+        <v>0.008255123713398807</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01418292514182951</v>
+        <v>0.05013984582850117</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01059184239014025</v>
+        <v>0.01083190372124042</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02979894686452855</v>
+        <v>0.04416037187681576</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008871245081160177</v>
+        <v>0.008808329597813358</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.0001654464987386195</v>
+        <v>0.01402391097505507</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,7 +1686,7 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1449103125118014</v>
+        <v>0.1439064073696829</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04400480739044434</v>
+        <v>0.04376752950442425</v>
       </c>
       <c r="E54" s="1">
-        <v>0.001546391752577536</v>
+        <v>0.01621204323211534</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>0.006976097593344166</v>
+        <v>0.01780971811145693</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01671731868329314</v>
+        <v>0.01633780098557183</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005296666845005737</v>
+        <v>-0.005755163511187544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05045535800768499</v>
+        <v>0.04966638253609159</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001894125911773736</v>
+        <v>0.007765323407699087</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01465134315076126</v>
+        <v>0.0149733232960058</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0401772592642835</v>
+        <v>-0.003238707994609569</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00984110204442369</v>
+        <v>0.009691033223098482</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002288945738521564</v>
+        <v>0.01356797420741529</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0157263513759721</v>
+        <v>0.01579089031160304</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02198667908042662</v>
+        <v>0.01478626489138057</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02078185813310041</v>
+        <v>0.02071956312238998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01475876535810605</v>
+        <v>0.01565153193060165</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004415510488452306</v>
+        <v>0.004469019189716881</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0301438924482722</v>
+        <v>-0.02824225122349089</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006699687647369741</v>
+        <v>0.006761721850812897</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02723389106443563</v>
+        <v>-0.005371686016288235</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01417363165021381</v>
+        <v>0.01403224247371304</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007656549083948638</v>
+        <v>-0.004341926729986456</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008988436208206288</v>
+        <v>0.008926191468857434</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0107614063536523</v>
+        <v>0.01298038357762699</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0149981734267984</v>
+        <v>0.01501302997431108</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01881791677710032</v>
+        <v>-0.03277835587929212</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002997083975593219</v>
+        <v>0.002968562400184083</v>
       </c>
       <c r="E13" s="1">
-        <v>0.008123791102514488</v>
+        <v>-0.01650038372985418</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006198224732503423</v>
+        <v>0.006154209672742115</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01058201058201047</v>
+        <v>-0.01599767306573596</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01465482139135189</v>
+        <v>0.01463812732890246</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01665027859718093</v>
+        <v>-0.01553936424011848</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01069111779257204</v>
+        <v>0.01069444051174748</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01812604573340759</v>
+        <v>-0.01972062448644196</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02216334904349709</v>
+        <v>0.0218429041073955</v>
       </c>
       <c r="E17" s="1">
-        <v>0.00309389292440132</v>
+        <v>-0.01267265656430194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008735949067427383</v>
+        <v>0.008740286102890418</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01831501831501847</v>
+        <v>0.00203315608382848</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01716939058177251</v>
+        <v>0.0171772392206946</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01827498919553006</v>
+        <v>0.006730127933062491</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01213011561406714</v>
+        <v>0.012062368125822</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01212518433557253</v>
+        <v>0.005558253736981378</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007373605043329602</v>
+        <v>0.007299975167052831</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007646276595744572</v>
+        <v>0.008248102936324608</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01374044162922644</v>
+        <v>0.01384448195966127</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02551640340218686</v>
+        <v>0.004476040021063943</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01992554842578806</v>
+        <v>0.0200013278954712</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02168058173983289</v>
+        <v>-0.003646588462721256</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01005327472045215</v>
+        <v>0.00996419564196423</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008791208791208538</v>
+        <v>-0.01269299990527606</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02119951201278296</v>
+        <v>0.02099441795705234</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007962947915820306</v>
+        <v>0.0001612253123739471</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01135645552840835</v>
+        <v>0.01148102329968355</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02897396630934157</v>
+        <v>0.0009524943445646805</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01996950676163346</v>
+        <v>0.02091607863354349</v>
       </c>
       <c r="E27" s="1">
-        <v>0.06605477802310111</v>
+        <v>-0.02386046591239765</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05592547104321645</v>
+        <v>0.05522938580603418</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005141388174807027</v>
+        <v>0.001485025987954858</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02061841395144164</v>
+        <v>0.02133391005656249</v>
       </c>
       <c r="E29" s="1">
-        <v>0.05312954876273657</v>
+        <v>-0.000230361667818535</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03048926323444044</v>
+        <v>0.03145810408422242</v>
       </c>
       <c r="E30" s="1">
-        <v>0.05015210777922618</v>
+        <v>-0.01601556033769214</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01560027343608696</v>
+        <v>0.0160149075794516</v>
       </c>
       <c r="E31" s="1">
-        <v>0.04486172218730378</v>
+        <v>-0.01293330325588382</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01351313032510353</v>
+        <v>0.0135920516343041</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02375407545412211</v>
+        <v>-0.007006369426751591</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02005613151539059</v>
+        <v>0.02061909220769457</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0463788797716731</v>
+        <v>-0.01591089896579145</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04039648497618697</v>
+        <v>0.03953867349100791</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.003803272881139019</v>
+        <v>0.01040138685158021</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01142055453357854</v>
+        <v>0.01143161777700534</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01879568395405506</v>
+        <v>-0.007174581482746967</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009635190201458369</v>
+        <v>0.009657966022149167</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02021563342318067</v>
+        <v>0.007076806944706471</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01167943501182403</v>
+        <v>0.01163373127887074</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0138268453520527</v>
+        <v>-0.007133864876206375</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007488155100114365</v>
+        <v>0.007418639551561889</v>
       </c>
       <c r="E38" s="1">
-        <v>0.008360982083609914</v>
+        <v>0.005527770465912019</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01160201931410685</v>
+        <v>0.01170774192351517</v>
       </c>
       <c r="E39" s="1">
-        <v>0.027084439723845</v>
+        <v>-0.009565667011375178</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01773591315873405</v>
+        <v>0.01813625314113999</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0407840031676896</v>
+        <v>-0.0009511128019783488</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01709691067308394</v>
+        <v>0.01715269919164364</v>
       </c>
       <c r="E41" s="1">
-        <v>0.0211309085554412</v>
+        <v>-0.001009445525993136</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03294987000655499</v>
+        <v>0.03304506935812853</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02075039208589713</v>
+        <v>-0.008480085096324363</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01130898582587146</v>
+        <v>0.01134484892097102</v>
       </c>
       <c r="E43" s="1">
-        <v>0.02103739982190556</v>
+        <v>-0.0043758857516627</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02135662910917687</v>
+        <v>0.02154389980117369</v>
       </c>
       <c r="E44" s="1">
-        <v>0.02673462518632497</v>
+        <v>0.004589519037137446</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01376488869166345</v>
+        <v>0.01411982499118805</v>
       </c>
       <c r="E45" s="1">
-        <v>0.04405458089668635</v>
+        <v>-0.01954194672641285</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008174262901191864</v>
+        <v>0.00824095834997271</v>
       </c>
       <c r="E46" s="1">
-        <v>0.0261142315267342</v>
+        <v>-0.007535366460510229</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01337135061340926</v>
+        <v>0.0134449416458288</v>
       </c>
       <c r="E47" s="1">
-        <v>0.02341137123745818</v>
+        <v>0.003137254901960818</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00998066230736013</v>
+        <v>0.009901804082692738</v>
       </c>
       <c r="E48" s="1">
-        <v>0.009767900349493708</v>
+        <v>-0.02218672346467876</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01445954302676364</v>
+        <v>0.01478064826685231</v>
       </c>
       <c r="E49" s="1">
-        <v>0.04041237113402052</v>
+        <v>0.001268331351565566</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008255123713398807</v>
+        <v>0.008517342868143561</v>
       </c>
       <c r="E50" s="1">
-        <v>0.05013984582850117</v>
+        <v>0.004352345069507768</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01083190372124042</v>
+        <v>0.01111233702768174</v>
       </c>
       <c r="E51" s="1">
-        <v>0.04416037187681576</v>
+        <v>-0.02203672787979949</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008808329597813358</v>
+        <v>0.008775566462958389</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01402391097505507</v>
+        <v>0.008240861618798778</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,7 +1686,7 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1439064073696829</v>
+        <v>0.1413883212244238</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04376752950442425</v>
+        <v>0.04369882679784191</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01621204323211534</v>
+        <v>-0.001139528994682282</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01780971811145693</v>
+        <v>-0.002652611804404903</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01633780098557183</v>
+        <v>0.01628697729772464</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005755163511187544</v>
+        <v>0.003678658371652821</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04966638253609159</v>
+        <v>0.05018517985947626</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007765323407699087</v>
+        <v>-0.006645576822412846</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0149733232960058</v>
+        <v>0.01496452414754223</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003238707994609569</v>
+        <v>-0.01548291427699133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009691033223098482</v>
+        <v>0.009848645545343666</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01356797420741529</v>
+        <v>-0.01418157720344604</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01579089031160304</v>
+        <v>0.01606699810746234</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01478626489138057</v>
+        <v>-0.01567571300324566</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02071956312238998</v>
+        <v>0.02109982567283884</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01565153193060165</v>
+        <v>-0.01541033655593516</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004469019189716881</v>
+        <v>0.004354354439023813</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02824225122349089</v>
+        <v>-0.003777148253069074</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006761721850812897</v>
+        <v>0.006743287327666717</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005371686016288235</v>
+        <v>-0.01236933797909412</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01403224247371304</v>
+        <v>0.01400847454998778</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.004341926729986456</v>
+        <v>0.00763150722267647</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008926191468857434</v>
+        <v>0.00906610571705559</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01298038357762699</v>
+        <v>-0.004319343459794123</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01501302997431108</v>
+        <v>0.01455954836484603</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.03277835587929212</v>
+        <v>0.0252824098977944</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002968562400184083</v>
+        <v>0.002927345091600575</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01650038372985418</v>
+        <v>0.03979711275848619</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006154209672742115</v>
+        <v>0.00607186293371229</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01599767306573596</v>
+        <v>0.02276086313922554</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01463812732890246</v>
+        <v>0.01444898769185854</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01553936424011848</v>
+        <v>0.01178936337437775</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01069444051174748</v>
+        <v>0.01051142218890208</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01972062448644196</v>
+        <v>0.01927912824811395</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0218429041073955</v>
+        <v>0.02162345511757239</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01267265656430194</v>
+        <v>-0.003870967741935405</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008740286102890418</v>
+        <v>0.008781349981374115</v>
       </c>
       <c r="E18" s="1">
-        <v>0.00203315608382848</v>
+        <v>-0.01186202590916174</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0171772392206946</v>
+        <v>0.01733883744306282</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006730127933062491</v>
+        <v>-0.006203324500120511</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.012062368125822</v>
+        <v>0.01216167402862385</v>
       </c>
       <c r="E20" s="1">
-        <v>0.005558253736981378</v>
+        <v>-0.004507888805409532</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007299975167052831</v>
+        <v>0.007379761756813115</v>
       </c>
       <c r="E21" s="1">
-        <v>0.008248102936324608</v>
+        <v>0.005562827225130906</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01384448195966127</v>
+        <v>0.0139434369404057</v>
       </c>
       <c r="E22" s="1">
-        <v>0.004476040021063943</v>
+        <v>-0.002883355176933278</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0200013278954712</v>
+        <v>0.01998139416596156</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003646588462721256</v>
+        <v>-0.008907311050357358</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.00996419564196423</v>
+        <v>0.009863885165852862</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01269299990527606</v>
+        <v>0.007675333397294315</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02099441795705234</v>
+        <v>0.02105364994902618</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0001612253123739471</v>
+        <v>0.008946562424438032</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01148102329968355</v>
+        <v>0.01152252369180774</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0009524943445646805</v>
+        <v>0.002973712382538407</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02091607863354349</v>
+        <v>0.02047131370066084</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02386046591239765</v>
+        <v>0.003980431008784979</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05522938580603418</v>
+        <v>0.05545851278492295</v>
       </c>
       <c r="E28" s="1">
-        <v>0.001485025987954858</v>
+        <v>-0.01227448719004853</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02133391005656249</v>
+        <v>0.021385723564233</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.000230361667818535</v>
+        <v>0.004608294930875667</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03145810408422242</v>
+        <v>0.03103661300618109</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01601556033769214</v>
+        <v>-0.004289859948690022</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0160149075794516</v>
+        <v>0.01584982535695121</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01293330325588382</v>
+        <v>-0.008836748685914553</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0135920516343041</v>
+        <v>0.01353271774612573</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.007006369426751591</v>
+        <v>0.01044625675799526</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02061909220769457</v>
+        <v>0.02034499127883837</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01591089896579145</v>
+        <v>-0.0005774338838203663</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03953867349100791</v>
+        <v>0.04005618403620004</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01040138685158021</v>
+        <v>0.0003323899324954027</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01143161777700534</v>
+        <v>0.01137978686074302</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.007174581482746967</v>
+        <v>0.0003441156228494169</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009657966022149167</v>
+        <v>0.009752182337152693</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007076806944706471</v>
+        <v>0.0005621662138106664</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01163373127887074</v>
+        <v>0.01158145892658206</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.007133864876206375</v>
+        <v>0.03338968723584101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007418639551561889</v>
+        <v>0.007479488267040319</v>
       </c>
       <c r="E38" s="1">
-        <v>0.005527770465912019</v>
+        <v>-0.005890052356020914</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01170774192351517</v>
+        <v>0.01162659039374313</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.009565667011375178</v>
+        <v>0.01774993474288689</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01813625314113999</v>
+        <v>0.01816719403193957</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0009511128019783488</v>
+        <v>-0.01428027418126432</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01715269919164364</v>
+        <v>0.01718095889054999</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.001009445525993136</v>
+        <v>0.008011548177553118</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03304506935812853</v>
+        <v>0.03285198792893612</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.008480085096324363</v>
+        <v>-0.005185207259290281</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01134484892097102</v>
+        <v>0.01132524664115109</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0043758857516627</v>
+        <v>-0.0008606285435229788</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02154389980117369</v>
+        <v>0.02170033851354598</v>
       </c>
       <c r="E44" s="1">
-        <v>0.004589519037137446</v>
+        <v>-0.01216726492937381</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01411982499118805</v>
+        <v>0.01388071627526935</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01954194672641285</v>
+        <v>-0.03482713384960423</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00824095834997271</v>
+        <v>0.008200612751006538</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.007535366460510229</v>
+        <v>0.02399541580116016</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0134449416458288</v>
+        <v>0.01352299310605777</v>
       </c>
       <c r="E47" s="1">
-        <v>0.003137254901960818</v>
+        <v>0.01242289983494071</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009901804082692738</v>
+        <v>0.009707866695500682</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02218672346467876</v>
+        <v>0.01207115628970779</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01478064826685231</v>
+        <v>0.0148387564870659</v>
       </c>
       <c r="E49" s="1">
-        <v>0.001268331351565566</v>
+        <v>-0.01134774232707891</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008517342868143561</v>
+        <v>0.008577165172967175</v>
       </c>
       <c r="E50" s="1">
-        <v>0.004352345069507768</v>
+        <v>-0.02858806028070637</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01111233702768174</v>
+        <v>0.01089636129709583</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02203672787979949</v>
+        <v>0.01559121429384303</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008775566462958389</v>
+        <v>0.008871417117574078</v>
       </c>
       <c r="E52" s="1">
-        <v>0.008240861618798778</v>
+        <v>-0.007890264627336663</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1413883212244238</v>
+        <v>0.1417643670579256</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>0.0001970443349752493</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04369882679784191</v>
+        <v>0.04376512259849818</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.001139528994682282</v>
+        <v>-0.003422487007225139</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.002652611804404903</v>
+        <v>-0.00156281753560461</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01628697729772464</v>
+        <v>0.0163724787199547</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003678658371652821</v>
+        <v>-0.005443863526114479</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05018517985947626</v>
+        <v>0.04992970140427561</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006645576822412846</v>
+        <v>0.01269601248981278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01496452414754223</v>
+        <v>0.0147558904673457</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01548291427699133</v>
+        <v>0.0108755842027155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009848645545343666</v>
+        <v>0.009724173326787362</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01418157720344604</v>
+        <v>0.005646679214842854</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01606699810746234</v>
+        <v>0.01583989131621713</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01567571300324566</v>
+        <v>-0.007646976287357998</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02109982567283884</v>
+        <v>0.02080718809637247</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01541033655593516</v>
+        <v>-0.000147655961609372</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004354354439023813</v>
+        <v>0.004344697365991678</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003777148253069074</v>
+        <v>0.006529752501316599</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006743287327666717</v>
+        <v>0.006670301792229336</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01236933797909412</v>
+        <v>-0.01517022402540136</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01400847454998778</v>
+        <v>0.01413747461793677</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00763150722267647</v>
+        <v>-0.008655666756829716</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.00906610571705559</v>
+        <v>0.009041075644178274</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004319343459794123</v>
+        <v>0.00535030005061099</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01455954836484603</v>
+        <v>0.01495101454223451</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0252824098977944</v>
+        <v>-0.0175760755508918</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002927345091600575</v>
+        <v>0.003048609394514961</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03979711275848619</v>
+        <v>-0.004127579737335907</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.00607186293371229</v>
+        <v>0.006219784162703802</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02276086313922554</v>
+        <v>-0.02601156069364152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01444898769185854</v>
+        <v>0.01464221516877563</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01178936337437775</v>
+        <v>-0.01456499223200414</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01051142218890208</v>
+        <v>0.01073084359589549</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01927912824811395</v>
+        <v>-0.002878289473684181</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02162345511757239</v>
+        <v>0.02157346681258156</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003870967741935405</v>
+        <v>0.02645214071448043</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008781349981374115</v>
+        <v>0.008690767464168504</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01186202590916174</v>
+        <v>-0.002843152740483301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01733883744306282</v>
+        <v>0.01725825050447091</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.006203324500120511</v>
+        <v>-0.003999757590449016</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01216167402862385</v>
+        <v>0.01212580096880247</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.004507888805409532</v>
+        <v>0.007115902964959453</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007379761756813115</v>
+        <v>0.007432429627783342</v>
       </c>
       <c r="E21" s="1">
-        <v>0.005562827225130906</v>
+        <v>-0.01496908558411969</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0139434369404057</v>
+        <v>0.01392499528613573</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.002883355176933278</v>
+        <v>-0.01117245005257606</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01998139416596156</v>
+        <v>0.01983441123859762</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.008907311050357358</v>
+        <v>-0.01441537640149482</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009863885165852862</v>
+        <v>0.009955151858988244</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007675333397294315</v>
+        <v>-0.009330667428353867</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02105364994902618</v>
+        <v>0.0212752570874081</v>
       </c>
       <c r="E25" s="1">
-        <v>0.008946562424438032</v>
+        <v>0.003275283591628098</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01152252369180774</v>
+        <v>0.01157487778516329</v>
       </c>
       <c r="E26" s="1">
-        <v>0.002973712382538407</v>
+        <v>0.008005218216318832</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02047131370066084</v>
+        <v>0.02058496890287681</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003980431008784979</v>
+        <v>0.03961156909319552</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05545851278492295</v>
+        <v>0.05486352966639307</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01227448719004853</v>
+        <v>0.01876563803169318</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.021385723564233</v>
+        <v>0.02151790384318274</v>
       </c>
       <c r="E29" s="1">
-        <v>0.004608294930875667</v>
+        <v>-0.002064220183486398</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03103661300618109</v>
+        <v>0.03095184236511035</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.004289859948690022</v>
+        <v>0.02872228088701156</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01584982535695121</v>
+        <v>0.01573435435845901</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.008836748685914553</v>
+        <v>0.01906079471216637</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01353271774612573</v>
+        <v>0.01369548753841894</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01044625675799526</v>
+        <v>-0.009068649678062979</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02034499127883837</v>
+        <v>0.02036507028045605</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0005774338838203663</v>
+        <v>0.01929743471227185</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04005618403620004</v>
+        <v>0.04013221764198144</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0003323899324954027</v>
+        <v>0.007842773165499528</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01137978686074302</v>
+        <v>0.01140152132063896</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0003441156228494169</v>
+        <v>-0.007911936704506295</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009752182337152693</v>
+        <v>0.009772938003459745</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0005621662138106664</v>
+        <v>0.01339076692574204</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01158145892658206</v>
+        <v>0.01198689354530541</v>
       </c>
       <c r="E37" s="1">
-        <v>0.03338968723584101</v>
+        <v>-0.01267893660531694</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007479488267040319</v>
+        <v>0.007447072104424914</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.005890052356020914</v>
+        <v>-0.02172481895984202</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01162659039374313</v>
+        <v>0.01185148332047051</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01774993474288689</v>
+        <v>-0.007694280584765512</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01816719403193957</v>
+        <v>0.01793579189014011</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01428027418126432</v>
+        <v>-0.001158972377824918</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01718095889054999</v>
+        <v>0.01734571315512459</v>
       </c>
       <c r="E41" s="1">
-        <v>0.008011548177553118</v>
+        <v>-0.009881139911212866</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03285198792893612</v>
+        <v>0.03273279895484094</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.005185207259290281</v>
+        <v>0.02273612317646712</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01132524664115109</v>
+        <v>0.01133321155237805</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0008606285435229788</v>
+        <v>0.0006575342465753309</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02170033851354598</v>
+        <v>0.02146985821670258</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01216726492937381</v>
+        <v>-0.0008022652194431545</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01388071627526935</v>
+        <v>0.01341826100521844</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.03482713384960423</v>
+        <v>0.01644159943879342</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008200612751006538</v>
+        <v>0.008410533993800547</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02399541580116016</v>
+        <v>-0.006575265808617781</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01352299310605777</v>
+        <v>0.01371241790203575</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01242289983494071</v>
+        <v>-0.005191350609233036</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009707866695500682</v>
+        <v>0.009840430669229492</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01207115628970779</v>
+        <v>-0.01246524975338525</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.0148387564870659</v>
+        <v>0.01469333310062254</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01134774232707891</v>
+        <v>0.006272855884472905</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008577165172967175</v>
+        <v>0.008345002374009579</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.02858806028070637</v>
+        <v>0.00173114055529644</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01089636129709583</v>
+        <v>0.01108357039927909</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01559121429384303</v>
+        <v>-0.001344688480501843</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008871417117574078</v>
+        <v>0.008815195831522227</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.007890264627336663</v>
+        <v>-0.008320078306619405</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1417643670579256</v>
+        <v>0.1420142432730485</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0001970443349752493</v>
+        <v>-9.850275807721243E-05</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04376512259849818</v>
+        <v>0.04368360654135649</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.003422487007225139</v>
+        <v>0.006359704909692176</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.00156281753560461</v>
+        <v>0.003892382110985748</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0163724787199547</v>
+        <v>0.01641206345319795</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005443863526114479</v>
+        <v>-0.002487167275228797</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04992970140427561</v>
+        <v>0.05083947537778748</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01269601248981278</v>
+        <v>0.02079405251502697</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0147558904673457</v>
+        <v>0.01467766695025905</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0108755842027155</v>
+        <v>0.0199211045364891</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009724173326787362</v>
+        <v>0.009558657705323209</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005646679214842854</v>
+        <v>0.0133261542603309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01583989131621713</v>
+        <v>0.01545134051038973</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007646976287357998</v>
+        <v>0.01330690826727055</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02080718809637247</v>
+        <v>0.02030092144418078</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.000147655961609372</v>
+        <v>0.01616026213881439</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004344697365991678</v>
+        <v>0.004431285117395764</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006529752501316599</v>
+        <v>-0.02576219512195144</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006670301792229336</v>
+        <v>0.006645769674756346</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01517022402540136</v>
+        <v>-0.01550792821048963</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01413747461793677</v>
+        <v>0.01397012813316964</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008655666756829716</v>
+        <v>0.0037715517241379</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.009041075644178274</v>
+        <v>0.008812390176841923</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00535030005061099</v>
+        <v>0.01058548693239914</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01495101454223451</v>
+        <v>0.01466029693019957</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0175760755508918</v>
+        <v>0.006582411795681864</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003048609394514961</v>
+        <v>0.003023991825539894</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.004127579737335907</v>
+        <v>0.04653760238272531</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006219784162703802</v>
+        <v>0.006054095324804418</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02601156069364152</v>
+        <v>0.0111046171829341</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01464221516877563</v>
+        <v>0.01433859772535728</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01456499223200414</v>
+        <v>-0.0005855181835924261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01073084359589549</v>
+        <v>0.01058702722625194</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.002878289473684181</v>
+        <v>-0.005332239540607131</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02157346681258156</v>
+        <v>0.02193254532843443</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02645214071448043</v>
+        <v>0.004289862724392579</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008690767464168504</v>
+        <v>0.00850185281822303</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.002843152740483301</v>
+        <v>0.003654854600349644</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01725825050447091</v>
+        <v>0.01676065402242862</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003999757590449016</v>
+        <v>0.003684824663759745</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01212580096880247</v>
+        <v>0.01191712042895458</v>
       </c>
       <c r="E20" s="1">
-        <v>0.007115902964959453</v>
+        <v>-0.001889440725545311</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007432429627783342</v>
+        <v>0.007252884042538921</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01496908558411969</v>
+        <v>0.007876599934361739</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01392499528613573</v>
+        <v>0.01338392212286607</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01117245005257606</v>
+        <v>0.009959623149394359</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01983441123859762</v>
+        <v>0.01922687520383638</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01441537640149482</v>
+        <v>0.004155750293612925</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009955151858988244</v>
+        <v>0.009846067203899942</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.009330667428353867</v>
+        <v>-0.01269540502131694</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0212752570874081</v>
+        <v>0.02115758510015119</v>
       </c>
       <c r="E25" s="1">
-        <v>0.003275283591628098</v>
+        <v>0.01193770258518456</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01157487778516329</v>
+        <v>0.01156997736139553</v>
       </c>
       <c r="E26" s="1">
-        <v>0.008005218216318832</v>
+        <v>0.003911723493694508</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02058496890287681</v>
+        <v>0.02262059112301265</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03961156909319552</v>
+        <v>0.03363053339590172</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05486352966639307</v>
+        <v>0.05539106396744704</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01876563803169318</v>
+        <v>0.02357723577235782</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02151790384318274</v>
+        <v>0.02136670084164503</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002064220183486398</v>
+        <v>0.03387133439418033</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03095184236511035</v>
+        <v>0.03254498425069931</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02872228088701156</v>
+        <v>0.01664426346169057</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01573435435845901</v>
+        <v>0.01639932543848766</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01906079471216637</v>
+        <v>0.01843384861020403</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01369548753841894</v>
+        <v>0.01336989744000323</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.009068649678062979</v>
+        <v>0.01499360029255814</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02036507028045605</v>
+        <v>0.0214021807159517</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01929743471227185</v>
+        <v>0.01450059517368252</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04013221764198144</v>
+        <v>0.0411048014691949</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007842773165499528</v>
+        <v>0.04187286949825797</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01140152132063896</v>
+        <v>0.01110523282469304</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.007911936704506295</v>
+        <v>0.001390337156760513</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009772938003459745</v>
+        <v>0.009774045954060737</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01339076692574204</v>
+        <v>-0.02193144120899371</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01198689354530541</v>
+        <v>0.01178025110422665</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01267893660531694</v>
+        <v>0.02908048330944091</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007447072104424914</v>
+        <v>0.007224963343628503</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02172481895984202</v>
+        <v>-0.003339121143315027</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01185148332047051</v>
+        <v>0.01181344714256254</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.007694280584765512</v>
+        <v>0.007850088630032781</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01793579189014011</v>
+        <v>0.01772346780098473</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.001158972377824918</v>
+        <v>0.008272412466333146</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01734571315512459</v>
+        <v>0.01705034735697614</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.009881139911212866</v>
+        <v>0.02057495160943423</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03273279895484094</v>
+        <v>0.0337325789555066</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02273612317646712</v>
+        <v>0.01129991989930201</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01133321155237805</v>
+        <v>0.0112723710177098</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0006575342465753309</v>
+        <v>0.007048362611147274</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02146985821670258</v>
+        <v>0.02162458130612065</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0008022652194431545</v>
+        <v>0.01005256847735847</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01341826100521844</v>
+        <v>0.01377876841218106</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01644159943879342</v>
+        <v>0.02632629477886317</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008410533993800547</v>
+        <v>0.008208492479440733</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.006575265808617781</v>
+        <v>-0.006947873315934272</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01371241790203575</v>
+        <v>0.01347566156214316</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.005191350609233036</v>
+        <v>0.004167740826673594</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009840430669229492</v>
+        <v>0.009665547662096628</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01246524975338525</v>
+        <v>-0.0011681193278823</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01469333310062254</v>
+        <v>0.01479983609134405</v>
       </c>
       <c r="E49" s="1">
-        <v>0.006272855884472905</v>
+        <v>0.02241696334259213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008345002374009579</v>
+        <v>0.008333749624091859</v>
       </c>
       <c r="E50" s="1">
-        <v>0.00173114055529644</v>
+        <v>0.0003280839895010157</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01108357039927909</v>
+        <v>0.01112935785255343</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.001344688480501843</v>
+        <v>0.01746293245469532</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008815195831522227</v>
+        <v>0.008547915538084462</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.008320078306619405</v>
+        <v>0.01452934845599807</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1420142432730485</v>
+        <v>0.1396835253111912</v>
       </c>
       <c r="E53" s="1">
-        <v>-9.850275807721243E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04368360654135649</v>
+        <v>0.04376312220577896</v>
       </c>
       <c r="E54" s="1">
-        <v>0.006359704909692176</v>
+        <v>0.01399475196801214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>0.003892382110985748</v>
+        <v>0.01161591141444185</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01641206345319795</v>
+        <v>0.01618326058470936</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002487167275228797</v>
+        <v>0.006525198938992061</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05083947537778748</v>
+        <v>0.05130072937076258</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02079405251502697</v>
+        <v>-0.0009018418026918162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01467766695025905</v>
+        <v>0.01479816807843185</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0199211045364891</v>
+        <v>0.007198263821740936</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009558657705323209</v>
+        <v>0.009574817619152534</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0133261542603309</v>
+        <v>0.005446333687566529</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01545134051038973</v>
+        <v>0.01547716866105467</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01330690826727055</v>
+        <v>0.003562447611064501</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02030092144418078</v>
+        <v>0.02039211663598169</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01616026213881439</v>
+        <v>0.0003664345914253797</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004431285117395764</v>
+        <v>0.004267553956841395</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02576219512195144</v>
+        <v>-0.009075262087310132</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006645769674756346</v>
+        <v>0.006467580711130532</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01550792821048963</v>
+        <v>-0.002831858407079557</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01397012813316964</v>
+        <v>0.01386179975600623</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0037715517241379</v>
+        <v>0.004562533548040815</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008812390176841923</v>
+        <v>0.008803413941413958</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01058548693239914</v>
+        <v>-0.002745069710323067</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01466029693019957</v>
+        <v>0.01458735165702184</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006582411795681864</v>
+        <v>0.002615746795710194</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003023991825539894</v>
+        <v>0.003128382144860262</v>
       </c>
       <c r="E13" s="1">
-        <v>0.04653760238272531</v>
+        <v>0.01743151903237283</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006054095324804418</v>
+        <v>0.006051035444091151</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0111046171829341</v>
+        <v>0.00144508670520227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01433859772535728</v>
+        <v>0.01416565521950457</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0005855181835924261</v>
+        <v>-0.007030334591850207</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01058702722625194</v>
+        <v>0.01040965700740589</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005332239540607131</v>
+        <v>-0.002061855670103196</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02193254532843443</v>
+        <v>0.02177371143391002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004289862724392579</v>
+        <v>-0.003942958533219465</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.00850185281822303</v>
+        <v>0.008434946265501564</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003654854600349644</v>
+        <v>-0.0186827105763141</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01676065402242862</v>
+        <v>0.01662925019657916</v>
       </c>
       <c r="E19" s="1">
-        <v>0.003684824663759745</v>
+        <v>-0.0002447531053051399</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01191712042895458</v>
+        <v>0.01175802357601695</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.001889440725545311</v>
+        <v>-0.01130401860565733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007252884042538921</v>
+        <v>0.007226074665325751</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007876599934361739</v>
+        <v>0.008791924454575106</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01338392212286607</v>
+        <v>0.01336200903025623</v>
       </c>
       <c r="E22" s="1">
-        <v>0.009959623149394359</v>
+        <v>-0.005597014925373234</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01922687520383638</v>
+        <v>0.01908508662058828</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004155750293612925</v>
+        <v>0.003958614484930401</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009846067203899942</v>
+        <v>0.009609444931809472</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01269540502131694</v>
+        <v>0.005565684675175264</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02115758510015119</v>
+        <v>0.021164315247436</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01193770258518456</v>
+        <v>-0.001171875000000044</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01156997736139553</v>
+        <v>0.01148186360317443</v>
       </c>
       <c r="E26" s="1">
-        <v>0.003911723493694508</v>
+        <v>0.005931956964233764</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02262059112301265</v>
+        <v>0.02311285677141868</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03363053339590172</v>
+        <v>-0.01259079903147686</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05539106396744704</v>
+        <v>0.05604600669340548</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02357723577235782</v>
+        <v>0.002462271644162017</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02136670084164503</v>
+        <v>0.02183676557624125</v>
       </c>
       <c r="E29" s="1">
-        <v>0.03387133439418033</v>
+        <v>-0.0175901495162708</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03254498425069931</v>
+        <v>0.0327067527997486</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01664426346169057</v>
+        <v>-0.01368850865253735</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01639932543848766</v>
+        <v>0.01650985115247741</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01843384861020403</v>
+        <v>-0.0161761562032352</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01336989744000323</v>
+        <v>0.01341453825019127</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01499360029255814</v>
+        <v>0.01918573230048626</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0214021807159517</v>
+        <v>0.02146321032454823</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01450059517368252</v>
+        <v>-0.002773333333333405</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0411048014691949</v>
+        <v>0.04233422682823069</v>
       </c>
       <c r="E34" s="1">
-        <v>0.04187286949825797</v>
+        <v>-0.004371417240508935</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01110523282469304</v>
+        <v>0.01099297936800417</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001390337156760513</v>
+        <v>-0.003471017007983246</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009774045954060737</v>
+        <v>0.009449917633737979</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.02193144120899371</v>
+        <v>-0.007160354249104994</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01178025110422665</v>
+        <v>0.01198362576453942</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02908048330944091</v>
+        <v>0.02786069651741285</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007224963343628503</v>
+        <v>0.007118154464079061</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.003339121143315027</v>
+        <v>0.01701956580005337</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01181344714256254</v>
+        <v>0.01176947062152338</v>
       </c>
       <c r="E39" s="1">
-        <v>0.007850088630032781</v>
+        <v>-0.002763819095477404</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01772346780098473</v>
+        <v>0.0176648898414244</v>
       </c>
       <c r="E40" s="1">
-        <v>0.008272412466333146</v>
+        <v>-0.007345926349933252</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01705034735697614</v>
+        <v>0.01720134809311141</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02057495160943423</v>
+        <v>-0.008710311885361088</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0337325789555066</v>
+        <v>0.0337220421414713</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01129991989930201</v>
+        <v>0.005657548584198535</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0112723710177098</v>
+        <v>0.01122147511525188</v>
       </c>
       <c r="E43" s="1">
-        <v>0.007048362611147274</v>
+        <v>0.0008646495100677054</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02162458130612065</v>
+        <v>0.02159116285543116</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01005256847735847</v>
+        <v>-0.001780496712929014</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01377876841218106</v>
+        <v>0.01397913197244709</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02632629477886317</v>
+        <v>-0.009437438584998348</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008208492479440733</v>
+        <v>0.008057861508110725</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.006947873315934272</v>
+        <v>0.002130908832617129</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01347566156214316</v>
+        <v>0.01337644502653377</v>
       </c>
       <c r="E47" s="1">
-        <v>0.004167740826673594</v>
+        <v>-0.01313593770056909</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009665547662096628</v>
+        <v>0.009543401838707121</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.0011681193278823</v>
+        <v>0.003688377114069885</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01479983609134405</v>
+        <v>0.01495785436324649</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02241696334259213</v>
+        <v>-0.002946353409351787</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008333749624091859</v>
+        <v>0.008240759857424503</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0003280839895010157</v>
+        <v>-0.01134798294522787</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01112935785255343</v>
+        <v>0.01119368423255016</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01746293245469532</v>
+        <v>0.007987910189982461</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008547915538084462</v>
+        <v>0.008572533393019078</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01452934845599807</v>
+        <v>-0.001917662899343142</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1396835253111912</v>
+        <v>0.1380796048530767</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>-0.0001971220185293943</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04376312220577896</v>
+        <v>0.04386603230108223</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01399475196801214</v>
+        <v>-0.0003696857670979492</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01161591141444185</v>
+        <v>-0.001379618910684499</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01618326058470936</v>
+        <v>0.01610730416491809</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006525198938992061</v>
+        <v>-0.001279590531030217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05130072937076258</v>
+        <v>0.05215331805465782</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009018418026918162</v>
+        <v>0.006071251055836502</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01479816807843185</v>
+        <v>0.01483401759127845</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007198263821740936</v>
+        <v>0.01099961404862992</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009574817619152534</v>
+        <v>0.009581456021263174</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005446333687566529</v>
+        <v>-0.002522905324658042</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01547716866105467</v>
+        <v>0.01550876532741932</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003562447611064501</v>
+        <v>-0.006066522557701681</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02039211663598169</v>
+        <v>0.02044147853151432</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0003664345914253797</v>
+        <v>0.003802837501828193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004267553956841395</v>
+        <v>0.004246101561779876</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.009075262087310132</v>
+        <v>-0.01253211682659539</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006467580711130532</v>
+        <v>0.006479792014592415</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002831858407079557</v>
+        <v>-0.01042587029510522</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01386179975600623</v>
+        <v>0.01394403378789588</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004562533548040815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008803413941413958</v>
+        <v>0.00871122419035838</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002745069710323067</v>
+        <v>0.004454505622900395</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01458735165702184</v>
+        <v>0.01465653609944918</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002615746795710194</v>
+        <v>-0.006770833333333282</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003128382144860262</v>
+        <v>0.003228381975030581</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01743151903237283</v>
+        <v>-0.01517241379310352</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006051035444091151</v>
+        <v>0.006129790879092547</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00144508670520227</v>
+        <v>0.001141552511415345</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01416565521950457</v>
+        <v>0.01429066341118537</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.007030334591850207</v>
+        <v>0.00122636029174461</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01040965700740589</v>
+        <v>0.01040413680731407</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.002061855670103196</v>
+        <v>-0.004952538175815091</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02177371143391002</v>
+        <v>0.0213049355312794</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003942958533219465</v>
+        <v>0.003627813234799993</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008434946265501564</v>
+        <v>0.008290484911878532</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0186827105763141</v>
+        <v>-0.00241701579116993</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01662925019657916</v>
+        <v>0.01665247132799223</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0002447531053051399</v>
+        <v>-0.00391174133610428</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01175802357601695</v>
+        <v>0.01159800200369607</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01130401860565733</v>
+        <v>0.001590609916630292</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007226074665325751</v>
+        <v>0.007279985450334477</v>
       </c>
       <c r="E21" s="1">
-        <v>0.008791924454575106</v>
+        <v>-0.03006789524733278</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01336200903025623</v>
+        <v>0.0132679819762774</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.005597014925373234</v>
+        <v>-0.009397234528124354</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01908508662058828</v>
+        <v>0.01888889715863582</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003958614484930401</v>
+        <v>-0.007501704932939224</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009609444931809472</v>
+        <v>0.009556010646090518</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005565684675175264</v>
+        <v>-0.005791505791505669</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.021164315247436</v>
+        <v>0.02097538611607455</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001171875000000044</v>
+        <v>0.01048730484150773</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01148186360317443</v>
+        <v>0.01148524718496224</v>
       </c>
       <c r="E26" s="1">
-        <v>0.005931956964233764</v>
+        <v>0.006222739168362912</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02311285677141868</v>
+        <v>0.02304899335233213</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01259079903147686</v>
+        <v>0.01399556756428555</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05604600669340548</v>
+        <v>0.05695311098019466</v>
       </c>
       <c r="E28" s="1">
-        <v>0.002462271644162017</v>
+        <v>0.01923377638780299</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02183676557624125</v>
+        <v>0.02127166570324115</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0175901495162708</v>
+        <v>0.006321968841724868</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0327067527997486</v>
+        <v>0.03219476093720151</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01368850865253735</v>
+        <v>0.01434499110847676</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01650985115247741</v>
+        <v>0.01640880005399509</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0161761562032352</v>
+        <v>0.006526572473642744</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01341453825019127</v>
+        <v>0.0136807695750158</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01918573230048626</v>
+        <v>-0.001325205406838004</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02146321032454823</v>
+        <v>0.02151762706100382</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002773333333333405</v>
+        <v>0.01415495955725854</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04233422682823069</v>
+        <v>0.042729718779622</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.004371417240508935</v>
+        <v>0.005091490511516028</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01099297936800417</v>
+        <v>0.01106873820010485</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003471017007983246</v>
+        <v>-0.009655172413793212</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009449917633737979</v>
+        <v>0.009369877726702548</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.007160354249104994</v>
+        <v>0.008459271932325763</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01198362576453942</v>
+        <v>0.01197522969063068</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02786069651741285</v>
+        <v>-0.00776892430278886</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007118154464079061</v>
+        <v>0.007225214280275337</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01701956580005337</v>
+        <v>0.008055995773903923</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01176947062152338</v>
+        <v>0.0118468895796036</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.002763819095477404</v>
+        <v>-0.008739076154806291</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0176648898414244</v>
+        <v>0.01745431871312051</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.007345926349933252</v>
+        <v>0.002704268881591698</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01720134809311141</v>
+        <v>0.0169671033920021</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.008710311885361088</v>
+        <v>-0.003419290497221783</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0337220421414713</v>
+        <v>0.03386365948133801</v>
       </c>
       <c r="E42" s="1">
-        <v>0.005657548584198535</v>
+        <v>0.01851277860745593</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01122147511525188</v>
+        <v>0.01120423482289924</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0008646495100677054</v>
+        <v>0.0006472491909386147</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02159116285543116</v>
+        <v>0.02162020372966859</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.001780496712929014</v>
+        <v>0.006521639987230321</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01397913197244709</v>
+        <v>0.01381092266902392</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.009437438584998348</v>
+        <v>0.006259586286946117</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008057861508110725</v>
+        <v>0.00798981599749465</v>
       </c>
       <c r="E46" s="1">
-        <v>0.002130908832617129</v>
+        <v>0.01909641360037262</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01337644502653377</v>
+        <v>0.01319145501044565</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01313593770056909</v>
+        <v>0.0003038062584088674</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009543401838707121</v>
+        <v>0.009582282995956285</v>
       </c>
       <c r="E48" s="1">
-        <v>0.003688377114069885</v>
+        <v>-0.01389137838322274</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01495785436324649</v>
+        <v>0.015038216727039</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.002946353409351787</v>
+        <v>0.01598984771573608</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008240759857424503</v>
+        <v>0.008303748313687277</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01134798294522787</v>
+        <v>-0.006576805365631322</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01119368423255016</v>
+        <v>0.01114017609090208</v>
       </c>
       <c r="E51" s="1">
-        <v>0.007987910189982461</v>
+        <v>-0.007594662037539335</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008572533393019078</v>
+        <v>0.008537623118242943</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.001917662899343142</v>
+        <v>-0.004712728464879912</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1380796048530767</v>
+        <v>0.1381202954284394</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.0001971220185293943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04386603230108223</v>
+        <v>0.04386814486484657</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0003696857670979492</v>
+        <v>0.006655984222852185</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1711,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.001379618910684499</v>
+        <v>0.003609585501836099</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -386,7 +386,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -843,10 +843,10 @@
         <v>112</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01610730416491809</v>
+        <v>0.01602883595714602</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001279590531030217</v>
+        <v>0.003042921204356341</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -860,10 +860,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05215331805465782</v>
+        <v>0.05228124033483193</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006071251055836502</v>
+        <v>0.02209559603552269</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -877,10 +877,10 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01483401759127845</v>
+        <v>0.01494324713137732</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01099961404862992</v>
+        <v>0.01563063349663851</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -894,10 +894,10 @@
         <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009581456021263174</v>
+        <v>0.00952290916000988</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002522905324658042</v>
+        <v>0.0006656017039403661</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -911,10 +911,10 @@
         <v>116</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01550876532741932</v>
+        <v>0.01535924056067142</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006066522557701681</v>
+        <v>0.0002104672372669203</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -928,10 +928,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02044147853151432</v>
+        <v>0.02044541468025789</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003802837501828193</v>
+        <v>-0.006484044878332984</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -942,10 +942,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004246101561779876</v>
+        <v>0.004177808763009659</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01253211682659539</v>
+        <v>-0.02023152081563306</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +959,10 @@
         <v>117</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006479792014592415</v>
+        <v>0.006389172279878832</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01042587029510522</v>
+        <v>-0.002321428571428585</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,10 +973,10 @@
         <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01394403378789588</v>
+        <v>0.01389388263058829</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.00480384307445969</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,10 +990,10 @@
         <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0.00871122419035838</v>
+        <v>0.00871855800691799</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004454505622900395</v>
+        <v>-0.00625227190112676</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>118</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01465653609944918</v>
+        <v>0.01450494230682016</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006770833333333282</v>
+        <v>0.007865757734661472</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003228381975030581</v>
+        <v>0.003167964588773254</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01517241379310352</v>
+        <v>0.02591036414565839</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>119</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006129790879092547</v>
+        <v>0.006114716764284831</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001141552511415345</v>
+        <v>-0.0114025085518813</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>118</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01429066341118537</v>
+        <v>0.01425672803451852</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00122636029174461</v>
+        <v>0.007478081485301491</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>118</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01040413680731407</v>
+        <v>0.01031537569204545</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.004952538175815091</v>
+        <v>0.001244296972210845</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0213049355312794</v>
+        <v>0.02130532247524774</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003627813234799993</v>
+        <v>-0.004417966396679796</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1106,10 +1106,10 @@
         <v>114</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008290484911878532</v>
+        <v>0.008240701163485385</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00241701579116993</v>
+        <v>0.01130673558391226</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>114</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01665247132799223</v>
+        <v>0.01652767311828339</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.00391174133610428</v>
+        <v>-0.01055408970976257</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1140,10 +1140,10 @@
         <v>114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01159800200369607</v>
+        <v>0.01157467013917335</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001590609916630292</v>
+        <v>0.01029516455834845</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1157,10 +1157,10 @@
         <v>112</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007279985450334477</v>
+        <v>0.007035695665342762</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.03006789524733278</v>
+        <v>0.001333333333333409</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,10 +1174,10 @@
         <v>114</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0132679819762774</v>
+        <v>0.01309602840367386</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.009397234528124354</v>
+        <v>0.003794552107331484</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,10 +1191,10 @@
         <v>120</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01888889715863582</v>
+        <v>0.01867977199148503</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007501704932939224</v>
+        <v>0.01983508932661482</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,10 +1208,10 @@
         <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009556010646090518</v>
+        <v>0.009466496825395869</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.005791505791505669</v>
+        <v>0.01048543689320391</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02097538611607455</v>
+        <v>0.02111913007869869</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01048730484150773</v>
+        <v>-0.0003901677721420693</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01148524718496224</v>
+        <v>0.01151515195692329</v>
       </c>
       <c r="E26" s="1">
-        <v>0.006222739168362912</v>
+        <v>0.0168766616576117</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>122</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02304899335233213</v>
+        <v>0.0232875188058282</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01399556756428555</v>
+        <v>-0.008982035928143728</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>122</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05695311098019466</v>
+        <v>0.05783975683368088</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01923377638780299</v>
+        <v>0.02021325559987708</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1290,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02127166570324115</v>
+        <v>0.02132915510200602</v>
       </c>
       <c r="E29" s="1">
-        <v>0.006321968841724868</v>
+        <v>0.004038590980480095</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03219476093720151</v>
+        <v>0.03253914168252577</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01434499110847676</v>
+        <v>-0.002337540906966029</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01640880005399509</v>
+        <v>0.01645649216123672</v>
       </c>
       <c r="E31" s="1">
-        <v>0.006526572473642744</v>
+        <v>0.001638877012968498</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1338,10 +1338,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0136807695750158</v>
+        <v>0.01361350065062754</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001325205406838004</v>
+        <v>0.001238499646142976</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1355,10 +1355,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02151762706100382</v>
+        <v>0.02174372237677336</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01415495955725854</v>
+        <v>0.0001049428061705715</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1372,10 +1372,10 @@
         <v>112</v>
       </c>
       <c r="D34" s="1">
-        <v>0.042729718779622</v>
+        <v>0.04279281242204678</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005091490511516028</v>
+        <v>0.008993836733424354</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1389,10 +1389,10 @@
         <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01106873820010485</v>
+        <v>0.01092244213560238</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.009655172413793212</v>
+        <v>-0.002785515320334109</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1406,10 +1406,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009369877726702548</v>
+        <v>0.009415155262432556</v>
       </c>
       <c r="E36" s="1">
-        <v>0.008459271932325763</v>
+        <v>0.01357210179076374</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1423,10 +1423,10 @@
         <v>120</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01197522969063068</v>
+        <v>0.01183945949630821</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.00776892430278886</v>
+        <v>-0.01084119654687798</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1440,10 +1440,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007225214280275337</v>
+        <v>0.007257225001832609</v>
       </c>
       <c r="E38" s="1">
-        <v>0.008055995773903923</v>
+        <v>0.003013232018865386</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1457,10 +1457,10 @@
         <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0118468895796036</v>
+        <v>0.01170112250721262</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.008739076154806291</v>
+        <v>0.007304785894206578</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1474,10 +1474,10 @@
         <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01745431871312051</v>
+        <v>0.01743857386068556</v>
       </c>
       <c r="E40" s="1">
-        <v>0.002704268881591698</v>
+        <v>0.003467539973030176</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1491,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0169671033920021</v>
+        <v>0.01684827265589873</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.003419290497221783</v>
+        <v>0.00393137955682632</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1505,10 +1505,10 @@
         <v>99</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03386365948133801</v>
+        <v>0.03436652101614587</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01851277860745593</v>
+        <v>0.006363083052066676</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1519,10 +1519,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01120423482289924</v>
+        <v>0.0111711634850691</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0006472491909386147</v>
+        <v>0.004204398447606783</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1536,10 +1536,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02162020372966859</v>
+        <v>0.02168293650161062</v>
       </c>
       <c r="E44" s="1">
-        <v>0.006521639987230321</v>
+        <v>0.008246488445854183</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,10 +1553,10 @@
         <v>122</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01381092266902392</v>
+        <v>0.01384738999301596</v>
       </c>
       <c r="E45" s="1">
-        <v>0.006259586286946117</v>
+        <v>-0.000803328664414682</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,10 +1570,10 @@
         <v>120</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00798981599749465</v>
+        <v>0.008113107871824711</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01909641360037262</v>
+        <v>0.007523555055547693</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1587,10 +1587,10 @@
         <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01319145501044565</v>
+        <v>0.01314800381309351</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0003038062584088674</v>
+        <v>0.001171468240194429</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,10 +1604,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009582282995956285</v>
+        <v>0.009415186954755374</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01389137838322274</v>
+        <v>0.0199945469417433</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>118</v>
       </c>
       <c r="D49" s="1">
-        <v>0.015038216727039</v>
+        <v>0.01522372418830653</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01598984771573608</v>
+        <v>0.009680239820134995</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,10 +1638,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008303748313687277</v>
+        <v>0.008219467307198089</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.006576805365631322</v>
+        <v>0.009438909281594077</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,10 +1655,10 @@
         <v>113</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01114017609090208</v>
+        <v>0.01101580771862085</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.007594662037539335</v>
+        <v>0.02689406362741886</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008537623118242943</v>
+        <v>0.008466825886783677</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.004712728464879912</v>
+        <v>0.02083419113105767</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1686,10 +1686,10 @@
         <v>110</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1381202954284394</v>
+        <v>0.1376235315243377</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>-0.0001971220185293943</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04386814486484657</v>
+        <v>0.04400130407569926</v>
       </c>
       <c r="E54" s="1">
-        <v>0.006655984222852185</v>
+        <v>0.007224194930819161</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>0.003609585501836099</v>
+        <v>0.005422493049319188</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>Symbol</t>
   </si>
@@ -184,6 +184,9 @@
     <t>BDX</t>
   </si>
   <si>
+    <t>HUM</t>
+  </si>
+  <si>
     <t>JPST</t>
   </si>
   <si>
@@ -346,6 +349,9 @@
     <t>Becton Dickinson and Co</t>
   </si>
   <si>
+    <t>Humana Inc</t>
+  </si>
+  <si>
     <t>JPMorgan Ultra-Short Income ETF</t>
   </si>
   <si>
@@ -386,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -805,7 +811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,16 +843,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01602883595714602</v>
+        <v>0.0155146491703891</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003042921204356341</v>
+        <v>0.001750642814158487</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -854,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05228124033483193</v>
+        <v>0.05241447425197993</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02209559603552269</v>
+        <v>0.008195664364603505</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -871,16 +877,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01494324713137732</v>
+        <v>0.01516341596981131</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01563063349663851</v>
+        <v>-0.004042623766481457</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -888,16 +894,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00952290916000988</v>
+        <v>0.009977751531673667</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0006656017039403661</v>
+        <v>-0.01247637051039696</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -905,16 +911,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01535924056067142</v>
+        <v>0.01557378007974978</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0002104672372669203</v>
+        <v>0.008715942625763473</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -922,16 +928,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02044541468025789</v>
+        <v>0.02035238117641406</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006484044878332984</v>
+        <v>-0.006533575317604345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -939,13 +945,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004177808763009659</v>
+        <v>0.003834612751533135</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02023152081563306</v>
+        <v>0.009927694249971308</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -953,16 +959,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006389172279878832</v>
+        <v>0.006257125317802311</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002321428571428585</v>
+        <v>0.01284138180502792</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -970,13 +976,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01389388263058829</v>
+        <v>0.01397271875883083</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00480384307445969</v>
+        <v>0.01763622005790988</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -984,16 +990,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.00871855800691799</v>
+        <v>0.008952312795179667</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.00625227190112676</v>
+        <v>-0.006461127888194307</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1001,16 +1007,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01450494230682016</v>
+        <v>0.01374628604212432</v>
       </c>
       <c r="E12" s="1">
-        <v>0.007865757734661472</v>
+        <v>0.02524698133918779</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1018,16 +1024,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003167964588773254</v>
+        <v>0.002829858830753823</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02591036414565839</v>
+        <v>0.06259720062208407</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1035,16 +1041,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006114716764284831</v>
+        <v>0.005857763769414213</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0114025085518813</v>
+        <v>0.02420306965761521</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1052,16 +1058,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01425672803451852</v>
+        <v>0.0136080624331616</v>
       </c>
       <c r="E15" s="1">
-        <v>0.007478081485301491</v>
+        <v>0.00850807262008435</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1069,16 +1075,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01031537569204545</v>
+        <v>0.009872598479142325</v>
       </c>
       <c r="E16" s="1">
-        <v>0.001244296972210845</v>
+        <v>0.0123226823327125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1086,13 +1092,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02130532247524774</v>
+        <v>0.02144273502605521</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.004417966396679796</v>
+        <v>0.01972555746140636</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1100,16 +1106,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008240701163485385</v>
+        <v>0.008724591206977262</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01130673558391226</v>
+        <v>0.003631961259079608</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1117,16 +1123,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01652767311828339</v>
+        <v>0.01674703037170039</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01055408970976257</v>
+        <v>0.0006607400288323184</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1134,16 +1140,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01157467013917335</v>
+        <v>0.01198399004065733</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01029516455834845</v>
+        <v>0.001783746917790152</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1151,16 +1157,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007035695665342762</v>
+        <v>0.006953178797368531</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001333333333333409</v>
+        <v>0.007360321177651175</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1168,16 +1174,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01309602840367386</v>
+        <v>0.01336327115661106</v>
       </c>
       <c r="E22" s="1">
-        <v>0.003794552107331484</v>
+        <v>0.01040706099328137</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1185,16 +1191,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01867977199148503</v>
+        <v>0.01891566668916743</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01983508932661482</v>
+        <v>0.0177690029615003</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1202,16 +1208,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009466496825395869</v>
+        <v>0.009539409479507134</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01048543689320391</v>
+        <v>0.03325688073394506</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1219,13 +1225,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02111913007869869</v>
+        <v>0.02040880859922236</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0003901677721420693</v>
+        <v>0.01425710853023632</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1233,16 +1239,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01151515195692329</v>
+        <v>0.01186230170991029</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0168766616576117</v>
+        <v>-0.006232956758862485</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1250,16 +1256,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0232875188058282</v>
+        <v>0.02119825810840611</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.008982035928143728</v>
+        <v>0.04603363620051226</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1267,16 +1273,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05783975683368088</v>
+        <v>0.05858203871876227</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02021325559987708</v>
+        <v>0.002929907595221826</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1284,16 +1290,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02132915510200602</v>
+        <v>0.02162650923983645</v>
       </c>
       <c r="E29" s="1">
-        <v>0.004038590980480095</v>
+        <v>0.01514486391571546</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1301,13 +1307,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03253914168252577</v>
+        <v>0.03051921958730329</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.002337540906966029</v>
+        <v>0.02636891763833393</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1315,16 +1321,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01645649216123672</v>
+        <v>0.01551612665722586</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001638877012968498</v>
+        <v>0.02091454272863569</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1332,16 +1338,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01361350065062754</v>
+        <v>0.01388919359871849</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001238499646142976</v>
+        <v>0.004042315300593291</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1349,16 +1355,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02174372237677336</v>
+        <v>0.0198000840224759</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0001049428061705715</v>
+        <v>0.02297668038408762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1366,16 +1372,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04279281242204678</v>
+        <v>0.0429856247981089</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008993836733424354</v>
+        <v>-0.0002895994313322214</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1383,16 +1389,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01092244213560238</v>
+        <v>0.01093968977007699</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002785515320334109</v>
+        <v>0.01586206896551734</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1400,16 +1406,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009415155262432556</v>
+        <v>0.009596874286690182</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01357210179076374</v>
+        <v>0.01623406401907723</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1417,16 +1423,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01183945949630821</v>
+        <v>0.01047993987672246</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01084119654687798</v>
+        <v>0.02812148481439825</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1434,16 +1440,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007257225001832609</v>
+        <v>0.007405981359001258</v>
       </c>
       <c r="E38" s="1">
-        <v>0.003013232018865386</v>
+        <v>0.01337068636189986</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1451,16 +1457,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01170112250721262</v>
+        <v>0.01113283187912111</v>
       </c>
       <c r="E39" s="1">
-        <v>0.007304785894206578</v>
+        <v>0.01680672268907557</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1468,16 +1474,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01743857386068556</v>
+        <v>0.01725748635585702</v>
       </c>
       <c r="E40" s="1">
-        <v>0.003467539973030176</v>
+        <v>0.002703224560726136</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1485,16 +1491,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01684827265589873</v>
+        <v>0.01653993072743238</v>
       </c>
       <c r="E41" s="1">
-        <v>0.00393137955682632</v>
+        <v>0.02202802253358338</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1502,13 +1508,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03436652101614587</v>
+        <v>0.0341591813070654</v>
       </c>
       <c r="E42" s="1">
-        <v>0.006363083052066676</v>
+        <v>0.004086027442643969</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1516,13 +1522,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0111711634850691</v>
+        <v>0.01123839674181333</v>
       </c>
       <c r="E43" s="1">
-        <v>0.004204398447606783</v>
+        <v>0.009389930856350315</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1530,16 +1536,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02168293650161062</v>
+        <v>0.02175891720912256</v>
       </c>
       <c r="E44" s="1">
-        <v>0.008246488445854183</v>
+        <v>0.01867610175564316</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1547,16 +1553,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01384738999301596</v>
+        <v>0.01293693761447949</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.000803328664414682</v>
+        <v>0.005532957179722908</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1564,16 +1570,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008113107871824711</v>
+        <v>0.00793146369864668</v>
       </c>
       <c r="E46" s="1">
-        <v>0.007523555055547693</v>
+        <v>-0.00741956196047644</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1581,16 +1587,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01314800381309351</v>
+        <v>0.01288035301222047</v>
       </c>
       <c r="E47" s="1">
-        <v>0.001171468240194429</v>
+        <v>0.02121864429117415</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1598,16 +1604,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009415186954755374</v>
+        <v>0.009512154562752373</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0199945469417433</v>
+        <v>0.02034442758989918</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1615,16 +1621,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01522372418830653</v>
+        <v>0.01518278047813995</v>
       </c>
       <c r="E49" s="1">
-        <v>0.009680239820134995</v>
+        <v>0.008161896243291666</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1632,16 +1638,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008219467307198089</v>
+        <v>0.008864795277019053</v>
       </c>
       <c r="E50" s="1">
-        <v>0.009438909281594077</v>
+        <v>0.0006631299734747298</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1649,16 +1655,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01101580771862085</v>
+        <v>0.01098162524752895</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02689406362741886</v>
+        <v>0.01490264331556612</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1666,16 +1672,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008466825886783677</v>
+        <v>0.008867561635351717</v>
       </c>
       <c r="E52" s="1">
-        <v>0.02083419113105767</v>
+        <v>0.006629231009202874</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1683,13 +1689,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1376235315243377</v>
+        <v>0.009748269533623202</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.0001971220185293943</v>
+        <v>0.003273137697517026</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1697,124 +1706,138 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04400130407569926</v>
+        <v>0.1365368848411646</v>
       </c>
       <c r="E54" s="1">
-        <v>0.007224194930819161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
       <c r="D55" s="1">
+        <v>0.04406211542019658</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.008975136446331078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E55" s="1">
-        <v>0.005422493049319188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>123</v>
+      <c r="E56" s="1">
+        <v>0.009366572440624665</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0155146491703891</v>
+        <v>0.015397587163892</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001750642814158487</v>
+        <v>-0.001911419365408951</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05241447425197993</v>
+        <v>0.05235367123662581</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008195664364603505</v>
+        <v>-0.01575838335286517</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01516341596981131</v>
+        <v>0.01496197357468868</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004042623766481457</v>
+        <v>0.007909910284964683</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009977751531673667</v>
+        <v>0.00976183051404096</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01247637051039696</v>
+        <v>-0.003190403266972952</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01557378007974978</v>
+        <v>0.01556374134265798</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008715942625763473</v>
+        <v>-0.006191318546740932</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02035238117641406</v>
+        <v>0.02003177825892858</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006533575317604345</v>
+        <v>-0.01622214103032515</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003834612751533135</v>
+        <v>0.003836744469487775</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009927694249971308</v>
+        <v>-0.01005738962441061</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006257125317802311</v>
+        <v>0.006278665874268305</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01284138180502792</v>
+        <v>-0.01303571428571426</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01397271875883083</v>
+        <v>0.01408719596022216</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01763622005790988</v>
+        <v>-0.008794619762027889</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008952312795179667</v>
+        <v>0.00881193314715017</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006461127888194307</v>
+        <v>-0.008058245564430577</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01374628604212432</v>
+        <v>0.01396255696801571</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02524698133918779</v>
+        <v>-0.0133832976445396</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002829858830753823</v>
+        <v>0.002979096151801263</v>
       </c>
       <c r="E13" s="1">
-        <v>0.06259720062208407</v>
+        <v>-0.01536772777167938</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005857763769414213</v>
+        <v>0.005943865982659257</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02420306965761521</v>
+        <v>-0.01498559077809802</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0136080624331616</v>
+        <v>0.01359648832373917</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00850807262008435</v>
+        <v>-0.02105752623887325</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009872598479142325</v>
+        <v>0.009901512143237853</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0123226823327125</v>
+        <v>-0.01188959660297251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02144273502605521</v>
+        <v>0.02166279875414402</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01972555746140636</v>
+        <v>0.0005822604645144835</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008724591206977262</v>
+        <v>0.008675023349614041</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003631961259079608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01674703037170039</v>
+        <v>0.0166025864761009</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0006607400288323184</v>
+        <v>-0.008463893390959876</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01198399004065733</v>
+        <v>0.01189396080051124</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001783746917790152</v>
+        <v>-0.0204241948153967</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006953178797368531</v>
+        <v>0.006939358423160804</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007360321177651175</v>
+        <v>0.04151444702756568</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01336327115661106</v>
+        <v>0.01337704645989942</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01040706099328137</v>
+        <v>-0.006779661016949157</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01891566668916743</v>
+        <v>0.01907312937859201</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0177690029615003</v>
+        <v>-0.003659289304293933</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009539409479507134</v>
+        <v>0.009765194085045033</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03325688073394506</v>
+        <v>-0.05660377358490565</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02040880859922236</v>
+        <v>0.02050769241182885</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01425710853023632</v>
+        <v>-0.003158809128958384</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01186230170991029</v>
+        <v>0.01167897255383428</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.006232956758862485</v>
+        <v>-0.005936047488379836</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02119825810840611</v>
+        <v>0.02196832312034725</v>
       </c>
       <c r="E27" s="1">
-        <v>0.04603363620051226</v>
+        <v>-0.04165302144249516</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05858203871876227</v>
+        <v>0.05820846487602908</v>
       </c>
       <c r="E28" s="1">
-        <v>0.002929907595221826</v>
+        <v>-0.01168539325842699</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02162650923983645</v>
+        <v>0.02175031388860182</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01514486391571546</v>
+        <v>-0.01427027027027028</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03051921958730329</v>
+        <v>0.03103330269720194</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02636891763833393</v>
+        <v>-0.02211874272409797</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01551612665722586</v>
+        <v>0.01569364370060229</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02091454272863569</v>
+        <v>-0.02364343931272472</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01388919359871849</v>
+        <v>0.01381593018757893</v>
       </c>
       <c r="E32" s="1">
-        <v>0.004042315300593291</v>
+        <v>-0.00702415624464614</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0198000840224759</v>
+        <v>0.02006706461029538</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02297668038408762</v>
+        <v>-0.05341378925019558</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0429856247981089</v>
+        <v>0.04257439998404521</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0002895994313322214</v>
+        <v>-0.01133715188623341</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01093968977007699</v>
+        <v>0.01101008908666335</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01586206896551734</v>
+        <v>-0.01731160896130357</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009596874286690182</v>
+        <v>0.009662169150957337</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01623406401907723</v>
+        <v>-0.006768953068592043</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01047993987672246</v>
+        <v>0.01067466631153503</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02812148481439825</v>
+        <v>-0.02297592997811815</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007405981359001258</v>
+        <v>0.007435360569557616</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01337068636189986</v>
+        <v>-0.006785624528775958</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01113283187912111</v>
+        <v>0.0112148931878002</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01680672268907557</v>
+        <v>-0.009297520661157077</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01725748635585702</v>
+        <v>0.0171435608125892</v>
       </c>
       <c r="E40" s="1">
-        <v>0.002703224560726136</v>
+        <v>-0.008280377431157282</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01653993072743238</v>
+        <v>0.01674740689433179</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02202802253358338</v>
+        <v>-0.0007773302240122737</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0341591813070654</v>
+        <v>0.03398047606864048</v>
       </c>
       <c r="E42" s="1">
-        <v>0.004086027442643969</v>
+        <v>-0.001484780994803314</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01123839674181333</v>
+        <v>0.01123865681694397</v>
       </c>
       <c r="E43" s="1">
-        <v>0.009389930856350315</v>
+        <v>-0.006416189901530034</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02175891720912256</v>
+        <v>0.02195960275107743</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01867610175564316</v>
+        <v>0.0005275884809847753</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01293693761447949</v>
+        <v>0.01288780259968672</v>
       </c>
       <c r="E45" s="1">
-        <v>0.005532957179722908</v>
+        <v>-0.01017855977728976</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00793146369864668</v>
+        <v>0.007799560563276333</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.00741956196047644</v>
+        <v>-0.006181269316466675</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01288035301222047</v>
+        <v>0.0130315952601108</v>
       </c>
       <c r="E47" s="1">
-        <v>0.02121864429117415</v>
+        <v>-0.01535748085692168</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009512154562752373</v>
+        <v>0.009615608607891705</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02034442758989918</v>
+        <v>-0.03130738959335366</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01518278047813995</v>
+        <v>0.01516465987185999</v>
       </c>
       <c r="E49" s="1">
-        <v>0.008161896243291666</v>
+        <v>-0.01997461584907523</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008864795277019053</v>
+        <v>0.008788357005945701</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0006631299734747298</v>
+        <v>-0.008795710584974858</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01098162524752895</v>
+        <v>0.01104185614614626</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01490264331556612</v>
+        <v>0.01736334405144691</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008867561635351717</v>
+        <v>0.008843513341577293</v>
       </c>
       <c r="E52" s="1">
-        <v>0.006629231009202874</v>
+        <v>-0.003912605562872873</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009748269533623202</v>
+        <v>0.009689420304925514</v>
       </c>
       <c r="E53" s="1">
-        <v>0.003273137697517026</v>
+        <v>0.0004724940938238831</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1365368848411646</v>
+        <v>0.1352698698065873</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>0.0001970831690973895</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04406211542019658</v>
+        <v>0.04404502797304794</v>
       </c>
       <c r="E55" s="1">
-        <v>0.008975136446331078</v>
+        <v>-0.007092198581560405</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.009366572440624665</v>
+        <v>-0.009881123297001526</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.015397587163892</v>
+        <v>0.01552152603006708</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001911419365408951</v>
+        <v>0.001422630772597966</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05235367123662581</v>
+        <v>0.05204290437016484</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01575838335286517</v>
+        <v>0.009622126054686708</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01496197357468868</v>
+        <v>0.01523081904424094</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007909910284964683</v>
+        <v>0.008013052188100334</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00976183051404096</v>
+        <v>0.009827796002111975</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003190403266972952</v>
+        <v>-0.008449622327486916</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01556374134265798</v>
+        <v>0.01562174161726055</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006191318546740932</v>
+        <v>-0.001643047853768675</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02003177825892858</v>
+        <v>0.01990348875333624</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01622214103032515</v>
+        <v>-0.005125157840005889</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003836744469487775</v>
+        <v>0.003836061431447842</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01005738962441061</v>
+        <v>0.01084835265755935</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006278665874268305</v>
+        <v>0.006258661586647753</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01303571428571426</v>
+        <v>0.005427899402931091</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01408719596022216</v>
+        <v>0.01410265449613011</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008794619762027889</v>
+        <v>0.01330897703549061</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.00881193314715017</v>
+        <v>0.008828156529102378</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.008058245564430577</v>
+        <v>-0.05857621321171524</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01396255696801571</v>
+        <v>0.0139131696570675</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0133832976445396</v>
+        <v>0.04015192620727093</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002979096151801263</v>
+        <v>0.002962587909547165</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01536772777167938</v>
+        <v>0.01337792642140467</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005943865982659257</v>
+        <v>0.005913222924199943</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01498559077809802</v>
+        <v>0.0117027501462843</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01359648832373917</v>
+        <v>0.01344301197289272</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02105752623887325</v>
+        <v>0.0191355092624006</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009901512143237853</v>
+        <v>0.009881426754203899</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01188959660297251</v>
+        <v>0.0224896146683855</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02166279875414402</v>
+        <v>0.02189172699907141</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0005822604645144835</v>
+        <v>0.004202767360662163</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008675023349614041</v>
+        <v>0.008761597777532574</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>-0.004674306393244732</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0166025864761009</v>
+        <v>0.01662635097814729</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.008463893390959876</v>
+        <v>0.002058360576340901</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01189396080051124</v>
+        <v>0.01176731047365923</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0204241948153967</v>
+        <v>0.008928094092488736</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006939358423160804</v>
+        <v>0.007299570002029552</v>
       </c>
       <c r="E21" s="1">
-        <v>0.04151444702756568</v>
+        <v>0.001275510204081565</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01337704645989942</v>
+        <v>0.01341894890817112</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.006779661016949157</v>
+        <v>-0.00170648464163814</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01907312937859201</v>
+        <v>0.01919298351682458</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003659289304293933</v>
+        <v>0.01119518562768262</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009765194085045033</v>
+        <v>0.009304385025684042</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.05660377358490565</v>
+        <v>0.02362745098039221</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02050769241182885</v>
+        <v>0.0206469273607806</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003158809128958384</v>
+        <v>0.009110354115503538</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01167897255383428</v>
+        <v>0.01172550679651544</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005936047488379836</v>
+        <v>0.008168553884288388</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02196832312034725</v>
+        <v>0.02126338218746537</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.04165302144249516</v>
+        <v>0.02107267224265308</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05820846487602908</v>
+        <v>0.05810239298188821</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01168539325842699</v>
+        <v>0.01803850234955284</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02175031388860182</v>
+        <v>0.02165389584565965</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01427027027027028</v>
+        <v>0.01447685896029838</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03103330269720194</v>
+        <v>0.03064973890813567</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02211874272409797</v>
+        <v>0.02298850574712641</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01569364370060229</v>
+        <v>0.01547550738472369</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02364343931272472</v>
+        <v>0.01850041362713384</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01381593018757893</v>
+        <v>0.01385579576157443</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.00702415624464614</v>
+        <v>0.01414768806073141</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02006706461029538</v>
+        <v>0.01918477376533132</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.05341378925019558</v>
+        <v>0.0155825758470074</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04257439998404521</v>
+        <v>0.0425117918013262</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01133715188623341</v>
+        <v>0.02104753786869806</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01101008908666335</v>
+        <v>0.01092746233239566</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01731160896130357</v>
+        <v>0.007253886010362587</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009662169150957337</v>
+        <v>0.009692539559886007</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.006768953068592043</v>
+        <v>0.01208541572012711</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01067466631153503</v>
+        <v>0.01053348862567932</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02297592997811815</v>
+        <v>0.0257558790593504</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007435360569557616</v>
+        <v>0.00745860641409804</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.006785624528775958</v>
+        <v>-0.004301619433198511</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0112148931878002</v>
+        <v>0.0112215035467976</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.009297520661157077</v>
+        <v>0.02137643378519294</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0171435608125892</v>
+        <v>0.01717127716538512</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.008280377431157282</v>
+        <v>0.007961165048543606</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01674740689433179</v>
+        <v>0.01690139338066447</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0007773302240122737</v>
+        <v>0.01110325318246108</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03398047606864048</v>
+        <v>0.03426863511234442</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.001484780994803314</v>
+        <v>0.0146220570012392</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01123865681694397</v>
+        <v>0.01127798663707117</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.006416189901530034</v>
+        <v>0.008334605144901808</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02195960275107743</v>
+        <v>0.02219045500647141</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0005275884809847753</v>
+        <v>0.01067803313266236</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01288780259968672</v>
+        <v>0.01288393104170101</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01017855977728976</v>
+        <v>0.02421392630353103</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007799560563276333</v>
+        <v>0.007828705786012165</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.006181269316466675</v>
+        <v>0.004339336081579326</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0130315952601108</v>
+        <v>0.01295951737441473</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01535748085692168</v>
+        <v>0.00533007121324669</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009615608607891705</v>
+        <v>0.009407525926627984</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.03130738959335366</v>
+        <v>0.02554843369143267</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01516465987185999</v>
+        <v>0.01501006794853353</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01997461584907523</v>
+        <v>0.02244379620781567</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008788357005945701</v>
+        <v>0.008797991196987331</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.008795710584974858</v>
+        <v>0.007354281893879433</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01104185614614626</v>
+        <v>0.01134568783375298</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01736334405144691</v>
+        <v>0.03466076696165188</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008843513341577293</v>
+        <v>0.008896822764771979</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.003912605562872873</v>
+        <v>-0.004978026679111736</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009689420304925514</v>
+        <v>0.009790742027939373</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0004724940938238831</v>
+        <v>0.008950658930418687</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1352698698065873</v>
+        <v>0.1366467526321049</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0001970831690973895</v>
+        <v>-0.0001970443349753603</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04404502797304794</v>
+        <v>0.04416909213341964</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.007092198581560405</v>
+        <v>0.01053268765133186</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.009881123297001526</v>
+        <v>0.01017661041371798</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01552152603006708</v>
+        <v>0.01538701972546092</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001422630772597966</v>
+        <v>0.006829854660692858</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05204290437016484</v>
+        <v>0.05201433810148039</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009622126054686708</v>
+        <v>0.02038983740810796</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01523081904424094</v>
+        <v>0.01519819824953399</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008013052188100334</v>
+        <v>0.01219037472597284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009827796002111975</v>
+        <v>0.009646585297190336</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008449622327486916</v>
+        <v>-0.007488702388637747</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01562174161726055</v>
+        <v>0.0154389580865833</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001643047853768675</v>
+        <v>-0.01693753000068565</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01990348875333624</v>
+        <v>0.01960199833155799</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005125157840005889</v>
+        <v>-0.02000895923547874</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003836061431447842</v>
+        <v>0.003838612316596943</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01084835265755935</v>
+        <v>0.02055533473397309</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006258661586647753</v>
+        <v>0.006229240419217305</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005427899402931091</v>
+        <v>0.001979485333813313</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01410265449613011</v>
+        <v>0.01414638416059341</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01330897703549061</v>
+        <v>0.0002575328354368356</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008828156529102378</v>
+        <v>0.008227310417119531</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.05857621321171524</v>
+        <v>-0.01203542502460075</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0139131696570675</v>
+        <v>0.01432601989519474</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04015192620727093</v>
+        <v>0.01147626499739185</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002962587909547165</v>
+        <v>0.002971976545159237</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01337792642140467</v>
+        <v>0.01026769343601042</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005913222924199943</v>
+        <v>0.005922156415986539</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0117027501462843</v>
+        <v>0.00809716599190291</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01344301197289272</v>
+        <v>0.01356223328849757</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0191355092624006</v>
+        <v>0.00246354617484501</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009881426754203899</v>
+        <v>0.01000187108880086</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0224896146683855</v>
+        <v>0.01148781171196411</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02189172699907141</v>
+        <v>0.021762266724596</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004202767360662163</v>
+        <v>0.01918743158843594</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008761597777532574</v>
+        <v>0.008632790835905886</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.004674306393244732</v>
+        <v>-0.001817906377821532</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01662635097814729</v>
+        <v>0.01649273387621376</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002058360576340901</v>
+        <v>-0.008458192363460681</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01176731047365923</v>
+        <v>0.01175276679977896</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008928094092488736</v>
+        <v>-0.007948283170835069</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007299570002029552</v>
+        <v>0.007235250353954637</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001275510204081565</v>
+        <v>-0.01560509554140121</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01341894890817112</v>
+        <v>0.01326109666354881</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.00170648464163814</v>
+        <v>-0.003944773175542426</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01919298351682458</v>
+        <v>0.01921233607071538</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01119518562768262</v>
+        <v>-0.003588307369158161</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009304385025684042</v>
+        <v>0.00942827603470292</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02362745098039221</v>
+        <v>0.0050761421319796</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0206469273607806</v>
+        <v>0.02062513422469899</v>
       </c>
       <c r="E25" s="1">
-        <v>0.009110354115503538</v>
+        <v>0.005181347150259086</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01172550679651544</v>
+        <v>0.01170219851532887</v>
       </c>
       <c r="E26" s="1">
-        <v>0.008168553884288388</v>
+        <v>-0.01760169870362094</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02126338218746537</v>
+        <v>0.02149273527742854</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02107267224265308</v>
+        <v>0.02498844603101236</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05810239298188821</v>
+        <v>0.0585545859253082</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01803850234955284</v>
+        <v>0.002977963073257817</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02165389584565965</v>
+        <v>0.02174607490937799</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01447685896029838</v>
+        <v>-0.003891891891891985</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03064973890813567</v>
+        <v>0.03103846424867439</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02298850574712641</v>
+        <v>0.01709470304975924</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01547550738472369</v>
+        <v>0.01560302476809039</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01850041362713384</v>
+        <v>0.02606512589529664</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01385579576157443</v>
+        <v>0.01391026390136619</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01414768806073141</v>
+        <v>-0.01395032323919698</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01918477376533132</v>
+        <v>0.01928744118284199</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0155825758470074</v>
+        <v>0.02103917238172737</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0425117918013262</v>
+        <v>0.04296927873963906</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02104753786869806</v>
+        <v>0.004347958416125675</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01092746233239566</v>
+        <v>0.01089584611747205</v>
       </c>
       <c r="E35" s="1">
-        <v>0.007253886010362587</v>
+        <v>0.000685871056241405</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009692539559886007</v>
+        <v>0.009710854348363353</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01208541572012711</v>
+        <v>8.97827258035111E-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01053348862567932</v>
+        <v>0.01069593947574203</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0257558790593504</v>
+        <v>0.0176855895196506</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00745860641409804</v>
+        <v>0.007351706871099543</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.004301619433198511</v>
+        <v>-0.009529860228716602</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0112215035467976</v>
+        <v>0.01134591630432031</v>
       </c>
       <c r="E39" s="1">
-        <v>0.02137643378519294</v>
+        <v>0.005870342011230267</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01717127716538512</v>
+        <v>0.017133618377785</v>
       </c>
       <c r="E40" s="1">
-        <v>0.007961165048543606</v>
+        <v>-0.005201309959545375</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01690139338066447</v>
+        <v>0.0169168971587132</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01110325318246108</v>
+        <v>0.002797789746100676</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03426863511234442</v>
+        <v>0.03441943981861928</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0146220570012392</v>
+        <v>0.01126309504423828</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01127798663707117</v>
+        <v>0.01125742180653265</v>
       </c>
       <c r="E43" s="1">
-        <v>0.008334605144901808</v>
+        <v>0.0009081353794406777</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02219045500647141</v>
+        <v>0.02220146971238447</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01067803313266236</v>
+        <v>0.001478260869565151</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01288393104170101</v>
+        <v>0.01306296489387153</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02421392630353103</v>
+        <v>0.01227125480016311</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007828705786012165</v>
+        <v>0.007783467851508971</v>
       </c>
       <c r="E46" s="1">
-        <v>0.004339336081579326</v>
+        <v>-0.007128969539857311</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01295951737441473</v>
+        <v>0.01289734130705501</v>
       </c>
       <c r="E47" s="1">
-        <v>0.00533007121324669</v>
+        <v>0.001955586458650016</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009407525926627984</v>
+        <v>0.009550679930129825</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02554843369143267</v>
+        <v>0.01813380281690136</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01501006794853353</v>
+        <v>0.01519234428557056</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02244379620781567</v>
+        <v>0.006333239052104922</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008797991196987331</v>
+        <v>0.008773410523453049</v>
       </c>
       <c r="E50" s="1">
-        <v>0.007354281893879433</v>
+        <v>-0.02365150235308311</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01134568783375298</v>
+        <v>0.01162067895332743</v>
       </c>
       <c r="E51" s="1">
-        <v>0.03466076696165188</v>
+        <v>0.02240097749720005</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008896822764771979</v>
+        <v>0.008763352915154171</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.004978026679111736</v>
+        <v>0.006253664256400171</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009790742027939373</v>
+        <v>0.009778859972278989</v>
       </c>
       <c r="E53" s="1">
-        <v>0.008950658930418687</v>
+        <v>-0.005572396576319583</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1366467526321049</v>
+        <v>0.1352435066850867</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0001970443349753603</v>
+        <v>0.0001970831690973895</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04416909213341964</v>
+        <v>0.04418466130038771</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01053268765133186</v>
+        <v>0.001677249311129891</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01017661041371798</v>
+        <v>0.003994530778476557</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01538701972546092</v>
+        <v>0.01543047333319114</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006829854660692858</v>
+        <v>0.00200792315623799</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05201433810148039</v>
+        <v>0.0528637361770355</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02038983740810796</v>
+        <v>0.002472865943091707</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01519819824953399</v>
+        <v>0.01532226472332216</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01219037472597284</v>
+        <v>-0.007732167435835158</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009646585297190336</v>
+        <v>0.009536252038553756</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007488702388637747</v>
+        <v>-0.008846103811630091</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0154389580865833</v>
+        <v>0.01511707465083916</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01693753000068565</v>
+        <v>-0.003278459821428825</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01960199833155799</v>
+        <v>0.01913335397466066</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02000895923547874</v>
+        <v>-0.0006094773731524228</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003838612316596943</v>
+        <v>0.003901929898603117</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02055533473397309</v>
+        <v>-0.005396984365437008</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006229240419217305</v>
+        <v>0.006216738157356651</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001979485333813313</v>
+        <v>0.01311063218390784</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01414638416059341</v>
+        <v>0.01409372948281484</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0002575328354368356</v>
+        <v>0.00720906282183309</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008227310417119531</v>
+        <v>0.008095951711148927</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01203542502460075</v>
+        <v>-0.008197977321483307</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01432601989519474</v>
+        <v>0.01443277692422719</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01147626499739185</v>
+        <v>0.01211964930376475</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002971976545159237</v>
+        <v>0.002990546060939072</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01026769343601042</v>
+        <v>0.009437386569872919</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005922156415986539</v>
+        <v>0.005946356196669414</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00809716599190291</v>
+        <v>0.02983362019506597</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01356223328849757</v>
+        <v>0.01354155232887178</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00246354617484501</v>
+        <v>0.004582890541976692</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01000187108880086</v>
+        <v>0.01007651973242525</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01148781171196411</v>
+        <v>0.01094182825484746</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.021762266724596</v>
+        <v>0.02209158321946804</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01918743158843594</v>
+        <v>-0.002590182576283961</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008632790835905886</v>
+        <v>0.008582812920011998</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001817906377821532</v>
+        <v>0.001062376688419908</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01649273387621376</v>
+        <v>0.01628817155787633</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.008458192363460681</v>
+        <v>-0.005727516451377035</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01175276679977896</v>
+        <v>0.01161296413853281</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.007948283170835069</v>
+        <v>-0.02675996154257021</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007235250353954637</v>
+        <v>0.007094006354190694</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01560509554140121</v>
+        <v>-0.0045292785506309</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01326109666354881</v>
+        <v>0.01315623167280637</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003944773175542426</v>
+        <v>-0.008448844884488493</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01921233607071538</v>
+        <v>0.01906723165988832</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003588307369158161</v>
+        <v>0.007290294246816043</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.00942827603470292</v>
+        <v>0.009438433192028457</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0050761421319796</v>
+        <v>-0.0002858776443681599</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02062513422469899</v>
+        <v>0.02064951508158384</v>
       </c>
       <c r="E25" s="1">
-        <v>0.005181347150259086</v>
+        <v>0.001249609497032234</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01170219851532887</v>
+        <v>0.01145048064552519</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01760169870362094</v>
+        <v>0.1042034013992377</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02149273527742854</v>
+        <v>0.02194215671263263</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02498844603101236</v>
+        <v>0.002658706096366537</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0585545859253082</v>
+        <v>0.0584952980515008</v>
       </c>
       <c r="E28" s="1">
-        <v>0.002977963073257817</v>
+        <v>-0.002449524940617565</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02174607490937799</v>
+        <v>0.02157525850261542</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.003891891891891985</v>
+        <v>-0.0338615150857392</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03103846424867439</v>
+        <v>0.03144345572644509</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01709470304975924</v>
+        <v>-0.005839185670322822</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01560302476809039</v>
+        <v>0.01594602269457035</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02606512589529664</v>
+        <v>-0.006836499712147504</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01391026390136619</v>
+        <v>0.01366163938459339</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01395032323919698</v>
+        <v>0.001984126984126977</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01928744118284199</v>
+        <v>0.01961488073786668</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02103917238172737</v>
+        <v>0.01844262295081966</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04296927873963906</v>
+        <v>0.04298440484860766</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004347958416125675</v>
+        <v>-0.00820371180079027</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01089584611747205</v>
+        <v>0.01085993890275785</v>
       </c>
       <c r="E35" s="1">
-        <v>0.000685871056241405</v>
+        <v>-0.009938313913639418</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009710854348363353</v>
+        <v>0.009673086772501002</v>
       </c>
       <c r="E36" s="1">
-        <v>8.97827258035111E-05</v>
+        <v>0.0004488733279466306</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01069593947574203</v>
+        <v>0.01084179558468007</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0176855895196506</v>
+        <v>-0.005792748337266507</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007351706871099543</v>
+        <v>0.007252675098269141</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.009529860228716602</v>
+        <v>-0.0161642078255293</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01134591630432031</v>
+        <v>0.01136711442502424</v>
       </c>
       <c r="E39" s="1">
-        <v>0.005870342011230267</v>
+        <v>0.01192590713017005</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.017133618377785</v>
+        <v>0.01697668721826365</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.005201309959545375</v>
+        <v>-0.005228505034856834</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0169168971587132</v>
+        <v>0.0168967325618457</v>
       </c>
       <c r="E41" s="1">
-        <v>0.002797789746100676</v>
+        <v>0.00850945107065626</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03441943981861928</v>
+        <v>0.03466862435363778</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01126309504423828</v>
+        <v>-0.00413300770242353</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01125742180653265</v>
+        <v>0.01122281518886339</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0009081353794406777</v>
+        <v>-0.0003916981005268605</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02220146971238447</v>
+        <v>0.02214582708838774</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001478260869565151</v>
+        <v>-0.001866805591733911</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01306296489387153</v>
+        <v>0.01317065328461178</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01227125480016311</v>
+        <v>-0.01165624668856624</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007783467851508971</v>
+        <v>0.007697232912503009</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.007128969539857311</v>
+        <v>0.04260951552074266</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01289734130705501</v>
+        <v>0.0128711489723433</v>
       </c>
       <c r="E47" s="1">
-        <v>0.001955586458650016</v>
+        <v>-0.000954198473282486</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009550679930129825</v>
+        <v>0.009685182317886183</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01813380281690136</v>
+        <v>0.001037523776586724</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01519234428557056</v>
+        <v>0.01522773338400412</v>
       </c>
       <c r="E49" s="1">
-        <v>0.006333239052104922</v>
+        <v>0.00267621468374224</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008773410523453049</v>
+        <v>0.008531825544080612</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.02365150235308311</v>
+        <v>0.005870720553701636</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01162067895332743</v>
+        <v>0.01183372334892186</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02240097749720005</v>
+        <v>0.001693058460312757</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008763352915154171</v>
+        <v>0.008783071731684111</v>
       </c>
       <c r="E52" s="1">
-        <v>0.006253664256400171</v>
+        <v>0.002952029520295163</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009778859972278989</v>
+        <v>0.009685678545389166</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.005572396576319583</v>
+        <v>0.005962254000986267</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1352435066850867</v>
+        <v>0.1347319699033603</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0001970831690973895</v>
+        <v>9.852216748762466E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04418466130038771</v>
+        <v>0.04408268036958225</v>
       </c>
       <c r="E55" s="1">
-        <v>0.001677249311129891</v>
+        <v>-0.001076426264800978</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.003994530778476557</v>
+        <v>0.0002846565650946875</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01543047333319114</v>
+        <v>0.01545705658527453</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00200792315623799</v>
+        <v>-0.006769930675909919</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0528637361770355</v>
+        <v>0.05297938018146897</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002472865943091707</v>
+        <v>0.01201780285185072</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01532226472332216</v>
+        <v>0.01519946377983439</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007732167435835158</v>
+        <v>-0.009016360001632084</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009536252038553756</v>
+        <v>0.009449203585211393</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.008846103811630091</v>
+        <v>0.0002625016406352376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01511707465083916</v>
+        <v>0.01506322608278288</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003278459821428825</v>
+        <v>-0.007418293792427533</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01913335397466066</v>
+        <v>0.0191162510619758</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0006094773731524228</v>
+        <v>0.001677084921481997</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003901929898603117</v>
+        <v>0.003879766842842473</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.005396984365437008</v>
+        <v>0.05750727232042974</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006216738157356651</v>
+        <v>0.006296451198550954</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01311063218390784</v>
+        <v>0.03013650062045747</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01409372948281484</v>
+        <v>0.01419129241949598</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00720906282183309</v>
+        <v>0.0007668711656441118</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008095951711148927</v>
+        <v>0.008027296260044723</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.008197977321483307</v>
+        <v>0.001467748165314697</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01443277692422719</v>
+        <v>0.01460354012545795</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01211964930376475</v>
+        <v>0.01401273885350318</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002990546060939072</v>
+        <v>0.003017909932296072</v>
       </c>
       <c r="E13" s="1">
-        <v>0.009437386569872919</v>
+        <v>-0.0003595828838546256</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005946356196669414</v>
+        <v>0.006122014857264699</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02983362019506597</v>
+        <v>0.01838440111420625</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01354155232887178</v>
+        <v>0.01359974052553927</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004582890541976692</v>
+        <v>0.006479338842975135</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01007651973242525</v>
+        <v>0.0101838763734762</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01094182825484746</v>
+        <v>-0.001096040553500433</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02209158321946804</v>
+        <v>0.02202809154465575</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.002590182576283961</v>
+        <v>-0.007030656194577989</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008582812920011998</v>
+        <v>0.008589486046785283</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001062376688419908</v>
+        <v>0.001061249241965045</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01628817155787633</v>
+        <v>0.0161902721200661</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.005727516451377035</v>
+        <v>-0.007353842382645026</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01161296413853281</v>
+        <v>0.01129898533443607</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02675996154257021</v>
+        <v>-0.009110367158772892</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007094006354190694</v>
+        <v>0.007059865986170967</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0045292785506309</v>
+        <v>0.006174845628859282</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01315623167280637</v>
+        <v>0.01304136440214357</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.008448844884488493</v>
+        <v>0.003861003861004075</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01906723165988832</v>
+        <v>0.01920077176342378</v>
       </c>
       <c r="E23" s="1">
-        <v>0.007290294246816043</v>
+        <v>0.002790373212417041</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009438433192028457</v>
+        <v>0.009433049775433551</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0002858776443681599</v>
+        <v>0.01382137069869427</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02064951508158384</v>
+        <v>0.02066943522130635</v>
       </c>
       <c r="E25" s="1">
-        <v>0.001249609497032234</v>
+        <v>-0.001326053042121522</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01145048064552519</v>
+        <v>0.01264006159992743</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1042034013992377</v>
+        <v>0.02184103435841966</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02194215671263263</v>
+        <v>0.02199423365544768</v>
       </c>
       <c r="E27" s="1">
-        <v>0.002658706096366537</v>
+        <v>-0.01059111772732924</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0584952980515008</v>
+        <v>0.0583354068034907</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.002449524940617565</v>
+        <v>-0.006027234169208917</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02157525850261542</v>
+        <v>0.02083875567273974</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0338615150857392</v>
+        <v>-0.003370029206919756</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03144345572644509</v>
+        <v>0.03125095576061906</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.005839185670322822</v>
+        <v>-0.01599333280419069</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01594602269457035</v>
+        <v>0.01583250088968891</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006836499712147504</v>
+        <v>-0.0104340265198174</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01366163938459339</v>
+        <v>0.01368485032945515</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001984126984126977</v>
+        <v>-0.03228583727938006</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01961488073786668</v>
+        <v>0.01997094572672818</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01844262295081966</v>
+        <v>-0.03834115805946792</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04298440484860766</v>
+        <v>0.04261964121862633</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.00820371180079027</v>
+        <v>0.02970781063125805</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01085993890275785</v>
+        <v>0.0107489496617702</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.009938313913639418</v>
+        <v>0.003807545863620643</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009673086772501002</v>
+        <v>0.009674674803454133</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0004488733279466306</v>
+        <v>0.00439698492462326</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01084179558468007</v>
+        <v>0.01077592435372168</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.005792748337266507</v>
+        <v>0.002157962883038378</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007252675098269141</v>
+        <v>0.007133410778480067</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0161642078255293</v>
+        <v>0.008345286217238401</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01136711442502424</v>
+        <v>0.01149940419509628</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01192590713017005</v>
+        <v>0.003761283851554609</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01697668721826365</v>
+        <v>0.01688311863310959</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.005228505034856834</v>
+        <v>-0.005061319836480394</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0168967325618457</v>
+        <v>0.01703566516690418</v>
       </c>
       <c r="E41" s="1">
-        <v>0.00850945107065626</v>
+        <v>-0.0004149664568779965</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03466862435363778</v>
+        <v>0.03451551359460945</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.00413300770242353</v>
+        <v>-0.003045247527420636</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01122281518886339</v>
+        <v>0.0112152267455492</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0003916981005268605</v>
+        <v>-0.001146139631533427</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02214582708838774</v>
+        <v>0.02209819473833656</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.001866805591733911</v>
+        <v>0.01539732938976113</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01317065328461178</v>
+        <v>0.01301342854300762</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01165624668856624</v>
+        <v>-0.01533183231478508</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.007697232912503009</v>
+        <v>0.008022924499625</v>
       </c>
       <c r="E46" s="1">
-        <v>0.04260951552074266</v>
+        <v>-0.0004173767868944633</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0128711489723433</v>
+        <v>0.01285520802228529</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.000954198473282486</v>
+        <v>0.008509160371624747</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009685182317886183</v>
+        <v>0.009692471899063502</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001037523776586724</v>
+        <v>-0.00362756952841603</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01522773338400412</v>
+        <v>0.01526414102973185</v>
       </c>
       <c r="E49" s="1">
-        <v>0.00267621468374224</v>
+        <v>-0.005155330221447429</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008531825544080612</v>
+        <v>0.008579471304830883</v>
       </c>
       <c r="E50" s="1">
-        <v>0.005870720553701636</v>
+        <v>-0.0132702586471708</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01183372334892186</v>
+        <v>0.01185038524439603</v>
       </c>
       <c r="E51" s="1">
-        <v>0.001693058460312757</v>
+        <v>-0.007655597534301006</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008783071731684111</v>
+        <v>0.008806492792726005</v>
       </c>
       <c r="E52" s="1">
-        <v>0.002952029520295163</v>
+        <v>-0.002710971689710018</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009685678545389166</v>
+        <v>0.009740654279859599</v>
       </c>
       <c r="E53" s="1">
-        <v>0.005962254000986267</v>
+        <v>-0.02268270944741524</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1347319699033603</v>
+        <v>0.1347068987859621</v>
       </c>
       <c r="E54" s="1">
-        <v>9.852216748762466E-05</v>
+        <v>9.851246182646101E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04408268036958225</v>
+        <v>0.04402269726482001</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.001076426264800978</v>
+        <v>-0.001795977011494143</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0002846565650946875</v>
+        <v>-0.0003392169830694902</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01545705658527453</v>
+        <v>0.01535762295026291</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006769930675909919</v>
+        <v>0.01057854844866157</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05297938018146897</v>
+        <v>0.05363426958282014</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01201780285185072</v>
+        <v>0.00370391788347546</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01519946377983439</v>
+        <v>0.01506753110500739</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009016360001632084</v>
+        <v>-0.04407163441745576</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009449203585211393</v>
+        <v>0.00945489127634922</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0002625016406352376</v>
+        <v>0.006560818790185108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01506322608278288</v>
+        <v>0.01495655616409813</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007418293792427533</v>
+        <v>0.01487696538109007</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0191162510619758</v>
+        <v>0.0191548082746613</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001677084921481997</v>
+        <v>0.008447488584474749</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003879766842842473</v>
+        <v>0.004104273890620455</v>
       </c>
       <c r="E8" s="1">
-        <v>0.05750727232042974</v>
+        <v>0.003544223444773564</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006296451198550954</v>
+        <v>0.006488405181233275</v>
       </c>
       <c r="E9" s="1">
-        <v>0.03013650062045747</v>
+        <v>0.01428325589399426</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01419129241949598</v>
+        <v>0.01420699456629098</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0007668711656441118</v>
+        <v>0.008939974457215838</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008027296260044723</v>
+        <v>0.008041806226649474</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001467748165314697</v>
+        <v>0.0230638691761802</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01460354012545795</v>
+        <v>0.01481320060879277</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01401273885350318</v>
+        <v>0.02286432160804019</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003017909932296072</v>
+        <v>0.003017848448985629</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0003595828838546256</v>
+        <v>-0.02122302158273381</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006122014857264699</v>
+        <v>0.00623668002180915</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01838440111420625</v>
+        <v>0.00820568927789922</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01359974052553927</v>
+        <v>0.01369250258199732</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006479338842975135</v>
+        <v>0.0194442619720161</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0101838763734762</v>
+        <v>0.01017616636043104</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001096040553500433</v>
+        <v>0.01275545192703342</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02202809154465575</v>
+        <v>0.02188064189171271</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.007030656194577989</v>
+        <v>-0.01186451489443141</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008589486046785283</v>
+        <v>0.008601519413806666</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001061249241965045</v>
+        <v>-0.04755414205664099</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0161902721200661</v>
+        <v>0.01607666488852431</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.007353842382645026</v>
+        <v>0.01370539572786766</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01129898533443607</v>
+        <v>0.01119984660769487</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.009110367158772892</v>
+        <v>0.009138742730545601</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007059865986170967</v>
+        <v>0.007105870000579688</v>
       </c>
       <c r="E21" s="1">
-        <v>0.006174845628859282</v>
+        <v>0.0122739018087854</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01304136440214357</v>
+        <v>0.01309615960020239</v>
       </c>
       <c r="E22" s="1">
-        <v>0.003861003861004075</v>
+        <v>0.01286472148541118</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01920077176342378</v>
+        <v>0.0192608827011313</v>
       </c>
       <c r="E23" s="1">
-        <v>0.002790373212417041</v>
+        <v>0.003347826086956607</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009433049775433551</v>
+        <v>0.009566672631026962</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01382137069869427</v>
+        <v>0.01062429484768712</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02066943522130635</v>
+        <v>0.02064903095583635</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001326053042121522</v>
+        <v>0.006560962274466897</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01264006159992743</v>
+        <v>0.01292051647824344</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02184103435841966</v>
+        <v>0.02696980390179959</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02199423365544768</v>
+        <v>0.02176867444154993</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01059111772732924</v>
+        <v>0.004576443852362777</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0583354068034907</v>
+        <v>0.05800348141230221</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.006027234169208917</v>
+        <v>-0.0007486150621351939</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02083875567273974</v>
+        <v>0.0207755758856602</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.003370029206919756</v>
+        <v>0.01780883678990075</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03125095576061906</v>
+        <v>0.03076158367629956</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01599333280419069</v>
+        <v>0.009235733010687586</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01583250088968891</v>
+        <v>0.01567262057459896</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0104340265198174</v>
+        <v>0.04473896170462033</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01368485032945515</v>
+        <v>0.01324751726136425</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.03228583727938006</v>
+        <v>0.01983985765124552</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01997094572672818</v>
+        <v>0.01921175349308204</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.03834115805946792</v>
+        <v>0.02359641985353944</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04261964121862633</v>
+        <v>0.0439006693017167</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02970781063125805</v>
+        <v>0.01429395008138923</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0107489496617702</v>
+        <v>0.01079353813203493</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003807545863620643</v>
+        <v>0.009310344827586192</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009674674803454133</v>
+        <v>0.009720511565322632</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00439698492462326</v>
+        <v>-0.009291521486643362</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01077592435372168</v>
+        <v>0.01080284290628669</v>
       </c>
       <c r="E37" s="1">
-        <v>0.002157962883038378</v>
+        <v>-0.001291989664082727</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007133410778480067</v>
+        <v>0.007195381928881564</v>
       </c>
       <c r="E38" s="1">
-        <v>0.008345286217238401</v>
+        <v>-0.000387947756368856</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01149940419509628</v>
+        <v>0.0115465735122294</v>
       </c>
       <c r="E39" s="1">
-        <v>0.003761283851554609</v>
+        <v>0.02697976517611789</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01688311863310959</v>
+        <v>0.01680336775758631</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.005061319836480394</v>
+        <v>0.006847974955977332</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01703566516690418</v>
+        <v>0.0170343742863432</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0004149664568779965</v>
+        <v>0.003390299591780277</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03451551359460945</v>
+        <v>0.03442208186693968</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.003045247527420636</v>
+        <v>-0.01408336486997885</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0112152267455492</v>
+        <v>0.01120617385418606</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.001146139631533427</v>
+        <v>0.007231804795961194</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02209819473833656</v>
+        <v>0.02244606200707764</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01539732938976113</v>
+        <v>0.01460698222317425</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01301342854300762</v>
+        <v>0.01281825700921666</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01533183231478508</v>
+        <v>0.01543989547038338</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008022924499625</v>
+        <v>0.008022297216634963</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0004173767868944633</v>
+        <v>0.0301680643028639</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01285520802228529</v>
+        <v>0.01296899435209508</v>
       </c>
       <c r="E47" s="1">
-        <v>0.008509160371624747</v>
+        <v>-0.02079207920792092</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009692471899063502</v>
+        <v>0.009660588819141334</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.00362756952841603</v>
+        <v>0.0107489597780861</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01526414102973185</v>
+        <v>0.01519060225244392</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.005155330221447429</v>
+        <v>0.01352477091194193</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008579471304830883</v>
+        <v>0.008468492157920754</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.0132702586471708</v>
+        <v>0.01220347425440504</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01185038524439603</v>
+        <v>0.01176365389552283</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.007655597534301006</v>
+        <v>0.01663160004007613</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008806492792726005</v>
+        <v>0.008785598864420537</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.002710971689710018</v>
+        <v>-0.02364956700710641</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009740654279859599</v>
+        <v>0.009522940192043717</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.02268270944741524</v>
+        <v>0.02056449774292091</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1347068987859621</v>
+        <v>0.1347658839707677</v>
       </c>
       <c r="E54" s="1">
-        <v>9.851246182646101E-05</v>
+        <v>-0.0001970055161544249</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04402269726482001</v>
+        <v>0.04395854499756262</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.001795977011494143</v>
+        <v>0.004797888928871119</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.0003392169830694902</v>
+        <v>0.005952818653392589</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01535762295026291</v>
+        <v>0.01542824277730473</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01057854844866157</v>
+        <v>0.003723088544757891</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05363426958282014</v>
+        <v>0.05351436520169796</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00370391788347546</v>
+        <v>-0.0011206144078173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01506753110500739</v>
+        <v>0.01431824645797495</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.04407163441745576</v>
+        <v>0.01257563685695229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00945489127634922</v>
+        <v>0.009460605833814324</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006560818790185108</v>
+        <v>0.009125277017338007</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01495655616409813</v>
+        <v>0.01508924081816385</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01487696538109007</v>
+        <v>0.001528414617201435</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0191548082746613</v>
+        <v>0.01920231042720004</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008447488584474749</v>
+        <v>0.006867406233491913</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004104273890620455</v>
+        <v>0.004094446854755055</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003544223444773564</v>
+        <v>-0.037320120183438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006488405181233275</v>
+        <v>0.006542136580113606</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01428325589399426</v>
+        <v>-0.02884289107567028</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01420699456629098</v>
+        <v>0.01424918193878663</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008939974457215838</v>
+        <v>-0.006075949367088551</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008041806226649474</v>
+        <v>0.008178595696381135</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0230638691761802</v>
+        <v>0.005202442886224734</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01481320060879277</v>
+        <v>0.01506223165798127</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02286432160804019</v>
+        <v>-0.004175878162613555</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003017848448985629</v>
+        <v>0.002936321198615915</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02122302158273381</v>
+        <v>0.02756339581036382</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.00623668002180915</v>
+        <v>0.00625064731028933</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00820568927789922</v>
+        <v>-0.01465002712967989</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01369250258199732</v>
+        <v>0.01387614103804579</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0194442619720161</v>
+        <v>-0.008892325536439261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01017616636043104</v>
+        <v>0.01024498144459596</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01275545192703342</v>
+        <v>-0.03521126760563398</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02188064189171271</v>
+        <v>0.02149309419802763</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01186451489443141</v>
+        <v>-0.001742947517913707</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008601519413806666</v>
+        <v>0.008144001772037701</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.04755414205664099</v>
+        <v>-0.007473366194943654</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01607666488852431</v>
+        <v>0.01620056292960305</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01370539572786766</v>
+        <v>-0.008952496954933054</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01119984660769487</v>
+        <v>0.01123531731795705</v>
       </c>
       <c r="E20" s="1">
-        <v>0.009138742730545601</v>
+        <v>0.00312843029637766</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007105870000579688</v>
+        <v>0.007150520996463574</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0122739018087854</v>
+        <v>0.002233567326100916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01309615960020239</v>
+        <v>0.01318614332602998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01286472148541118</v>
+        <v>0.00039282440749</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0192608827011313</v>
+        <v>0.01921100515684785</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003347826086956607</v>
+        <v>-0.001343328855570425</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009566672631026962</v>
+        <v>0.00961109865442066</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01062429484768712</v>
+        <v>-0.03488696622941667</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02064903095583635</v>
+        <v>0.02066151422167576</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006560962274466897</v>
+        <v>-0.006130208737487264</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01292051647824344</v>
+        <v>0.01319045985847925</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02696980390179959</v>
+        <v>0.0006872177498529197</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02176867444154993</v>
+        <v>0.02173888988863892</v>
       </c>
       <c r="E27" s="1">
-        <v>0.004576443852362777</v>
+        <v>-0.03201397881336088</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05800348141230221</v>
+        <v>0.0576170751328559</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0007486150621351939</v>
+        <v>-0.01513335331135723</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0207755758856602</v>
+        <v>0.02102043389483256</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01780883678990075</v>
+        <v>-0.02081949058693244</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03076158367629956</v>
+        <v>0.03086197371729497</v>
       </c>
       <c r="E30" s="1">
-        <v>0.009235733010687586</v>
+        <v>-0.02893222506393867</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01567262057459896</v>
+        <v>0.01627690388920585</v>
       </c>
       <c r="E31" s="1">
-        <v>0.04473896170462033</v>
+        <v>-0.0271937202130641</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01324751726136425</v>
+        <v>0.01343039739790939</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01983985765124552</v>
+        <v>-0.001221320771176759</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01921175349308204</v>
+        <v>0.01954871215625396</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02359641985353944</v>
+        <v>-0.02259822848058157</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0439006693017167</v>
+        <v>0.04426468364277975</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01429395008138923</v>
+        <v>-0.01640783028803572</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01079353813203493</v>
+        <v>0.01082956326772567</v>
       </c>
       <c r="E35" s="1">
-        <v>0.009310344827586192</v>
+        <v>-0.004783054321831237</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009720511565322632</v>
+        <v>0.009573205665990996</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.009291521486643362</v>
+        <v>0.005500946884299696</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01080284290628669</v>
+        <v>0.01072504151770406</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.001291989664082727</v>
+        <v>0.01164294954721856</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007195381928881564</v>
+        <v>0.007150027678469372</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.000387947756368856</v>
+        <v>0.001940491591203131</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0115465735122294</v>
+        <v>0.01178792596858752</v>
       </c>
       <c r="E39" s="1">
-        <v>0.02697976517611789</v>
+        <v>-0.01410848941863296</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01680336775758631</v>
+        <v>0.01681832038784286</v>
       </c>
       <c r="E40" s="1">
-        <v>0.006847974955977332</v>
+        <v>-0.01068791294209093</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0170343742863432</v>
+        <v>0.01699098168581366</v>
       </c>
       <c r="E41" s="1">
-        <v>0.003390299591780277</v>
+        <v>-0.01441180526823893</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03442208186693968</v>
+        <v>0.03373647600476241</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01408336486997885</v>
+        <v>-0.008609108107367369</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01120617385418606</v>
+        <v>0.01122042158112211</v>
       </c>
       <c r="E43" s="1">
-        <v>0.007231804795961194</v>
+        <v>-0.007910817437212558</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02244606200707764</v>
+        <v>0.02263916439568345</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01460698222317425</v>
+        <v>-0.01393228067212715</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01281825700921666</v>
+        <v>0.01293914517280783</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01543989547038338</v>
+        <v>-0.02163889425035936</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008022297216634963</v>
+        <v>0.008215409551698482</v>
       </c>
       <c r="E46" s="1">
-        <v>0.0301680643028639</v>
+        <v>-0.01942173883672227</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01296899435209508</v>
+        <v>0.01262419246588431</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02079207920792092</v>
+        <v>0.002813557831802038</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009660588819141334</v>
+        <v>0.009706648183422715</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0107489597780861</v>
+        <v>-0.01037735849056587</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01519060225244392</v>
+        <v>0.0153049441111288</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01352477091194193</v>
+        <v>-0.00969395155441688</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008468492157920754</v>
+        <v>0.008521112546230711</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01220347425440504</v>
+        <v>-0.01070308174940027</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01176365389552283</v>
+        <v>0.01188853200703015</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01663160004007613</v>
+        <v>-0.03133931211195418</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008785598864420537</v>
+        <v>0.008527063194535776</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.02364956700710641</v>
+        <v>-0.01038103571712679</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009522940192043717</v>
+        <v>0.009661262927956105</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02056449774292091</v>
+        <v>-0.005361451166115527</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1347658839707677</v>
+        <v>0.133942001900848</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0001970055161544249</v>
+        <v>9.852216748762466E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04395854499756262</v>
+        <v>0.04390807639772077</v>
       </c>
       <c r="E55" s="1">
-        <v>0.004797888928871119</v>
+        <v>-0.007043094186462873</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.005952818653392589</v>
+        <v>-0.008414891315719264</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01542824277730473</v>
+        <v>0.0156170996877942</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003723088544757891</v>
+        <v>-0.002741640683797564</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05351436520169796</v>
+        <v>0.05390802641636638</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0011206144078173</v>
+        <v>-0.02334012032000743</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01431824645797495</v>
+        <v>0.01462134455114637</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01257563685695229</v>
+        <v>-0.006060863832592522</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009460605833814324</v>
+        <v>0.009627954674982371</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009125277017338007</v>
+        <v>0.004392197390518104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01508924081816385</v>
+        <v>0.0152405510147738</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001528414617201435</v>
+        <v>0.01130688124306323</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01920231042720004</v>
+        <v>0.01949825620029678</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006867406233491913</v>
+        <v>0.01184230250337293</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004094446854755055</v>
+        <v>0.003975091569578934</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.037320120183438</v>
+        <v>0.04845863220719493</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006542136580113606</v>
+        <v>0.006407359682681719</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02884289107567028</v>
+        <v>0.02760307477288615</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01424918193878663</v>
+        <v>0.0142827927797305</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006075949367088551</v>
+        <v>0.006622516556291425</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008178595696381135</v>
+        <v>0.008290911492498707</v>
       </c>
       <c r="E11" s="1">
-        <v>0.005202442886224734</v>
+        <v>0.01065106510651082</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01506223165798127</v>
+        <v>0.01512662249801519</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.004175878162613555</v>
+        <v>-0.001726689689195982</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002936321198615915</v>
+        <v>0.003042861531112825</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02756339581036382</v>
+        <v>-0.001072961373390635</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.00625064731028933</v>
+        <v>0.006211342933324114</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01465002712967989</v>
+        <v>-0.004955947136563776</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01387614103804579</v>
+        <v>0.01386945987217805</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.008892325536439261</v>
+        <v>-0.002925687536570964</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01024498144459596</v>
+        <v>0.009968123335828217</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.03521126760563398</v>
+        <v>0.006597417181358756</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02149309419802763</v>
+        <v>0.02163771185643565</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001742947517913707</v>
+        <v>0.00012933264355941</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008144001772037701</v>
+        <v>0.008151734625410408</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.007473366194943654</v>
+        <v>0.01698173662287727</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01620056292960305</v>
+        <v>0.01619177950404218</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.008952496954933054</v>
+        <v>0.01523996804522842</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01123531731795705</v>
+        <v>0.01136611081221114</v>
       </c>
       <c r="E20" s="1">
-        <v>0.00312843029637766</v>
+        <v>0.01723477594791256</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007150520996463574</v>
+        <v>0.007227309187846702</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002233567326100916</v>
+        <v>0.002865329512893977</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01318614332602998</v>
+        <v>0.01330326872543747</v>
       </c>
       <c r="E22" s="1">
-        <v>0.00039282440749</v>
+        <v>0.01688481675392639</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01921100515684785</v>
+        <v>0.01934800985941862</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001343328855570425</v>
+        <v>0.01345135815325871</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.00961109865442066</v>
+        <v>0.009354513797150714</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.03488696622941667</v>
+        <v>0.03981106612685559</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02066151422167576</v>
+        <v>0.02070911981918699</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.006130208737487264</v>
+        <v>-0.000468457214241047</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01319045985847925</v>
+        <v>0.01331153973675237</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0006872177498529197</v>
+        <v>0.04091042872559592</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02173888988863892</v>
+        <v>0.02122151829835323</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.03201397881336088</v>
+        <v>-0.005173664275928802</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0576170751328559</v>
+        <v>0.05722669197140085</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01513335331135723</v>
+        <v>0.008215426745778132</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02102043389483256</v>
+        <v>0.0207574710319489</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02081949058693244</v>
+        <v>0.01334539696901138</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03086197371729497</v>
+        <v>0.03022339472963075</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02893222506393867</v>
+        <v>-0.01160493827160491</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01627690388920585</v>
+        <v>0.01596864876270491</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0271937202130641</v>
+        <v>-0.00987031700288199</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01343039739790939</v>
+        <v>0.01352782979203973</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001221320771176759</v>
+        <v>0.0107432963577605</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01954871215625396</v>
+        <v>0.01926909321762458</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02259822848058157</v>
+        <v>-0.01219937260369464</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04426468364277975</v>
+        <v>0.04390787623221357</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01640783028803572</v>
+        <v>-0.004427448480985752</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01082956326772567</v>
+        <v>0.01086922825276721</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.004783054321831237</v>
+        <v>0.000343288705801692</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009573205665990996</v>
+        <v>0.0097075553853814</v>
       </c>
       <c r="E36" s="1">
-        <v>0.005500946884299696</v>
+        <v>0.0285201793721972</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01072504151770406</v>
+        <v>0.01094198827711632</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01164294954721856</v>
+        <v>-0.007459505541347</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007150027678469372</v>
+        <v>0.007224697289536734</v>
       </c>
       <c r="E38" s="1">
-        <v>0.001940491591203131</v>
+        <v>0.01355713363460298</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01178792596858752</v>
+        <v>0.01172024069140431</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01410848941863296</v>
+        <v>0.0007401924500372026</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01681832038784286</v>
+        <v>0.01677976756406</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01068791294209093</v>
+        <v>0.005107051659791972</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01699098168581366</v>
+        <v>0.01688822353197867</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01441180526823893</v>
+        <v>0.01000489750227396</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03373647600476241</v>
+        <v>0.03372986821076291</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.008609108107367369</v>
+        <v>-0.01534887579855626</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01122042158112211</v>
+        <v>0.01122612550040785</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.007910817437212558</v>
+        <v>0.007037153983791233</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02263916439568345</v>
+        <v>0.02251319529471495</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01393228067212715</v>
+        <v>-0.004067477307758027</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01293914517280783</v>
+        <v>0.01276658581079403</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.02163889425035936</v>
+        <v>-0.01328364752301636</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008215409551698482</v>
+        <v>0.008124216411073245</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01942173883672227</v>
+        <v>0.04905101443284776</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01262419246588431</v>
+        <v>0.01276714550328902</v>
       </c>
       <c r="E47" s="1">
-        <v>0.002813557831802038</v>
+        <v>0.0002630309938185249</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009706648183422715</v>
+        <v>0.009687437549589147</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01037735849056587</v>
+        <v>0.02565213623364238</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.0153049441111288</v>
+        <v>0.01528520203826325</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.00969395155441688</v>
+        <v>0.007713902111558868</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008521112546230711</v>
+        <v>0.008501449152698636</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01070308174940027</v>
+        <v>-0.001430081452465481</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01188853200703015</v>
+        <v>0.01161368145916311</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.03133931211195418</v>
+        <v>0.02604537592837497</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008527063194535776</v>
+        <v>0.008510155480398528</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.01038103571712679</v>
+        <v>0.01732245488525397</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009661262927956105</v>
+        <v>0.009691013362751603</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.005361451166115527</v>
+        <v>0.01203845117240143</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.133942001900848</v>
+        <v>0.1350919825076195</v>
       </c>
       <c r="E54" s="1">
-        <v>9.852216748762466E-05</v>
+        <v>-0.000689587232784894</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04390807639772077</v>
+        <v>0.04396882052611283</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.007043094186462873</v>
+        <v>0.001202212070209097</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.008414891315719264</v>
+        <v>0.00255766037592009</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0156170996877942</v>
+        <v>0.01553455110610543</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002741640683797564</v>
+        <v>-0.006792086679963227</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05390802641636638</v>
+        <v>0.05251548980619491</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02334012032000743</v>
+        <v>-0.02203461401037643</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01462134455114637</v>
+        <v>0.01449565161900338</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006060863832592522</v>
+        <v>-0.00449313192691192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009627954674982371</v>
+        <v>0.009645572453913414</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004392197390518104</v>
+        <v>0.004758842443729927</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0152405510147738</v>
+        <v>0.01537355378582162</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01130688124306323</v>
+        <v>-0.01255230125522999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01949825620029678</v>
+        <v>0.01967882868812881</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01184230250337293</v>
+        <v>-0.003407407407407526</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.003975091569578934</v>
+        <v>0.004157086654124561</v>
       </c>
       <c r="E8" s="1">
-        <v>0.04845863220719493</v>
+        <v>0.009452684353457252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006407359682681719</v>
+        <v>0.006567425267720493</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02760307477288615</v>
+        <v>0.006290377422645488</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0142827927797305</v>
+        <v>0.01434070216569228</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006622516556291425</v>
+        <v>0.001265182186234615</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008290911492498707</v>
+        <v>0.008357842009262338</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01065106510651082</v>
+        <v>-0.0001484340210776702</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01512662249801519</v>
+        <v>0.01506198008526852</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001726689689195982</v>
+        <v>0.021003212255992</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003042861531112825</v>
+        <v>0.003031842235473652</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001072961373390635</v>
+        <v>-0.04475474400286428</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006211342933324114</v>
+        <v>0.006164792400850062</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004955947136563776</v>
+        <v>-0.02767017155506368</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01386945987217805</v>
+        <v>0.01379360281493012</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002925687536570964</v>
+        <v>0.01382368283776714</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009968123335828217</v>
+        <v>0.01000828939876395</v>
       </c>
       <c r="E16" s="1">
-        <v>0.006597417181358756</v>
+        <v>0.008645935016036832</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02163771185643565</v>
+        <v>0.02158530244614186</v>
       </c>
       <c r="E17" s="1">
-        <v>0.00012933264355941</v>
+        <v>-0.02838484417431775</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008151734625410408</v>
+        <v>0.008269015901519546</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01698173662287727</v>
+        <v>0.007403906742281086</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01619177950404218</v>
+        <v>0.01639660475998493</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01523996804522842</v>
+        <v>0.01549543005871312</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01136611081221114</v>
+        <v>0.01153250694939924</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01723477594791256</v>
+        <v>0.01226333907056798</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007227309187846702</v>
+        <v>0.007229527135071437</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002865329512893977</v>
+        <v>0.01650793650793658</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01330326872543747</v>
+        <v>0.01349338049546426</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01688481675392639</v>
+        <v>0.04414982623246244</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01934800985941862</v>
+        <v>0.01955824352510369</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01345135815325871</v>
+        <v>0.01036136324713133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009354513797150714</v>
+        <v>0.009702112256432657</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03981106612685559</v>
+        <v>0.01334940205803292</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02070911981918699</v>
+        <v>0.02064661146257227</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.000468457214241047</v>
+        <v>-0.01382596469301689</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01331153973675237</v>
+        <v>0.01382077169425368</v>
       </c>
       <c r="E26" s="1">
-        <v>0.04091042872559592</v>
+        <v>0.009943449575871899</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02122151829835323</v>
+        <v>0.02105786641671662</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.005173664275928802</v>
+        <v>-0.01774026310673327</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05722669197140085</v>
+        <v>0.05754964123017226</v>
       </c>
       <c r="E28" s="1">
-        <v>0.008215426745778132</v>
+        <v>-0.03538554398672089</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0207574710319489</v>
+        <v>0.020980825895895</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01334539696901138</v>
+        <v>0.004017857142857295</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03022339472963075</v>
+        <v>0.02979644491293793</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01160493827160491</v>
+        <v>-0.01240736114580743</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01596864876270491</v>
+        <v>0.01577069705036298</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.00987031700288199</v>
+        <v>-0.02408498872153086</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01352782979203973</v>
+        <v>0.01363828118518993</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0107432963577605</v>
+        <v>-0.01391289319045963</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01926909321762458</v>
+        <v>0.01898546400073432</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01219937260369464</v>
+        <v>-0.007174782404140267</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04390787623221357</v>
+        <v>0.04360195737359893</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.004427448480985752</v>
+        <v>-0.01547108933540464</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01086922825276721</v>
+        <v>0.01084522114367988</v>
       </c>
       <c r="E35" s="1">
-        <v>0.000343288705801692</v>
+        <v>-0.002059025394646641</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0097075553853814</v>
+        <v>0.009958945007207115</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0285201793721972</v>
+        <v>-0.006801534705266787</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01094198827711632</v>
+        <v>0.0108326601891981</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.007459505541347</v>
+        <v>-0.04101352802233216</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007224697289536734</v>
+        <v>0.007303962420889419</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01355713363460298</v>
+        <v>-0.009171974522292903</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01172024069140431</v>
+        <v>0.01169899387201213</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0007401924500372026</v>
+        <v>0.01084812623274156</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01677976756406</v>
+        <v>0.01682243662426863</v>
       </c>
       <c r="E40" s="1">
-        <v>0.005107051659791972</v>
+        <v>-0.008989642368575357</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01688822353197867</v>
+        <v>0.01701367327941599</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01000489750227396</v>
+        <v>0.002147409254640964</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03372986821076291</v>
+        <v>0.03312742395329259</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.01534887579855626</v>
+        <v>-0.02376137512639043</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01122612550040785</v>
+        <v>0.01127628456796849</v>
       </c>
       <c r="E43" s="1">
-        <v>0.007037153983791233</v>
+        <v>-0.0009260168940600222</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02251319529471495</v>
+        <v>0.02236442278573916</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.004067477307758027</v>
+        <v>-0.002493443961996578</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01276658581079403</v>
+        <v>0.01256486233428979</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01328364752301636</v>
+        <v>-0.01244057404363075</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008124216411073245</v>
+        <v>0.008500974860949832</v>
       </c>
       <c r="E46" s="1">
-        <v>0.04905101443284776</v>
+        <v>-0.0008865539320311866</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01276714550328902</v>
+        <v>0.0127379243738166</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0002630309938185249</v>
+        <v>0.0229653328658459</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009687437549589147</v>
+        <v>0.009910593086127852</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02565213623364238</v>
+        <v>0.02365863962822146</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01528520203826325</v>
+        <v>0.01536381516926044</v>
       </c>
       <c r="E49" s="1">
-        <v>0.007713902111558868</v>
+        <v>0.01309319057193381</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008501449152698636</v>
+        <v>0.008467634055843859</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.001430081452465481</v>
+        <v>0.0004981320049812776</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01161368145916311</v>
+        <v>0.01188576441001041</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02604537592837497</v>
+        <v>0.008031730292513695</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008510155480398528</v>
+        <v>0.008635485625363409</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01732245488525397</v>
+        <v>-0.006321112515802696</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009691013362751603</v>
+        <v>0.009782657438628198</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01203845117240143</v>
+        <v>0.02751886373723922</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1350919825076195</v>
+        <v>0.1346544245152058</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.000689587232784894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04396882052611283</v>
+        <v>0.04390937510402719</v>
       </c>
       <c r="E55" s="1">
-        <v>0.001202212070209097</v>
+        <v>-0.006604226705091309</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.00255766037592009</v>
+        <v>-0.005343513155953716</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01553455110610543</v>
+        <v>0.01551192727593158</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006792086679963227</v>
+        <v>-0.01487109905020367</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05251548980619491</v>
+        <v>0.05163423949679835</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02203461401037643</v>
+        <v>-0.0124793545640377</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01449565161900338</v>
+        <v>0.01450804467148187</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00449313192691192</v>
+        <v>0.005351616231086709</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009645572453913414</v>
+        <v>0.009743538942023419</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004758842443729927</v>
+        <v>-0.01574500768049159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01537355378582162</v>
+        <v>0.01526213371965742</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01255230125522999</v>
+        <v>-0.0004862461794945538</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01967882868812881</v>
+        <v>0.01971713366462239</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003407407407407526</v>
+        <v>-0.008027352460234671</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004157086654124561</v>
+        <v>0.004218926169587156</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009452684353457252</v>
+        <v>0.05908220808112175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006567425267720493</v>
+        <v>0.006644240437538781</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006290377422645488</v>
+        <v>0.03007264740665638</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01434070216569228</v>
+        <v>0.01443598464045584</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001265182186234615</v>
+        <v>0.003538033864038503</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008357842009262338</v>
+        <v>0.008401494919798995</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0001484340210776702</v>
+        <v>0.006309382422802656</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01506198008526852</v>
+        <v>0.01546094581737356</v>
       </c>
       <c r="E12" s="1">
-        <v>0.021003212255992</v>
+        <v>0.005566311713456118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003031842235473652</v>
+        <v>0.002911711682047321</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.04475474400286428</v>
+        <v>-0.005997001499250421</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006164792400850062</v>
+        <v>0.00602641375872013</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02767017155506368</v>
+        <v>-0.002276607854297064</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01379360281493012</v>
+        <v>0.01405940783617135</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01382368283776714</v>
+        <v>0.01312065860560852</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01000828939876395</v>
+        <v>0.01014905201147111</v>
       </c>
       <c r="E16" s="1">
-        <v>0.008645935016036832</v>
+        <v>0.01907922024056408</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02158530244614186</v>
+        <v>0.02108527645187009</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02838484417431775</v>
+        <v>-0.008917282225327727</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008269015901519546</v>
+        <v>0.008374990797612872</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007403906742281086</v>
+        <v>0.01141516810007825</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01639660475998493</v>
+        <v>0.01674012829803655</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01549543005871312</v>
+        <v>-0.004172378851999836</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01153250694939924</v>
+        <v>0.01173664893041992</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01226333907056798</v>
+        <v>0.02449521785334752</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007229527135071437</v>
+        <v>0.007388351463244256</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01650793650793658</v>
+        <v>0.0003123048094941794</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01349338049546426</v>
+        <v>0.01416480069851147</v>
       </c>
       <c r="E22" s="1">
-        <v>0.04414982623246244</v>
+        <v>0.02366863905325456</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01955824352510369</v>
+        <v>0.01986705345223519</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01036136324713133</v>
+        <v>-0.001356047122637594</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009702112256432657</v>
+        <v>0.009884447328092941</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01334940205803292</v>
+        <v>0.02497484219193113</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02064661146257227</v>
+        <v>0.02047053672375312</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01382596469301689</v>
+        <v>-0.01980198019801982</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01382077169425368</v>
+        <v>0.0140331843458672</v>
       </c>
       <c r="E26" s="1">
-        <v>0.009943449575871899</v>
+        <v>0.0009798889459193827</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02105786641671662</v>
+        <v>0.02079541489911456</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01774026310673327</v>
+        <v>0.007768559600191294</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05754964123017226</v>
+        <v>0.05581144505993253</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.03538554398672089</v>
+        <v>0.001955416503715224</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.020980825895895</v>
+        <v>0.02117829033008328</v>
       </c>
       <c r="E29" s="1">
-        <v>0.004017857142857295</v>
+        <v>0.009559804357492263</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02979644491293793</v>
+        <v>0.02958483662375774</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01240736114580743</v>
+        <v>0.004426644182124795</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01577069705036298</v>
+        <v>0.01547354307074203</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02408498872153086</v>
+        <v>0.003951685058156906</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01363828118518993</v>
+        <v>0.01352078171070888</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01391289319045963</v>
+        <v>-0.00552098851984939</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01898546400073432</v>
+        <v>0.01895050972571882</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.007174782404140267</v>
+        <v>0.00876673379931292</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04360195737359893</v>
+        <v>0.04315800295243449</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01547108933540464</v>
+        <v>0.003441952809699833</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01084522114367988</v>
+        <v>0.01088103350361141</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002059025394646641</v>
+        <v>-0.005502063273727598</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009958945007207115</v>
+        <v>0.009944346644233579</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.006801534705266787</v>
+        <v>0.01650570676031604</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0108326601891981</v>
+        <v>0.01044418320734365</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.04101352802233216</v>
+        <v>0.01209135691894336</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007303962420889419</v>
+        <v>0.007275849259894216</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.009171974522292903</v>
+        <v>0.00115710979686301</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01169899387201213</v>
+        <v>0.01188943739949286</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01084812623274156</v>
+        <v>0.009512195121951228</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01682243662426863</v>
+        <v>0.01676077033202151</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.008989642368575357</v>
+        <v>0.008282390061131961</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01701367327941599</v>
+        <v>0.01714180606509731</v>
       </c>
       <c r="E41" s="1">
-        <v>0.002147409254640964</v>
+        <v>0.005598949332964898</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03312742395329259</v>
+        <v>0.03251400984512769</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02376137512639043</v>
+        <v>-0.007767995857068888</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01127628456796849</v>
+        <v>0.01132636511897872</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0009260168940600222</v>
+        <v>0.001481326498587787</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02236442278573916</v>
+        <v>0.02242850536426284</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.002493443961996578</v>
+        <v>-0.01215360082747918</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01256486233428979</v>
+        <v>0.01247520968112641</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01244057404363075</v>
+        <v>-0.001597156611328643</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008500974860949832</v>
+        <v>0.008539066904605085</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0008865539320311866</v>
+        <v>0.007394505061127932</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0127379243738166</v>
+        <v>0.01310045751415718</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0229653328658459</v>
+        <v>0.0191508504348572</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009910593086127852</v>
+        <v>0.01019956575022584</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02365863962822146</v>
+        <v>0.01560049525381757</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01536381516926044</v>
+        <v>0.01564859500245132</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01309319057193381</v>
+        <v>0.01743122556579735</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008467634055843859</v>
+        <v>0.008517364705732684</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0004981320049812776</v>
+        <v>-0.003983071944237082</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01188576441001041</v>
+        <v>0.01204559345114946</v>
       </c>
       <c r="E51" s="1">
-        <v>0.008031730292513695</v>
+        <v>0.0004918355301986033</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008635485625363409</v>
+        <v>0.008626998227622579</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.006321112515802696</v>
+        <v>-0.006957697201017798</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009782657438628198</v>
+        <v>0.01010586588296784</v>
       </c>
       <c r="E53" s="1">
-        <v>0.02751886373723922</v>
+        <v>-0.006285097192224698</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1346544245152058</v>
+        <v>0.1353778176649226</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>9.85804416404612E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04390937510402719</v>
+        <v>0.04385372056916013</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.006604226705091309</v>
+        <v>-0.002054877311736925</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.005343513155953716</v>
+        <v>0.00164219790515796</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01551192727593158</v>
+        <v>0.01525619417883049</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01487109905020367</v>
+        <v>0.001542614731970815</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05163423949679835</v>
+        <v>0.05090627932919957</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0124793545640377</v>
+        <v>0.01095537739945063</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01450804467148187</v>
+        <v>0.01456177284596408</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005351616231086709</v>
+        <v>0.005066592556170813</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009743538942023419</v>
+        <v>0.009574403780714266</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01574500768049159</v>
+        <v>0.01261542463259202</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01526213371965742</v>
+        <v>0.01522970238010053</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0004862461794945538</v>
+        <v>0.0115713392174579</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01971713366462239</v>
+        <v>0.01952679042885419</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008027352460234671</v>
+        <v>0.01258804136070713</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004218926169587156</v>
+        <v>0.004460864021865693</v>
       </c>
       <c r="E8" s="1">
-        <v>0.05908220808112175</v>
+        <v>0.0115773533290997</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006644240437538781</v>
+        <v>0.006832829479244817</v>
       </c>
       <c r="E9" s="1">
-        <v>0.03007264740665638</v>
+        <v>0.009512875184516822</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01443598464045584</v>
+        <v>0.01446330802882791</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003538033864038503</v>
+        <v>0.008562075044069362</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008401494919798995</v>
+        <v>0.008440641959626955</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006309382422802656</v>
+        <v>0.004130707383639631</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01546094581737356</v>
+        <v>0.01552151685870768</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005566311713456118</v>
+        <v>0.00890493381468116</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002911711682047321</v>
+        <v>0.002889505003660743</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005997001499250421</v>
+        <v>-0.02149321266968318</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.00602641375872013</v>
+        <v>0.006002836132901327</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002276607854297064</v>
+        <v>-0.0233884768967485</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01405940783617135</v>
+        <v>0.01422052361250007</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01312065860560852</v>
+        <v>0.02012442864398167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01014905201147111</v>
+        <v>0.01032573111602295</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01907922024056408</v>
+        <v>0.01451634784968125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02108527645187009</v>
+        <v>0.02086299192930808</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.008917282225327727</v>
+        <v>-0.003558718861210064</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008374990797612872</v>
+        <v>0.008456705141935607</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01141516810007825</v>
+        <v>-0.003401360544217913</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01674012829803655</v>
+        <v>0.01664295112127905</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004172378851999836</v>
+        <v>0.004010295085892235</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01173664893041992</v>
+        <v>0.01200442705787175</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02449521785334752</v>
+        <v>0.005601369223587893</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007388351463244256</v>
+        <v>0.00737854185496312</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0003123048094941794</v>
+        <v>0.01186387761473595</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01416480069851147</v>
+        <v>0.01447628932150758</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02366863905325456</v>
+        <v>0.007947976878612595</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01986705345223519</v>
+        <v>0.01980758481727284</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001356047122637594</v>
+        <v>0.005940762114911236</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009884447328092941</v>
+        <v>0.01011469950193314</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02497484219193113</v>
+        <v>0.01865405212424132</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02047053672375312</v>
+        <v>0.02003228258840431</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01980198019801982</v>
+        <v>0.01268686868686864</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0140331843458672</v>
+        <v>0.01402390528021047</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0009798889459193827</v>
+        <v>0.00121200820436318</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02079541489911456</v>
+        <v>0.02092260625900006</v>
       </c>
       <c r="E27" s="1">
-        <v>0.007768559600191294</v>
+        <v>0.01054009819967261</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05581144505993253</v>
+        <v>0.05582889758204242</v>
       </c>
       <c r="E28" s="1">
-        <v>0.001955416503715224</v>
+        <v>0.01280249804839984</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02117829033008328</v>
+        <v>0.02134569678372268</v>
       </c>
       <c r="E29" s="1">
-        <v>0.009559804357492263</v>
+        <v>0.005725611098877037</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02958483662375774</v>
+        <v>0.02966707895376738</v>
       </c>
       <c r="E30" s="1">
-        <v>0.004426644182124795</v>
+        <v>0.008226652675760615</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01547354307074203</v>
+        <v>0.01550922043039001</v>
       </c>
       <c r="E31" s="1">
-        <v>0.003951685058156906</v>
+        <v>0.01002599331600451</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01352078171070888</v>
+        <v>0.01342408861989442</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.00552098851984939</v>
+        <v>0.01110327811068035</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01895050972571882</v>
+        <v>0.01908530195695247</v>
       </c>
       <c r="E33" s="1">
-        <v>0.00876673379931292</v>
+        <v>-0.004110393423370606</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04315800295243449</v>
+        <v>0.04323554943325002</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003441952809699833</v>
+        <v>0.009754748851937833</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01088103350361141</v>
+        <v>0.01080342400851567</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.005502063273727598</v>
+        <v>-0.002766251728907321</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009944346644233579</v>
+        <v>0.01009191219679761</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01650570676031604</v>
+        <v>0.002591121091725546</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01044418320734365</v>
+        <v>0.01055313721440414</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01209135691894336</v>
+        <v>-0.005973451327433654</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007275849259894216</v>
+        <v>0.007272325618457082</v>
       </c>
       <c r="E38" s="1">
-        <v>0.00115710979686301</v>
+        <v>0.006677796327211771</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01188943739949286</v>
+        <v>0.01198285383046885</v>
       </c>
       <c r="E39" s="1">
-        <v>0.009512195121951228</v>
+        <v>0.01497946363856006</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01676077033202151</v>
+        <v>0.0168718825993756</v>
       </c>
       <c r="E40" s="1">
-        <v>0.008282390061131961</v>
+        <v>0.02562096616467802</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01714180606509731</v>
+        <v>0.01720952072983998</v>
       </c>
       <c r="E41" s="1">
-        <v>0.005598949332964898</v>
+        <v>0.006598845202089754</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03251400984512769</v>
+        <v>0.0322085483407407</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.007767995857068888</v>
+        <v>-0.004900255161215394</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01132636511897872</v>
+        <v>0.0113245460180145</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001481326498587787</v>
+        <v>0.00760877286078987</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02242850536426284</v>
+        <v>0.02211959351277898</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01215360082747918</v>
+        <v>0.00920553204484964</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01247520968112641</v>
+        <v>0.01243486430938669</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.001597156611328643</v>
+        <v>0.01070229592411498</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008539066904605085</v>
+        <v>0.008588105708844159</v>
       </c>
       <c r="E46" s="1">
-        <v>0.007394505061127932</v>
+        <v>0.01445209278047832</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01310045751415718</v>
+        <v>0.01332945281714579</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0191508504348572</v>
+        <v>-0.003405078190684363</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01019956575022584</v>
+        <v>0.01034170090773679</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01560049525381757</v>
+        <v>0.008127438231469331</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01564859500245132</v>
+        <v>0.01589526601916826</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01743122556579735</v>
+        <v>0.01890694586432606</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008517364705732684</v>
+        <v>0.008469530783623908</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.003983071944237082</v>
+        <v>0.01430892276930784</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01204559345114946</v>
+        <v>0.01203175937195507</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0004918355301986033</v>
+        <v>-0.002064693737095502</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008626998227622579</v>
+        <v>0.008552928584796147</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.006957697201017798</v>
+        <v>-0.03587300316290998</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01010586588296784</v>
+        <v>0.01002588504626147</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.006285097192224698</v>
+        <v>0.01201938751113918</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1353778176649226</v>
+        <v>0.1351691887114325</v>
       </c>
       <c r="E54" s="1">
-        <v>9.85804416404612E-05</v>
+        <v>9.85707244947065E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04385372056916013</v>
+        <v>0.04369185587952949</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.002054877311736925</v>
+        <v>0.006177325581395277</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.00164219790515796</v>
+        <v>0.006234162145849265</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01525619417883049</v>
+        <v>0.01518506246710975</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001542614731970815</v>
+        <v>0.01677760052808197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05090627932919957</v>
+        <v>0.05114512979911463</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01095537739945063</v>
+        <v>-0.004464110187305081</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01456177284596408</v>
+        <v>0.01454487629863309</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005066592556170813</v>
+        <v>-0.003594673926915259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009574403780714266</v>
+        <v>0.009635122036938552</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01261542463259202</v>
+        <v>0.002954020035962124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01522970238010053</v>
+        <v>0.01531048240269204</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0115713392174579</v>
+        <v>3.435127614981326E-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01952679042885419</v>
+        <v>0.01965009261089717</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01258804136070713</v>
+        <v>7.399733609614323E-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004460864021865693</v>
+        <v>0.004484551598980429</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0115773533290997</v>
+        <v>0.04930461657330487</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006832829479244817</v>
+        <v>0.006855093568407539</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009512875184516822</v>
+        <v>0.01429731925264033</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01446330802882791</v>
+        <v>0.01449676875057427</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008562075044069362</v>
+        <v>0.006991260923845166</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008440641959626955</v>
+        <v>0.008422997449835892</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004130707383639631</v>
+        <v>-0.004627929185337498</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01552151685870768</v>
+        <v>0.01556271445370399</v>
       </c>
       <c r="E12" s="1">
-        <v>0.00890493381468116</v>
+        <v>0.0102576335877862</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002889505003660743</v>
+        <v>0.002809882991924429</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02149321266968318</v>
+        <v>0.03121387283236987</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006002836132901327</v>
+        <v>0.005826117974557758</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0233884768967485</v>
+        <v>0.02686915887850461</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01422052361250007</v>
+        <v>0.01441682669000579</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02012442864398167</v>
+        <v>0.003422739436181432</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01032573111602295</v>
+        <v>0.01041072089856856</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01451634784968125</v>
+        <v>0.00401176785236701</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02086299192930808</v>
+        <v>0.0206599489348432</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003558718861210064</v>
+        <v>0.008827493261455599</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008456705141935607</v>
+        <v>0.008375725209685487</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.003401360544217913</v>
+        <v>-0.000310269934843177</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01664295112127905</v>
+        <v>0.01660616871796633</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004010295085892235</v>
+        <v>0.004530821509478811</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01200442705787175</v>
+        <v>0.01199687780466232</v>
       </c>
       <c r="E20" s="1">
-        <v>0.005601369223587893</v>
+        <v>0.007891072257465659</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.00737854185496312</v>
+        <v>0.007419823589157206</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01186387761473595</v>
+        <v>-0.007713668620796033</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01447628932150758</v>
+        <v>0.01450094529011636</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007947976878612595</v>
+        <v>0.01684587813620064</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01980758481727284</v>
+        <v>0.01980180927692963</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005940762114911236</v>
+        <v>0.005146376444781886</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01011469950193314</v>
+        <v>0.01023954465200299</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01865405212424132</v>
+        <v>-0.0006133356698501125</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02003228258840431</v>
+        <v>0.02016074417890934</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01268686868686864</v>
+        <v>0.01228854133418467</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01402390528021047</v>
+        <v>0.01395391142209315</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00121200820436318</v>
+        <v>0.01266412142657591</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02092260625900006</v>
+        <v>0.02101213949889569</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01054009819967261</v>
+        <v>0.02121663643430938</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05582889758204242</v>
+        <v>0.05619332861229678</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01280249804839984</v>
+        <v>0.003622629875134953</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02134569678372268</v>
+        <v>0.02133490866217394</v>
       </c>
       <c r="E29" s="1">
-        <v>0.005725611098877037</v>
+        <v>0.007225749945259485</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02966707895376738</v>
+        <v>0.02972582410086064</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008226652675760615</v>
+        <v>0.01411265142999873</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01550922043039001</v>
+        <v>0.0155676644264946</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01002599331600451</v>
+        <v>0.01360294117647065</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01342408861989442</v>
+        <v>0.01348904710239421</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01110327811068035</v>
+        <v>-0.003486142583231655</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01908530195695247</v>
+        <v>0.01888909616899949</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.004110393423370606</v>
+        <v>0.0139150943396229</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04323554943325002</v>
+        <v>0.04338682088306895</v>
       </c>
       <c r="E34" s="1">
-        <v>0.009754748851937833</v>
+        <v>0.00623783344385731</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01080342400851567</v>
+        <v>0.01070679114610742</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002766251728907321</v>
+        <v>0.01421636615811361</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01009191219679761</v>
+        <v>0.01005537472686205</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002591121091725546</v>
+        <v>-0.002842866988283843</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01055313721440414</v>
+        <v>0.01042510675699129</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.005973451327433654</v>
+        <v>0.02626307589583798</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007272325618457082</v>
+        <v>0.007275531882310683</v>
       </c>
       <c r="E38" s="1">
-        <v>0.006677796327211771</v>
+        <v>0.005485393545095141</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01198285383046885</v>
+        <v>0.01208699824678151</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01497946363856006</v>
+        <v>0.004046655558200385</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0168718825993756</v>
+        <v>0.01719694797052662</v>
       </c>
       <c r="E40" s="1">
-        <v>0.02562096616467802</v>
+        <v>0.0188787185354693</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01720952072983998</v>
+        <v>0.01721575786713097</v>
       </c>
       <c r="E41" s="1">
-        <v>0.006598845202089754</v>
+        <v>0.007375034143676684</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0322085483407407</v>
+        <v>0.03185214678773062</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.004900255161215394</v>
+        <v>0.0096448031702554</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0113245460180145</v>
+        <v>0.01134001641534726</v>
       </c>
       <c r="E43" s="1">
-        <v>0.00760877286078987</v>
+        <v>0.0115985900891562</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02211959351277898</v>
+        <v>0.02218491180231293</v>
       </c>
       <c r="E44" s="1">
-        <v>0.00920553204484964</v>
+        <v>0.003458412588621895</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01243486430938669</v>
+        <v>0.01249008071858755</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01070229592411498</v>
+        <v>0.008917027063177096</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008588105708844159</v>
+        <v>0.008658244906710027</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01445209278047832</v>
+        <v>0.01199511191149982</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01332945281714579</v>
+        <v>0.0132017630565587</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.003405078190684363</v>
+        <v>0.01653520057367008</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01034170090773679</v>
+        <v>0.0103611592960025</v>
       </c>
       <c r="E48" s="1">
-        <v>0.008127438231469331</v>
+        <v>0.007497581425346622</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01589526601916826</v>
+        <v>0.01609545527529428</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01890694586432606</v>
+        <v>0.007761503863452868</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008469530783623908</v>
+        <v>0.008537496507948883</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01430892276930784</v>
+        <v>0.006653114026981877</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01203175937195507</v>
+        <v>0.01193252815838428</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.002064693737095502</v>
+        <v>0.02334975369458148</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008552928584796147</v>
+        <v>0.008195020265497977</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.03587300316290998</v>
+        <v>-0.005896765084506428</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01002588504626147</v>
+        <v>0.01008352769710869</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01201938751113918</v>
+        <v>-0.00115974399725105</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1351691887114325</v>
+        <v>0.1343449840224159</v>
       </c>
       <c r="E54" s="1">
-        <v>9.85707244947065E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04369185587952949</v>
+        <v>0.0436893879698955</v>
       </c>
       <c r="E55" s="1">
-        <v>0.006177325581395277</v>
+        <v>0.008426628144938109</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.006234162145849265</v>
+        <v>0.006592201750990956</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01518506246710975</v>
+        <v>0.01533871547218321</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01677760052808197</v>
+        <v>-0.002921445574550985</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05114512979911463</v>
+        <v>0.05058335661211796</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004464110187305081</v>
+        <v>-0.03072052885973731</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01454487629863309</v>
+        <v>0.01439767980103758</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003594673926915259</v>
+        <v>-0.01063080371437708</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009635122036938552</v>
+        <v>0.009600297283919521</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002954020035962124</v>
+        <v>0.02253809706748622</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01531048240269204</v>
+        <v>0.01521073609617398</v>
       </c>
       <c r="E6" s="1">
-        <v>3.435127614981326E-05</v>
+        <v>0.007969222313822355</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01965009261089717</v>
+        <v>0.01952284811189684</v>
       </c>
       <c r="E7" s="1">
-        <v>7.399733609614323E-05</v>
+        <v>0.01864594894561589</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004484551598980429</v>
+        <v>0.004674843186630845</v>
       </c>
       <c r="E8" s="1">
-        <v>0.04930461657330487</v>
+        <v>-0.02324083022688572</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006855093568407539</v>
+        <v>0.006907566954688002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01429731925264033</v>
+        <v>0.002402691013935643</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01449676875057427</v>
+        <v>0.01450251593253793</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006991260923845166</v>
+        <v>-0.01016612943218431</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008422997449835892</v>
+        <v>0.008329109245557017</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004627929185337498</v>
+        <v>0.01033210332103329</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01556271445370399</v>
+        <v>0.01561938493945416</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0102576335877862</v>
+        <v>-0.002597402597402598</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002809882991924429</v>
+        <v>0.002878613918593617</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03121387283236987</v>
+        <v>-0.01831091180866973</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005826117974557758</v>
+        <v>0.005943480243194892</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02686915887850461</v>
+        <v>-0.02673492605233208</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01441682669000579</v>
+        <v>0.01437143234976192</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003422739436181432</v>
+        <v>-0.0001240387000743803</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01041072089856856</v>
+        <v>0.01038403265573393</v>
       </c>
       <c r="E16" s="1">
-        <v>0.00401176785236701</v>
+        <v>0.0006659563132658253</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0206599489348432</v>
+        <v>0.02070582750252965</v>
       </c>
       <c r="E17" s="1">
-        <v>0.008827493261455599</v>
+        <v>-0.01790127579987977</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008375725209685487</v>
+        <v>0.008318290623953933</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.000310269934843177</v>
+        <v>0.004034761018001376</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01660616871796633</v>
+        <v>0.01657216127381677</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004530821509478811</v>
+        <v>0.01050445103857567</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01199687780466232</v>
+        <v>0.01201235814588009</v>
       </c>
       <c r="E20" s="1">
-        <v>0.007891072257465659</v>
+        <v>-0.003377341111452159</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007419823589157206</v>
+        <v>0.007314371714740372</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.007713668620796033</v>
+        <v>0.01461442786069678</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01450094529011636</v>
+        <v>0.01464865952834097</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01684587813620064</v>
+        <v>0.008694630478204513</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01980180927692963</v>
+        <v>0.01977336681839329</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005146376444781886</v>
+        <v>0.003273459795198885</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01023954465200299</v>
+        <v>0.01016624642653091</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0006133356698501125</v>
+        <v>-0.005435735577766221</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02016074417890934</v>
+        <v>0.02027483451747265</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01228854133418467</v>
+        <v>-0.0127699826580483</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01395391142209315</v>
+        <v>0.01403808357161685</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01266412142657591</v>
+        <v>-0.006298850574712689</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02101213949889569</v>
+        <v>0.02131741770502905</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02121663643430938</v>
+        <v>-0.0699241919624447</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05619332861229678</v>
+        <v>0.05602755132138638</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003622629875134953</v>
+        <v>-0.02580446970278794</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02133490866217394</v>
+        <v>0.02134833683381514</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007225749945259485</v>
+        <v>-0.01652173913043464</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02972582410086064</v>
+        <v>0.02994791161944929</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01411265142999873</v>
+        <v>-0.04433497536945807</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0155676644264946</v>
+        <v>0.01567609049870896</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01360294117647065</v>
+        <v>-0.06463547334058761</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01348904710239421</v>
+        <v>0.0133539901635445</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.003486142583231655</v>
+        <v>-0.0003498338289313896</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01888909616899949</v>
+        <v>0.01902651311113485</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0139150943396229</v>
+        <v>-0.05966503838101889</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04338682088306895</v>
+        <v>0.04337154665956364</v>
       </c>
       <c r="E34" s="1">
-        <v>0.00623783344385731</v>
+        <v>-0.02558749622650325</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01070679114610742</v>
+        <v>0.01078788688262182</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01421636615811361</v>
+        <v>0.00786324786324788</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01005537472686205</v>
+        <v>0.009961122902158779</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.002842866988283843</v>
+        <v>0.004060475161987043</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01042510675699129</v>
+        <v>0.01062883470422419</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02626307589583798</v>
+        <v>-0.01474734330947736</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007275531882310683</v>
+        <v>0.007267532000754288</v>
       </c>
       <c r="E38" s="1">
-        <v>0.005485393545095141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01208699824678151</v>
+        <v>0.01205643173502448</v>
       </c>
       <c r="E39" s="1">
-        <v>0.004046655558200385</v>
+        <v>-0.003082029397818875</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01719694797052662</v>
+        <v>0.01740685481215934</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0188787185354693</v>
+        <v>-0.005053340819764163</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01721575786713097</v>
+        <v>0.01722914665844048</v>
       </c>
       <c r="E41" s="1">
-        <v>0.007375034143676684</v>
+        <v>-0.0006778741865511861</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03185214678773062</v>
+        <v>0.03194874192161077</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0096448031702554</v>
+        <v>-0.02274170274170273</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01134001641534726</v>
+        <v>0.0113964171363519</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0115985900891562</v>
+        <v>-0.0009797210049724558</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02218491180231293</v>
+        <v>0.02211584427322492</v>
       </c>
       <c r="E44" s="1">
-        <v>0.003458412588621895</v>
+        <v>-0.02649491642254009</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01249008071858755</v>
+        <v>0.01251892780855637</v>
       </c>
       <c r="E45" s="1">
-        <v>0.008917027063177096</v>
+        <v>-0.03641345176543365</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008658244906710027</v>
+        <v>0.008704718264339129</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01199511191149982</v>
+        <v>-0.01722329911976872</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0132017630565587</v>
+        <v>0.01333216851201555</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01653520057367008</v>
+        <v>0.006722270633636507</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.0103611592960025</v>
+        <v>0.01037047864400961</v>
       </c>
       <c r="E48" s="1">
-        <v>0.007497581425346622</v>
+        <v>-0.0007201728414820696</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01609545527529428</v>
+        <v>0.01611415246947252</v>
       </c>
       <c r="E49" s="1">
-        <v>0.007761503863452868</v>
+        <v>-0.01874506482954341</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008537496507948883</v>
+        <v>0.008538013140546134</v>
       </c>
       <c r="E50" s="1">
-        <v>0.006653114026981877</v>
+        <v>0.001529894131326204</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01193252815838428</v>
+        <v>0.01213117857519125</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02334975369458148</v>
+        <v>0.005583902955617503</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008195020265497977</v>
+        <v>0.008093343204882966</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.005896765084506428</v>
+        <v>0.03024353565311833</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01008352769710869</v>
+        <v>0.01000587265515336</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.00115974399725105</v>
+        <v>0.01051432011696907</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1343449840224159</v>
+        <v>0.1334651547952782</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>-0.0001971220185293943</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.0436893879698955</v>
+        <v>0.04376900806459517</v>
       </c>
       <c r="E55" s="1">
-        <v>0.008426628144938109</v>
+        <v>-0.00907246030798603</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.006592201750990956</v>
+        <v>-0.01194785457334935</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01533871547218321</v>
+        <v>0.01547884321747375</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002921445574550985</v>
+        <v>-0.01427021161150321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05058335661211796</v>
+        <v>0.04962228903852196</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.03072052885973731</v>
+        <v>0.01047488003410146</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01439767980103758</v>
+        <v>0.01441687157814867</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01063080371437708</v>
+        <v>0.001143547586683002</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009600297283919521</v>
+        <v>0.009935376145296751</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02253809706748622</v>
+        <v>-0.006386975579210863</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01521073609617398</v>
+        <v>0.01551735290960862</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007969222313822355</v>
+        <v>-0.007292802617229976</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01952284811189684</v>
+        <v>0.02012734877720137</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01864594894561589</v>
+        <v>-0.004939347715551601</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004674843186630845</v>
+        <v>0.004621411907183619</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02324083022688572</v>
+        <v>-0.00381643422540523</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006907566954688002</v>
+        <v>0.007007892990048887</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002402691013935643</v>
+        <v>-0.03179929689996797</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01450251593253793</v>
+        <v>0.01452866788956444</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01016612943218431</v>
+        <v>-0.01678356713426865</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008329109245557017</v>
+        <v>0.008516925449537416</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01033210332103329</v>
+        <v>-0.01964937910883846</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01561938493945416</v>
+        <v>0.01576719931286167</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002597402597402598</v>
+        <v>-0.01444128787878785</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002878613918593617</v>
+        <v>0.002860075640824389</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01831091180866973</v>
+        <v>-0.01484583174724019</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005943480243194892</v>
+        <v>0.005854530821247031</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02673492605233208</v>
+        <v>-0.007013442431326733</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01437143234976192</v>
+        <v>0.01454341231127036</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0001240387000743803</v>
+        <v>-0.01662324773601298</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01038403265573393</v>
+        <v>0.0105165987604341</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0006659563132658253</v>
+        <v>-0.003460668175162995</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02070582750252965</v>
+        <v>0.02058106636159492</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01790127579987977</v>
+        <v>0.005509079779636883</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008318290623953933</v>
+        <v>0.00845284631722899</v>
       </c>
       <c r="E18" s="1">
-        <v>0.004034761018001376</v>
+        <v>-0.006800618238021694</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01657216127381677</v>
+        <v>0.01694874385732927</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01050445103857567</v>
+        <v>-0.00816350502143659</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01201235814588009</v>
+        <v>0.0121165551537758</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003377341111452159</v>
+        <v>-5.134524543026764E-05</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007314371714740372</v>
+        <v>0.007511007497794754</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01461442786069678</v>
+        <v>-0.01133925835121075</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01464865952834097</v>
+        <v>0.01495470080029075</v>
       </c>
       <c r="E22" s="1">
-        <v>0.008694630478204513</v>
+        <v>-0.01723937099592299</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01977336681839329</v>
+        <v>0.02007798296022396</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003273459795198885</v>
+        <v>-0.01125240525391114</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01016624642653091</v>
+        <v>0.01023325079140621</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.005435735577766221</v>
+        <v>-0.008021861777150918</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02027483451747265</v>
+        <v>0.02025796444543588</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0127699826580483</v>
+        <v>-0.01189715745768116</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01403808357161685</v>
+        <v>0.01411834369816616</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.006298850574712689</v>
+        <v>-0.00832832091796587</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02131741770502905</v>
+        <v>0.02006656692063309</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0699241919624447</v>
+        <v>0.01019694773637969</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05602755132138638</v>
+        <v>0.05524181119734659</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02580446970278794</v>
+        <v>-0.007410327158060781</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02134833683381514</v>
+        <v>0.0212495112519715</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01652173913043464</v>
+        <v>-0.002210433244916099</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02994791161944929</v>
+        <v>0.02896625631340118</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.04433497536945807</v>
+        <v>0.001932989690721643</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01567609049870896</v>
+        <v>0.01484016712788317</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.06463547334058761</v>
+        <v>-0.004420660772452178</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0133539901635445</v>
+        <v>0.01351074287710767</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0003498338289313896</v>
+        <v>-0.006561679790026198</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01902651311113485</v>
+        <v>0.01810764296086457</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.05966503838101889</v>
+        <v>-0.002102659245516225</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04337154665956364</v>
+        <v>0.04277282081587445</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.02558749622650325</v>
+        <v>-0.009464383113341301</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01078788688262182</v>
+        <v>0.01100419118710137</v>
       </c>
       <c r="E35" s="1">
-        <v>0.00786324786324788</v>
+        <v>-0.004748982360922582</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009961122902158779</v>
+        <v>0.01012251209673728</v>
       </c>
       <c r="E36" s="1">
-        <v>0.004060475161987043</v>
+        <v>-0.01144381345723622</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01062883470422419</v>
+        <v>0.01059871959018859</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01474734330947736</v>
+        <v>-0.02003081664098605</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007267532000754288</v>
+        <v>0.007355413410509925</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>0.00786602385181423</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01205643173502448</v>
+        <v>0.01216461450300712</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.003082029397818875</v>
+        <v>-0.0114149821640902</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01740685481215934</v>
+        <v>0.01752831783459655</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.005053340819764163</v>
+        <v>-0.006207674943566666</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01722914665844048</v>
+        <v>0.01742566679740344</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0006778741865511861</v>
+        <v>-0.01126034459367786</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03194874192161077</v>
+        <v>0.03159972201302805</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02274170274170273</v>
+        <v>0.01086763924162781</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0113964171363519</v>
+        <v>0.01152292607207054</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.0009797210049724558</v>
+        <v>-0.01060593004743382</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02211584427322492</v>
+        <v>0.02179023336697994</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.02649491642254009</v>
+        <v>-0.002168429437535924</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01251892780855637</v>
+        <v>0.0122089410872496</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.03641345176543365</v>
+        <v>0.009103416647557871</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008704718264339129</v>
+        <v>0.008658241710739929</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01722329911976872</v>
+        <v>-0.01173731690755653</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01333216851201555</v>
+        <v>0.01358409170913839</v>
       </c>
       <c r="E47" s="1">
-        <v>0.006722270633636507</v>
+        <v>-0.01364329582457435</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01037047864400961</v>
+        <v>0.01048832306564364</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.0007201728414820696</v>
+        <v>0.02818705957719425</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01611415246947252</v>
+        <v>0.01600329669840583</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01874506482954341</v>
+        <v>-0.01556942095749025</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008538013140546134</v>
+        <v>0.008654477839376182</v>
       </c>
       <c r="E50" s="1">
-        <v>0.001529894131326204</v>
+        <v>-0.01643651472565077</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01213117857519125</v>
+        <v>0.01234643126433855</v>
       </c>
       <c r="E51" s="1">
-        <v>0.005583902955617503</v>
+        <v>-0.04643370033508865</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008093343204882966</v>
+        <v>0.008438941767645558</v>
       </c>
       <c r="E52" s="1">
-        <v>0.03024353565311833</v>
+        <v>-0.02201678627904147</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01000587265515336</v>
+        <v>0.01023334411053093</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01051432011696907</v>
+        <v>-0.03023597250888366</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1334651547952782</v>
+        <v>0.1350524327002412</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0001971220185293943</v>
+        <v>0.0001971608832807004</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04376900806459517</v>
+        <v>0.04389638307751539</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.00907246030798603</v>
+        <v>-0.007589447054571874</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.01194785457334935</v>
+        <v>-0.005326338976178846</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01547884321747375</v>
+        <v>0.01533966108397206</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01427021161150321</v>
+        <v>-0.02102713711675008</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04962228903852196</v>
+        <v>0.05041058040242723</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01047488003410146</v>
+        <v>-0.02232382417623313</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01441687157814867</v>
+        <v>0.01451064657929423</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001143547586683002</v>
+        <v>-0.01987068965517258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009935376145296751</v>
+        <v>0.009924781893113833</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006386975579210863</v>
+        <v>-0.0181497353163601</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01551735290960862</v>
+        <v>0.01548667519942306</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007292802617229976</v>
+        <v>-0.009749399244765034</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02012734877720137</v>
+        <v>0.02013517959486709</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004939347715551601</v>
+        <v>-0.01058471421271645</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004621411907183619</v>
+        <v>0.00462842716461665</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00381643422540523</v>
+        <v>0.003263491462895729</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.007007892990048887</v>
+        <v>0.006821379901857706</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.03179929689996797</v>
+        <v>-0.009077405512460834</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01452866788956444</v>
+        <v>0.0143613182658974</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01678356713426865</v>
+        <v>-0.01936305732484078</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008516925449537416</v>
+        <v>0.008394283954340859</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01964937910883846</v>
+        <v>-0.009164741822517031</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01576719931286167</v>
+        <v>0.01562271251110394</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01444128787878785</v>
+        <v>-0.0165745856353593</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002860075640824389</v>
+        <v>0.002832703377483775</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01484583174724019</v>
+        <v>-0.04250386398763517</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005854530821247031</v>
+        <v>0.005844600731043748</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.007013442431326733</v>
+        <v>-0.02825191288993512</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01454341231127036</v>
+        <v>0.01437823692925817</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01662324773601298</v>
+        <v>-0.00687523653336708</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0105165987604341</v>
+        <v>0.01053632433677353</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003460668175162995</v>
+        <v>-0.008548150126886478</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02058106636159492</v>
+        <v>0.02080526499196739</v>
       </c>
       <c r="E17" s="1">
-        <v>0.005509079779636883</v>
+        <v>-0.01001082251082241</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.00845284631722899</v>
+        <v>0.00844031772969586</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006800618238021694</v>
+        <v>0.004201680672268893</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01694874385732927</v>
+        <v>0.01690039996076697</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.00816350502143659</v>
+        <v>-0.004026527711984862</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0121165551537758</v>
+        <v>0.01218081216085152</v>
       </c>
       <c r="E20" s="1">
-        <v>-5.134524543026764E-05</v>
+        <v>-0.007958921694480092</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007511007497794754</v>
+        <v>0.007465602573266027</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01133925835121075</v>
+        <v>-0.008989460632362056</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01495470080029075</v>
+        <v>0.01477559097114721</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01723937099592299</v>
+        <v>-0.0117340286831813</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02007798296022396</v>
+        <v>0.01995836236262716</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01125240525391114</v>
+        <v>-0.01937640140457753</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01023325079140621</v>
+        <v>0.01020551912229987</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008021861777150918</v>
+        <v>-0.02194970230160831</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02025796444543588</v>
+        <v>0.02012414024520655</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01189715745768116</v>
+        <v>-0.02715151515151515</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01411834369816616</v>
+        <v>0.01407573373020319</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.00832832091796587</v>
+        <v>-0.01693649979004352</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02006656692063309</v>
+        <v>0.02037973402644054</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01019694773637969</v>
+        <v>-0.05867359856860721</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05524181119734659</v>
+        <v>0.05512607144651965</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.007410327158060781</v>
+        <v>-0.02493844809784762</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0212495112519715</v>
+        <v>0.0213160772790928</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002210433244916099</v>
+        <v>-0.05073105892778018</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02896625631340118</v>
+        <v>0.02917765788465845</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001932989690721643</v>
+        <v>-0.04124330117899244</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01484016712788317</v>
+        <v>0.01485367951534656</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.004420660772452178</v>
+        <v>-0.02921243281140451</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01351074287710767</v>
+        <v>0.01349396313038722</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.006561679790026198</v>
+        <v>-0.03311316600616454</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01810764296086457</v>
+        <v>0.01816632878302954</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002102659245516225</v>
+        <v>-0.04809122459097692</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04277282081587445</v>
+        <v>0.04259487720749052</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.009464383113341301</v>
+        <v>-0.03075249112358269</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01100419118710137</v>
+        <v>0.01101057855094378</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.004748982360922582</v>
+        <v>-0.02522154055896397</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01012251209673728</v>
+        <v>0.01006025629178086</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01144381345723622</v>
+        <v>0.0006092784402471629</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01059871959018859</v>
+        <v>0.01044203640695333</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02003081664098605</v>
+        <v>-0.03346810422282132</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007355413410509925</v>
+        <v>0.007452968303399573</v>
       </c>
       <c r="E38" s="1">
-        <v>0.00786602385181423</v>
+        <v>-0.003524672708962728</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01216461450300712</v>
+        <v>0.01209015189267614</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.0114149821640902</v>
+        <v>-0.0093817656964158</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01752831783459655</v>
+        <v>0.01751278677394744</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.006207674943566666</v>
+        <v>-0.02328222600794994</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01742566679740344</v>
+        <v>0.01732170907868992</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01126034459367786</v>
+        <v>-0.01420142700329285</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03159972201302805</v>
+        <v>0.03211418744025269</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01086763924162781</v>
+        <v>-0.02521180251241595</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01152292607207054</v>
+        <v>0.01146176396434747</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.01060593004743382</v>
+        <v>-0.02281198515696847</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02179023336697994</v>
+        <v>0.02185941342924077</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.002168429437535924</v>
+        <v>-0.02150966826326062</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0122089410872496</v>
+        <v>0.01238605650029097</v>
       </c>
       <c r="E45" s="1">
-        <v>0.009103416647557871</v>
+        <v>-0.04019815029427143</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008658241710739929</v>
+        <v>0.008602436677685217</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01173731690755653</v>
+        <v>-0.03150765606595984</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01358409170913839</v>
+        <v>0.01347050842147672</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01364329582457435</v>
+        <v>-0.008274132887588825</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01048832306564364</v>
+        <v>0.0108417046467882</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02818705957719425</v>
+        <v>-0.02585669781931477</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01600329669840583</v>
+        <v>0.01583849583308051</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01556942095749025</v>
+        <v>-0.02440469138727641</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008654477839376182</v>
+        <v>0.008557810184864843</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01643651472565077</v>
+        <v>-0.02789339628502208</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01234643126433855</v>
+        <v>0.01183618430459328</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.04643370033508865</v>
+        <v>-0.07279116465863456</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008438941767645558</v>
+        <v>0.008297337824177469</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.02201678627904147</v>
+        <v>0.001824212271973602</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01023334411053093</v>
+        <v>0.009977070257511633</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.03023597250888366</v>
+        <v>-0.004410215903106862</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1350524327002412</v>
+        <v>0.1358023893164359</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0001971608832807004</v>
+        <v>-0.0003942440370587885</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04389638307751539</v>
+        <v>0.0437965088543931</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.007589447054571874</v>
+        <v>-0.02330662782228698</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.005326338976178846</v>
+        <v>-0.02001555307391667</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01533966108397206</v>
+        <v>0.01532382679555688</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02102713711675008</v>
+        <v>0.002755130728141708</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05041058040242723</v>
+        <v>0.05029184251188324</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02232382417623313</v>
+        <v>0.003023534711954934</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01451064657929423</v>
+        <v>0.01451279157442988</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01987068965517258</v>
+        <v>0.004705571924886964</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009924781893113833</v>
+        <v>0.009943677942284953</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0181497353163601</v>
+        <v>0.0177150192554556</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01548667519942306</v>
+        <v>0.0156489110291835</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009749399244765034</v>
+        <v>0.01483741246619985</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02013517959486709</v>
+        <v>0.02032894964376547</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01058471421271645</v>
+        <v>0.01608381289656213</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00462842716461665</v>
+        <v>0.00473837315655404</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003263491462895729</v>
+        <v>-0.009004337167641041</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006821379901857706</v>
+        <v>0.006897517089721562</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.009077405512460834</v>
+        <v>-0.01232511658894087</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0143613182658974</v>
+        <v>0.01437088035552955</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01936305732484078</v>
+        <v>0.02156404260846956</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008394283954340859</v>
+        <v>0.008487229093485578</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.009164741822517031</v>
+        <v>0.00579034441269366</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01562271251110394</v>
+        <v>0.01567756771336891</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0165745856353593</v>
+        <v>0.02540302882266743</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002832703377483775</v>
+        <v>0.002767699576169365</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.04250386398763517</v>
+        <v>0.01372074253430178</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005844600731043748</v>
+        <v>0.005795479303910046</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02825191288993512</v>
+        <v>0.0115081768625076</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01437823692925817</v>
+        <v>0.01457103038137683</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.00687523653336708</v>
+        <v>0.02572245157192765</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01053632433677353</v>
+        <v>0.01065961637179446</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.008548150126886478</v>
+        <v>0.01427994072477423</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02080526499196739</v>
+        <v>0.02101766741446635</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01001082251082241</v>
+        <v>-0.001571467614102429</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.00844031772969586</v>
+        <v>0.008648893639235307</v>
       </c>
       <c r="E18" s="1">
-        <v>0.004201680672268893</v>
+        <v>0.007903300790330192</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01690039996076697</v>
+        <v>0.01717613997322032</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004026527711984862</v>
+        <v>0.01046373365041631</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01218081216085152</v>
+        <v>0.01233067123523397</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.007958921694480092</v>
+        <v>0.009006211180124346</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007465602573266027</v>
+        <v>0.007549600257477179</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008989460632362056</v>
+        <v>0.007507037847982678</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01477559097114721</v>
+        <v>0.01490045460280882</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0117340286831813</v>
+        <v>0.0106740225473736</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01995836236262716</v>
+        <v>0.01997137932494871</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01937640140457753</v>
+        <v>0.0265757798006816</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01020551912229987</v>
+        <v>0.01018537696903356</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02194970230160831</v>
+        <v>0.004361257495911319</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02012414024520655</v>
+        <v>0.0199776021015814</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02715151515151515</v>
+        <v>0.01578204169781539</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01407573373020319</v>
+        <v>0.01411995885469455</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01693649979004352</v>
+        <v>0.02358803986710956</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02037973402644054</v>
+        <v>0.01957580220115999</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.05867359856860721</v>
+        <v>0.04852332024315476</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05512607144651965</v>
+        <v>0.05484914882426357</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02493844809784762</v>
+        <v>0.01791968722000492</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0213160772790928</v>
+        <v>0.02064797065913461</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.05073105892778018</v>
+        <v>0.01586931155192528</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02917765788465845</v>
+        <v>0.02854563155626681</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.04124330117899244</v>
+        <v>0.01135804677368846</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01485367951534656</v>
+        <v>0.01471428189062881</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02921243281140451</v>
+        <v>0.01998074145402007</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01349396313038722</v>
+        <v>0.01331361464979835</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.03311316600616454</v>
+        <v>0.006375808361417157</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01816632878302954</v>
+        <v>0.01764587982980066</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.04809122459097692</v>
+        <v>0.005078125000000044</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04259487720749052</v>
+        <v>0.04212819780329743</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.03075249112358269</v>
+        <v>0.01308487671855474</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01101057855094378</v>
+        <v>0.01095208687353079</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.02522154055896397</v>
+        <v>0.01538461538461533</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01006025629178086</v>
+        <v>0.01027198525509056</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0006092784402471629</v>
+        <v>0.01426583159359773</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01044203640695333</v>
+        <v>0.01029869532709856</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.03346810422282132</v>
+        <v>0.02184522426214275</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007452968303399573</v>
+        <v>0.007578384588362742</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.003524672708962728</v>
+        <v>0.01768569984840851</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01209015189267614</v>
+        <v>0.0122213418365489</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.0093817656964158</v>
+        <v>0.01602719766877136</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01751278677394744</v>
+        <v>0.01745440977956412</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02328222600794994</v>
+        <v>0.017248062015504</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01732170907868992</v>
+        <v>0.01742447662837713</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01420142700329285</v>
+        <v>0.01468439000626343</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03211418744025269</v>
+        <v>0.03194390583121522</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.02521180251241595</v>
+        <v>-0.000239757844577082</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01146176396434747</v>
+        <v>0.01142905727744157</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.02281198515696847</v>
+        <v>0.01405318459274407</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02185941342924077</v>
+        <v>0.02182608587824011</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.02150966826326062</v>
+        <v>0.01409599782441195</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01238605650029097</v>
+        <v>0.01213096797283725</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.04019815029427143</v>
+        <v>0.01946114872863292</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008602436677685217</v>
+        <v>0.00850155743557828</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.03150765606595984</v>
+        <v>0.02496537279145961</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01347050842147672</v>
+        <v>0.01363190169664158</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.008274132887588825</v>
+        <v>0.01158772964773291</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.0108417046467882</v>
+        <v>0.01077708324761458</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02585669781931477</v>
+        <v>0.02006715701950768</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01583849583308051</v>
+        <v>0.01576755863698009</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.02440469138727641</v>
+        <v>0.01880995749848213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008557810184864843</v>
+        <v>0.008489016147287785</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.02789339628502208</v>
+        <v>0.03610685071574649</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01183618430459328</v>
+        <v>0.01119876412158555</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.07279116465863456</v>
+        <v>0.02837033026529512</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008297337824177469</v>
+        <v>0.008482250872179428</v>
       </c>
       <c r="E52" s="1">
-        <v>0.001824212271973602</v>
+        <v>0.01009766594934614</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009977070257511633</v>
+        <v>0.01013594578439749</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.004410215903106862</v>
+        <v>0.00484848484848488</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1358023893164359</v>
+        <v>0.1385214331309368</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0003942440370587885</v>
+        <v>0.0003943995267203793</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.0437965088543931</v>
+        <v>0.04364942735242684</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.02330662782228698</v>
+        <v>0.01255282127765356</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.02001555307391667</v>
+        <v>0.01199710168721446</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01532382679555688</v>
+        <v>0.01518388334908822</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002755130728141708</v>
+        <v>-0.02601771896377714</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05029184251188324</v>
+        <v>0.04984589536802564</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003023534711954934</v>
+        <v>0.01943083439033111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01451279157442988</v>
+        <v>0.01440822561122407</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004705571924886964</v>
+        <v>0.004705418891709723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009943677942284953</v>
+        <v>0.009999861038762532</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0177150192554556</v>
+        <v>-0.003910191725529644</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0156489110291835</v>
+        <v>0.01569283187698185</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01483741246619985</v>
+        <v>0.001503040240486531</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02032894964376547</v>
+        <v>0.02041104330415731</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01608381289656213</v>
+        <v>0.002105721754283918</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00473837315655404</v>
+        <v>0.00464004021276107</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.009004337167641041</v>
+        <v>0.03672517958232246</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006897517089721562</v>
+        <v>0.006731742982325382</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01232511658894087</v>
+        <v>0.02478920741989898</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01437088035552955</v>
+        <v>0.01450673584673458</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02156404260846956</v>
+        <v>0.01271617497456767</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008487229093485578</v>
+        <v>0.008435175415833052</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00579034441269366</v>
+        <v>0.003214953271028165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01567756771336891</v>
+        <v>0.01588524847656097</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02540302882266743</v>
+        <v>0.01572177227251093</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002767699576169365</v>
+        <v>0.002772413542280531</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01372074253430178</v>
+        <v>0.08280254777070062</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005795479303910046</v>
+        <v>0.005792679341639371</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0115081768625076</v>
+        <v>0.03772455089820337</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01457103038137683</v>
+        <v>0.01476865198506695</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02572245157192765</v>
+        <v>0.01554179566563474</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01065961637179446</v>
+        <v>0.01068366208135072</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01427994072477423</v>
+        <v>0.01686810997476429</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02101766741446635</v>
+        <v>0.02073586850774048</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001571467614102429</v>
+        <v>0.02429343735030476</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008648893639235307</v>
+        <v>0.008613906534550592</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007903300790330192</v>
+        <v>-0.00246002460024608</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01717613997322032</v>
+        <v>0.0171501148551774</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01046373365041631</v>
+        <v>0.001529771710990779</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01233067123523397</v>
+        <v>0.01229422875186912</v>
       </c>
       <c r="E20" s="1">
-        <v>0.009006211180124346</v>
+        <v>0.006514825074381836</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007549600257477179</v>
+        <v>0.007516103929216715</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007507037847982678</v>
+        <v>0.0009313877677741278</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01490045460280882</v>
+        <v>0.0148809738349032</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0106740225473736</v>
+        <v>0.0007119971520113122</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01997137932494871</v>
+        <v>0.02025908401320816</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0265757798006816</v>
+        <v>0.002311409960075617</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01018537696903356</v>
+        <v>0.01010852501813809</v>
       </c>
       <c r="E24" s="1">
-        <v>0.004361257495911319</v>
+        <v>0.03193414148724427</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0199776021015814</v>
+        <v>0.02005231973208061</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01578204169781539</v>
+        <v>0.01856243355957155</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01411995885469455</v>
+        <v>0.01428168221330355</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02358803986710956</v>
+        <v>0.003292066583205688</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01957580220115999</v>
+        <v>0.02028235563734605</v>
       </c>
       <c r="E27" s="1">
-        <v>0.04852332024315476</v>
+        <v>0.03122808817744938</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05484914882426357</v>
+        <v>0.05517014655713343</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01791968722000492</v>
+        <v>0.01984476274305846</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02064797065913461</v>
+        <v>0.02072697609851706</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01586931155192528</v>
+        <v>0.01722949689869058</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02854563155626681</v>
+        <v>0.02852760558951718</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01135804677368846</v>
+        <v>0.03170181721713772</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01471428189062881</v>
+        <v>0.01483036278240821</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01998074145402007</v>
+        <v>0.02391629297458908</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01331361464979835</v>
+        <v>0.01323966213249532</v>
       </c>
       <c r="E32" s="1">
-        <v>0.006375808361417157</v>
+        <v>0.006425920897819015</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01764587982980066</v>
+        <v>0.01752523577759516</v>
       </c>
       <c r="E33" s="1">
-        <v>0.005078125000000044</v>
+        <v>0.0325171654359373</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04212819780329743</v>
+        <v>0.04217348054334618</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01308487671855474</v>
+        <v>0.02213508954527521</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01095208687353079</v>
+        <v>0.01098874739779253</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01538461538461533</v>
+        <v>0.007575757575757791</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01027198525509056</v>
+        <v>0.01029501334490159</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01426583159359773</v>
+        <v>-0.001457975986277837</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01029869532709856</v>
+        <v>0.01039891578600503</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02184522426214275</v>
+        <v>0.05321810325221743</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007578384588362742</v>
+        <v>0.00762098390466741</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01768569984840851</v>
+        <v>-0.002730883813306773</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0122213418365489</v>
+        <v>0.01227001112675002</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01602719766877136</v>
+        <v>0.01242829827915859</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01745440977956412</v>
+        <v>0.01754497566473651</v>
       </c>
       <c r="E40" s="1">
-        <v>0.017248062015504</v>
+        <v>0.007811011621261077</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01742447662837713</v>
+        <v>0.01747074612107717</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01468439000626343</v>
+        <v>0.01618655692729765</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03194390583121522</v>
+        <v>0.03155764673234857</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.000239757844577082</v>
+        <v>0.02697922599598312</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01142905727744157</v>
+        <v>0.01145227778791071</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01405318459274407</v>
+        <v>0.01315635280035488</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02182608587824011</v>
+        <v>0.02187135348549275</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01409599782441195</v>
+        <v>0.01430231518727099</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01213096797283725</v>
+        <v>0.01222044067533436</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01946114872863292</v>
+        <v>0.02559219693450987</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00850155743557828</v>
+        <v>0.008610500931018217</v>
       </c>
       <c r="E46" s="1">
-        <v>0.02496537279145961</v>
+        <v>0.01987475280158213</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01363190169664158</v>
+        <v>0.01362638733361598</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01158772964773291</v>
+        <v>0.008997375765401605</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01077708324761458</v>
+        <v>0.01086302386738907</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02006715701950768</v>
+        <v>0.01097264675915044</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01576755863698009</v>
+        <v>0.01587370726459015</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01880995749848213</v>
+        <v>0.02131133863335677</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008489016147287785</v>
+        <v>0.008691257881447931</v>
       </c>
       <c r="E50" s="1">
-        <v>0.03610685071574649</v>
+        <v>0.01338432122370947</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01119876412158555</v>
+        <v>0.01137995033689094</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02837033026529512</v>
+        <v>0.01389912603980203</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008482250872179428</v>
+        <v>0.008466330381481065</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01009766594934614</v>
+        <v>-0.006964929531301345</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01013594578439749</v>
+        <v>0.01006434677231535</v>
       </c>
       <c r="E53" s="1">
-        <v>0.00484848484848488</v>
+        <v>-0.007018313411558341</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1385214331309368</v>
+        <v>0.1369332636304674</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0003943995267203793</v>
+        <v>0.0001971220185295053</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04364942735242684</v>
+        <v>0.04367339663242848</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01255282127765356</v>
+        <v>0.01448385908923555</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01199710168721446</v>
+        <v>0.01300988227816213</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -343,7 +343,7 @@
     <t>VMware Inc</t>
   </si>
   <si>
-    <t>D.R. Horton Inc</t>
+    <t>D R Horton Inc</t>
   </si>
   <si>
     <t>Becton Dickinson and Co</t>
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01518388334908822</v>
+        <v>0.01459890332567556</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02601771896377714</v>
+        <v>-0.02084052964881955</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04984589536802564</v>
+        <v>0.0501618430332414</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01943083439033111</v>
+        <v>0.01473517639393096</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01440822561122407</v>
+        <v>0.01429010970323009</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004705418891709723</v>
+        <v>-0.01339664974840438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009999861038762532</v>
+        <v>0.009832835630854382</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003910191725529644</v>
+        <v>-0.003039128783082101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01569283187698185</v>
+        <v>0.01551457602707234</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001503040240486531</v>
+        <v>-0.00286513404734301</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02041104330415731</v>
+        <v>0.02019133637282133</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002105721754283918</v>
+        <v>-0.002028838489964491</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00464004021276107</v>
+        <v>0.004748666925169264</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03672517958232246</v>
+        <v>0.03280870004129777</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006731742982325382</v>
+        <v>0.006810019996939582</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02478920741989898</v>
+        <v>0.02336679282540732</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01450673584673458</v>
+        <v>0.01450252983221879</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01271617497456767</v>
+        <v>-0.001255650426920996</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008435175415833052</v>
+        <v>0.008353614568494625</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003214953271028165</v>
+        <v>-0.00409897153077976</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01588524847656097</v>
+        <v>0.01592777426742931</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01572177227251093</v>
+        <v>0.006097560975609762</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002772413542280531</v>
+        <v>0.002963422667017023</v>
       </c>
       <c r="E13" s="1">
-        <v>0.08280254777070062</v>
+        <v>0.0117647058823529</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005792679341639371</v>
+        <v>0.005934004863586712</v>
       </c>
       <c r="E14" s="1">
-        <v>0.03772455089820337</v>
+        <v>0.002885170225043421</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01476865198506695</v>
+        <v>0.01480556470263277</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01554179566563474</v>
+        <v>0.004024144869215096</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01068366208135072</v>
+        <v>0.01072435270210824</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01686810997476429</v>
+        <v>0.01123301985370939</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02073586850774048</v>
+        <v>0.02096683793693263</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02429343735030476</v>
+        <v>0.002137894174238264</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008613906534550592</v>
+        <v>0.008482361586885196</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00246002460024608</v>
+        <v>0.008939580764488086</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0171501148551774</v>
+        <v>0.01695575819763488</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001529771710990779</v>
+        <v>0.0009987075549289237</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01229422875186912</v>
+        <v>0.01221540255242458</v>
       </c>
       <c r="E20" s="1">
-        <v>0.006514825074381836</v>
+        <v>-0.003465674532388885</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007516103929216715</v>
+        <v>0.007426486619813585</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0009313877677741278</v>
+        <v>-0.02698511166253104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0148809738349032</v>
+        <v>0.01470031961820856</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0007119971520113122</v>
+        <v>0.002727380528874779</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02025908401320816</v>
+        <v>0.02004512632800013</v>
       </c>
       <c r="E23" s="1">
-        <v>0.002311409960075617</v>
+        <v>-0.003983228511530323</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01010852501813809</v>
+        <v>0.01029736458526504</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03193414148724427</v>
+        <v>0.01236083106864205</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02005231973208061</v>
+        <v>0.02016223132877027</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01856243355957155</v>
+        <v>-0.002729608220937707</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01428168221330355</v>
+        <v>0.01414467786814287</v>
       </c>
       <c r="E26" s="1">
-        <v>0.003292066583205688</v>
+        <v>-0.0004159349292909287</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02028235563734605</v>
+        <v>0.020647118249822</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03122808817744938</v>
+        <v>-0.01810975306389817</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05517014655713343</v>
+        <v>0.05554238513401758</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01984476274305846</v>
+        <v>-0.009258532757944304</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02072697609851706</v>
+        <v>0.02081331272061195</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01722949689869058</v>
+        <v>-0.002032520325203291</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02852760558951718</v>
+        <v>0.02905399349251059</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03170181721713772</v>
+        <v>-0.01114253878460614</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01483036278240821</v>
+        <v>0.01499003153797671</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02391629297458908</v>
+        <v>-0.002689204763734132</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01323966213249532</v>
+        <v>0.01315361220771758</v>
       </c>
       <c r="E32" s="1">
-        <v>0.006425920897819015</v>
+        <v>-0.001978417266187193</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01752523577759516</v>
+        <v>0.01786271495001102</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0325171654359373</v>
+        <v>0.008657465495608418</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04217348054334618</v>
+        <v>0.04255337984923264</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02213508954527521</v>
+        <v>0.004626093979055224</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01098874739779253</v>
+        <v>0.01092980007188043</v>
       </c>
       <c r="E35" s="1">
-        <v>0.007575757575757791</v>
+        <v>-0.003417634996582541</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01029501334490159</v>
+        <v>0.01014797944472918</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.001457975986277837</v>
+        <v>0.003950871768444664</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01039891578600503</v>
+        <v>0.01081166783426142</v>
       </c>
       <c r="E37" s="1">
-        <v>0.05321810325221743</v>
+        <v>0.009501187648456089</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00762098390466741</v>
+        <v>0.007502564403408014</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.002730883813306773</v>
+        <v>0.003360716952949927</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01227001112675002</v>
+        <v>0.01226296673136578</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01242829827915859</v>
+        <v>0.008970727101038856</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01754497566473651</v>
+        <v>0.01745493304940258</v>
       </c>
       <c r="E40" s="1">
-        <v>0.007811011621261077</v>
+        <v>0.0007561436672967048</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01747074612107717</v>
+        <v>0.01752553223646975</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01618655692729765</v>
+        <v>-0.00492710583153344</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03155764673234857</v>
+        <v>0.03199282473193367</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02697922599598312</v>
+        <v>-0.006947079599521233</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01145227778791071</v>
+        <v>0.01145393366623652</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01315635280035488</v>
+        <v>-0.001869236091747384</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02187135348549275</v>
+        <v>0.02189925771180477</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01430231518727099</v>
+        <v>-0.002203225522164454</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01222044067533436</v>
+        <v>0.01237222737801735</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02559219693450987</v>
+        <v>-0.003804175535528254</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008610500931018217</v>
+        <v>0.008668851767537495</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01987475280158213</v>
+        <v>-0.0005493972788674917</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01362638733361598</v>
+        <v>0.01357241355815924</v>
       </c>
       <c r="E47" s="1">
-        <v>0.008997375765401605</v>
+        <v>0.01056846798497313</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01086302386738907</v>
+        <v>0.01084117754737416</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01097264675915044</v>
+        <v>0.006977285060857152</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01587370726459015</v>
+        <v>0.01600378979424502</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02131133863335677</v>
+        <v>-0.00864775286799635</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008691257881447931</v>
+        <v>0.008694470431980303</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01338432122370947</v>
+        <v>-0.004990870359099397</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01137995033689094</v>
+        <v>0.01138993992339142</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01389912603980203</v>
+        <v>-0.00664658843078203</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008466330381481065</v>
+        <v>0.00829938891423051</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.006964929531301345</v>
+        <v>-0.005322221305388064</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01006434677231535</v>
+        <v>0.009865364797734978</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.007018313411558341</v>
+        <v>-0.005057979017117686</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1369332636304674</v>
+        <v>0.1352013031539116</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0001971220185295053</v>
+        <v>-0.0001970831690975006</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04367339663242848</v>
+        <v>0.04373694346945661</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01448385908923555</v>
+        <v>-0.002903811252268795</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01300988227816213</v>
+        <v>-0.0007901256814323299</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01459890332567556</v>
+        <v>0.01430595795285261</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02084052964881955</v>
+        <v>-0.00235183443085607</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0501618430332414</v>
+        <v>0.05094123661787659</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01473517639393096</v>
+        <v>-0.01165304443812498</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01429010970323009</v>
+        <v>0.01410981863873646</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01339664974840438</v>
+        <v>0.003731343283582156</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009832835630854382</v>
+        <v>0.009810704066305057</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003039128783082101</v>
+        <v>-0.01257462212625438</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01551457602707234</v>
+        <v>0.01548235769549141</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00286513404734301</v>
+        <v>-0.004515290415269768</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02019133637282133</v>
+        <v>0.02016630532816372</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002028838489964491</v>
+        <v>-0.01023742104116743</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004748666925169264</v>
+        <v>0.004908342721550742</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03280870004129777</v>
+        <v>-0.02838990581126721</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006810019996939582</v>
+        <v>0.006974659180682845</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02336679282540732</v>
+        <v>-0.02830036983437856</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01450252983221879</v>
+        <v>0.0144957732071267</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001255650426920996</v>
+        <v>-0.007794820216243448</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008353614568494625</v>
+        <v>0.00832595188860882</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.00409897153077976</v>
+        <v>-0.005163511187607495</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01592777426742931</v>
+        <v>0.01603756653541802</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006097560975609762</v>
+        <v>-0.02074592074592074</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002963422667017023</v>
+        <v>0.003000657359540528</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0117647058823529</v>
+        <v>0.01744186046511631</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005934004863586712</v>
+        <v>0.005955831333024898</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002885170225043421</v>
+        <v>-0.001726121979286344</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01480556470263277</v>
+        <v>0.01487689905987398</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004024144869215096</v>
+        <v>-0.0140887836278617</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01072435270210824</v>
+        <v>0.01085339511514041</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01123301985370939</v>
+        <v>-0.01033324722293982</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02096683793693263</v>
+        <v>0.02102827779993622</v>
       </c>
       <c r="E17" s="1">
-        <v>0.002137894174238264</v>
+        <v>0.003599999999999826</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008482361586885196</v>
+        <v>0.008564957736432685</v>
       </c>
       <c r="E18" s="1">
-        <v>0.008939580764488086</v>
+        <v>0.00213871066300042</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01695575819763488</v>
+        <v>0.01698611320571796</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0009987075549289237</v>
+        <v>0.0003521333411584671</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01221540255242458</v>
+        <v>0.01218269380213786</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003465674532388885</v>
+        <v>-0.004602874239247212</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.007426486619813585</v>
+        <v>0.00723179607692088</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02698511166253104</v>
+        <v>-0.05801721389862924</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01470031961820856</v>
+        <v>0.01475206897225274</v>
       </c>
       <c r="E22" s="1">
-        <v>0.002727380528874779</v>
+        <v>0.04789498580889284</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02004512632800013</v>
+        <v>0.01998106956549939</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003983228511530323</v>
+        <v>-0.02045885076825937</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01029736458526504</v>
+        <v>0.01043289186514998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01236083106864205</v>
+        <v>-0.01887772774506413</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02016223132877027</v>
+        <v>0.02012309611141037</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.002729608220937707</v>
+        <v>-0.012719368861697</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01414467786814287</v>
+        <v>0.0141499748610833</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0004159349292909287</v>
+        <v>-0.01063387119145598</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.020647118249822</v>
+        <v>0.02028923508253194</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01810975306389817</v>
+        <v>-0.01222828381779184</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05554238513401758</v>
+        <v>0.05507165767284629</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.009258532757944304</v>
+        <v>-0.01124574324859429</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02081331272061195</v>
+        <v>0.02078743392486761</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002032520325203291</v>
+        <v>-0.01832993890020362</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02905399349251059</v>
+        <v>0.0287529767084876</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01114253878460614</v>
+        <v>-0.005504030510531499</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01499003153797671</v>
+        <v>0.01496154177214425</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.002689204763734132</v>
+        <v>-0.006856702619414512</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01315361220771758</v>
+        <v>0.01313796952133378</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001978417266187193</v>
+        <v>0.0008109569291765428</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01786271495001102</v>
+        <v>0.01803160802492664</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008657465495608418</v>
+        <v>-0.01878343077497202</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04255337984923264</v>
+        <v>0.04278404055273778</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004626093979055224</v>
+        <v>-0.01155566817538412</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01092980007188043</v>
+        <v>0.01090105921148693</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003417634996582541</v>
+        <v>0.005829903978052053</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01014797944472918</v>
+        <v>0.01019612903362478</v>
       </c>
       <c r="E36" s="1">
-        <v>0.003950871768444664</v>
+        <v>0.002737616562580092</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01081166783426142</v>
+        <v>0.01092302207941131</v>
       </c>
       <c r="E37" s="1">
-        <v>0.009501187648456089</v>
+        <v>-0.0004278074866311821</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007502564403408014</v>
+        <v>0.007533730993123816</v>
       </c>
       <c r="E38" s="1">
-        <v>0.003360716952949927</v>
+        <v>-0.009304056568663954</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01226296673136578</v>
+        <v>0.01238275839477666</v>
       </c>
       <c r="E39" s="1">
-        <v>0.008970727101038856</v>
+        <v>-0.01357042583060375</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01745493304940258</v>
+        <v>0.01748194441973838</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0007561436672967048</v>
+        <v>-0.0001888930865129312</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01752553223646975</v>
+        <v>0.01745297212588069</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.00492710583153344</v>
+        <v>-0.02102692803364292</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03199282473193367</v>
+        <v>0.031795690623628</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.006947079599521233</v>
+        <v>0.0004702977572677014</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01145393366623652</v>
+        <v>0.01144156383345567</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.001869236091747384</v>
+        <v>-0.008070356958096214</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02189925771180477</v>
+        <v>0.02186828740378434</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.002203225522164454</v>
+        <v>-0.003842077371489228</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01237222737801735</v>
+        <v>0.01233490738040525</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.003804175535528254</v>
+        <v>-0.01409283084056923</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008668851767537495</v>
+        <v>0.008670940256544366</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0005493972788674917</v>
+        <v>-0.01037961585720748</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01357241355815924</v>
+        <v>0.0137266989937237</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01056846798497313</v>
+        <v>-0.02173291392622256</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01084117754737416</v>
+        <v>0.01092545201373486</v>
       </c>
       <c r="E48" s="1">
-        <v>0.006977285060857152</v>
+        <v>-0.02194164292863177</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01600378979424502</v>
+        <v>0.0158779385421634</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.00864775286799635</v>
+        <v>-0.01097167612365502</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008694470431980303</v>
+        <v>0.00865791830081048</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.004990870359099397</v>
+        <v>-0.00666748226082714</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01138993992339142</v>
+        <v>0.01132318241769306</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.00664658843078203</v>
+        <v>-0.0356508102456875</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00829938891423051</v>
+        <v>0.008261745547059681</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.005322221305388064</v>
+        <v>0.004521133186776716</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009865364797734978</v>
+        <v>0.009823227573972573</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.005057979017117686</v>
+        <v>-0.002219952936997727</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1352013031539116</v>
+        <v>0.1352815466768732</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0001970831690975006</v>
+        <v>0.0004928050463237632</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04373694346945661</v>
+        <v>0.04364442422129872</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.002903811252268795</v>
+        <v>-0.006431258342434187</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.0007901256814323299</v>
+        <v>-0.00741145545184263</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01430595795285261</v>
+        <v>0.0143788811454294</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00235183443085607</v>
+        <v>-0.002416313059877551</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05094123661787659</v>
+        <v>0.05072355146588409</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01165304443812498</v>
+        <v>-0.000148501986214189</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01410981863873646</v>
+        <v>0.01426821545899833</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003731343283582156</v>
+        <v>0.005147269087789397</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009810704066305057</v>
+        <v>0.009759671540727483</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01257462212625438</v>
+        <v>0.00308721378955501</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01548235769549141</v>
+        <v>0.01552753196562346</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004515290415269768</v>
+        <v>-0.0005497903924129854</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02016630532816372</v>
+        <v>0.02010889051591928</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01023742104116743</v>
+        <v>0.002053990610328515</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004908342721550742</v>
+        <v>0.004804604445810346</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02838990581126721</v>
+        <v>-0.02967671132653538</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006974659180682845</v>
+        <v>0.006827878261969972</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02830036983437856</v>
+        <v>-0.02399470461691222</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0144957732071267</v>
+        <v>0.01449017454420551</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.007794820216243448</v>
+        <v>-0.003041054232133633</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.00832595188860882</v>
+        <v>0.008344807915000719</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005163511187607495</v>
+        <v>-0.002707988566270414</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01603756653541802</v>
+        <v>0.0158221173691521</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02074592074592074</v>
+        <v>-0.007617233991906835</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003000657359540528</v>
+        <v>0.003075790490710359</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01744186046511631</v>
+        <v>-0.01142857142857145</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005955831333024898</v>
+        <v>0.005989945052572164</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001726121979286344</v>
+        <v>-0.01959654178674353</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01487689905987398</v>
+        <v>0.01477681938656936</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0140887836278617</v>
+        <v>-0.00763781952571585</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01085339511514041</v>
+        <v>0.0108214469723676</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01033324722293982</v>
+        <v>-0.002088227616810268</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02102827779993622</v>
+        <v>0.02126155869512162</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003599999999999826</v>
+        <v>-0.009233426331871852</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008564957736432685</v>
+        <v>0.008647365265311409</v>
       </c>
       <c r="E18" s="1">
-        <v>0.00213871066300042</v>
+        <v>-0.0007621951219511924</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01698611320571796</v>
+        <v>0.0171189710740108</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0003521333411584671</v>
+        <v>-0.002170724552654546</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01218269380213786</v>
+        <v>0.01221716537157055</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.004602874239247212</v>
+        <v>0.009659353645378399</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.00723179607692088</v>
+        <v>0.006863092924526881</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.05801721389862924</v>
+        <v>-0.01996615905245358</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01475206897225274</v>
+        <v>0.01557404545039114</v>
       </c>
       <c r="E22" s="1">
-        <v>0.04789498580889284</v>
+        <v>0.00677124478049862</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01998106956549939</v>
+        <v>0.01971842205168533</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.02045885076825937</v>
+        <v>-0.001976879109544916</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01043289186514998</v>
+        <v>0.01031237226053778</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01887772774506413</v>
+        <v>-0.02586054721977049</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02012309611141037</v>
+        <v>0.0200154869189769</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.012719368861697</v>
+        <v>-0.004240052185257692</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0141499748610833</v>
+        <v>0.01410403729515235</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01063387119145598</v>
+        <v>0.001682321603813097</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02028923508253194</v>
+        <v>0.02019077559133014</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01222828381779184</v>
+        <v>0.02970093873433322</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05507165767284629</v>
+        <v>0.05485892039502691</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01124574324859429</v>
+        <v>-0.001281537845414626</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02078743392486761</v>
+        <v>0.02055877195361155</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01832993890020362</v>
+        <v>-0.004379898570770036</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0287529767084876</v>
+        <v>0.02880823036340025</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.005504030510531499</v>
+        <v>0.01791083801804172</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01496154177214425</v>
+        <v>0.01496990370390457</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006856702619414512</v>
+        <v>0.01357536265611659</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01313796952133378</v>
+        <v>0.01324680193114447</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0008109569291765428</v>
+        <v>-0.01260466372557845</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01803160802492664</v>
+        <v>0.01782502191971509</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01878343077497202</v>
+        <v>0.01331135902636937</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04278404055273778</v>
+        <v>0.04260541047867836</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01155566817538412</v>
+        <v>0.003991213143157646</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01090105921148693</v>
+        <v>0.01104648184806549</v>
       </c>
       <c r="E35" s="1">
-        <v>0.005829903978052053</v>
+        <v>0.001363791339925147</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01019612903362478</v>
+        <v>0.01030038295474746</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002737616562580092</v>
+        <v>-0.01160310553707022</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01092302207941131</v>
+        <v>0.01099987420644605</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0004278074866311821</v>
+        <v>-0.01262572223411074</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007533730993123816</v>
+        <v>0.007519366181269265</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.009304056568663954</v>
+        <v>-0.002754820936639257</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01238275839477666</v>
+        <v>0.01230592389715962</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01357042583060375</v>
+        <v>-0.004506641366223807</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01748194441973838</v>
+        <v>0.01760915164425482</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0001888930865129312</v>
+        <v>-0.008690723597203909</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01745297212588069</v>
+        <v>0.01721356732440877</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.02102692803364292</v>
+        <v>-0.01087784937296499</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.031795690623628</v>
+        <v>0.03204816763233934</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0004702977572677014</v>
+        <v>0.004788906190322351</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01144156383345567</v>
+        <v>0.01143396867866049</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.008070356958096214</v>
+        <v>-0.004380932512777824</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02186828740378434</v>
+        <v>0.02194692641905674</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.003842077371489228</v>
+        <v>-0.004344549363833883</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01233490738040525</v>
+        <v>0.01225187786425143</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.01409283084056923</v>
+        <v>0.01839811868861552</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008670940256544366</v>
+        <v>0.0086450113440175</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01037961585720748</v>
+        <v>0.006142787126286464</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0137266989937237</v>
+        <v>0.01352864477406875</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02173291392622256</v>
+        <v>-0.01085730989267975</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01092545201373486</v>
+        <v>0.01076551780242428</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02194164292863177</v>
+        <v>-0.01755352644836283</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.0158779385421634</v>
+        <v>0.01582098748693103</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01097167612365502</v>
+        <v>-0.001928250053562564</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00865791830081048</v>
+        <v>0.008664407655479324</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.00666748226082714</v>
+        <v>-0.01539503664018715</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01132318241769306</v>
+        <v>0.01100103547428438</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.0356508102456875</v>
+        <v>-0.01008239375542053</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008261745547059681</v>
+        <v>0.008361065664737329</v>
       </c>
       <c r="E52" s="1">
-        <v>0.004521133186776716</v>
+        <v>0.001899413659261606</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009823227573972573</v>
+        <v>0.009874605671104842</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.002219952936997727</v>
+        <v>-0.01081297557068472</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1352815466768732</v>
+        <v>0.1363588315109588</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0004928050463237632</v>
+        <v>-9.851246182634998E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04364442422129872</v>
+        <v>0.04368752379029787</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.006431258342434187</v>
+        <v>-0.002320468978993628</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.00741145545184263</v>
+        <v>-0.0009986903409633374</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0143788811454294</v>
+        <v>0.01435847693936156</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002416313059877551</v>
+        <v>0.01234713770898566</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05072355146588409</v>
+        <v>0.05076671914980087</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.000148501986214189</v>
+        <v>0.004913670400396031</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01426821545899833</v>
+        <v>0.01435599499690668</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005147269087789397</v>
+        <v>0.01825144983039739</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009759671540727483</v>
+        <v>0.009799588487657582</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00308721378955501</v>
+        <v>0.005642472428827983</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01552753196562346</v>
+        <v>0.01553450924206253</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0005497903924129854</v>
+        <v>0.0123770886337069</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02010889051591928</v>
+        <v>0.02017033790986766</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002053990610328515</v>
+        <v>0.01024890190336758</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004804604445810346</v>
+        <v>0.004666680155029037</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02967671132653538</v>
+        <v>-0.006361922714420265</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006827878261969972</v>
+        <v>0.006670707310872528</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02399470461691222</v>
+        <v>-0.00237368599525245</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01449017454420551</v>
+        <v>0.01446055074994248</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003041054232133633</v>
+        <v>0.003558718861209842</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008344807915000719</v>
+        <v>0.008330529890315738</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002707988566270414</v>
+        <v>0.0007542615779152495</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0158221173691521</v>
+        <v>0.01571729330791656</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.007617233991906835</v>
+        <v>-0.003837850803549814</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003075790490710359</v>
+        <v>0.003043678291498674</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01142857142857145</v>
+        <v>-0.005419075144508567</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005989945052572164</v>
+        <v>0.005878433578884363</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01959654178674353</v>
+        <v>-0.002351557907113611</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01477681938656936</v>
+        <v>0.01467861609904748</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.00763781952571585</v>
+        <v>-0.001737943020296617</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0108214469723676</v>
+        <v>0.01080964481581285</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.002088227616810268</v>
+        <v>-0.003400470834423186</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02126155869512162</v>
+        <v>0.02108630034368934</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.009233426331871852</v>
+        <v>0.02031511900771044</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008647365265311409</v>
+        <v>0.008649412370277663</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0007621951219511924</v>
+        <v>0.02212051868802445</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0171189710740108</v>
+        <v>0.01709888699646886</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002170724552654546</v>
+        <v>0.005820790216368721</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01221716537157055</v>
+        <v>0.01234750662804303</v>
       </c>
       <c r="E20" s="1">
-        <v>0.009659353645378399</v>
+        <v>0.01536817464760065</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006863092924526881</v>
+        <v>0.00673278728923753</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01996615905245358</v>
+        <v>0.02348066298342544</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01557404545039114</v>
+        <v>0.01569517574477438</v>
       </c>
       <c r="E22" s="1">
-        <v>0.00677124478049862</v>
+        <v>-0.001569330792511869</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01971842205168533</v>
+        <v>0.0196991144303653</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001976879109544916</v>
+        <v>-0.0008181544158808451</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01031237226053778</v>
+        <v>0.01005573123239941</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02586054721977049</v>
+        <v>-0.005164446860559946</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0200154869189769</v>
+        <v>0.01995054462614218</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.004240052185257692</v>
+        <v>0.008516213560432417</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01410403729515235</v>
+        <v>0.01414188818893224</v>
       </c>
       <c r="E26" s="1">
-        <v>0.001682321603813097</v>
+        <v>-0.001912759505481643</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02019077559133014</v>
+        <v>0.02081124456910149</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02970093873433322</v>
+        <v>0.04071736964463613</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05485892039502691</v>
+        <v>0.05484338817441758</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.001281537845414626</v>
+        <v>0.02101211003288173</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02055877195361155</v>
+        <v>0.02048918897283649</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004379898570770036</v>
+        <v>0.0118082889557769</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02880823036340025</v>
+        <v>0.02935352499290918</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01791083801804172</v>
+        <v>0.02483089305591224</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01496990370390457</v>
+        <v>0.01518829397810386</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01357536265611659</v>
+        <v>0.01515383437930495</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01324680193114447</v>
+        <v>0.01309290620632645</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01260466372557845</v>
+        <v>0.01586577915564868</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01782502191971509</v>
+        <v>0.0180803538609034</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01331135902636937</v>
+        <v>0.01501313649443237</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04260541047867836</v>
+        <v>0.04281821989557745</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003991213143157646</v>
+        <v>0.01560642747083407</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01104648184806549</v>
+        <v>0.01107260504805732</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001363791339925147</v>
+        <v>-0.001021450459652629</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01030038295474746</v>
+        <v>0.01019104422167981</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01160310553707022</v>
+        <v>0.01087613293051359</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01099987420644605</v>
+        <v>0.01087185046215025</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01262572223411074</v>
+        <v>-0.01582141309059393</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007519366181269265</v>
+        <v>0.007506147991379679</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.002754820936639257</v>
+        <v>0.01180311401305878</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01230592389715962</v>
+        <v>0.01226271216366695</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.004506641366223807</v>
+        <v>-0.00238265427686446</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01760915164425482</v>
+        <v>0.01747356605617584</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.008690723597203909</v>
+        <v>0.007242233657328123</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01721356732440877</v>
+        <v>0.01704334175266859</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01087784937296499</v>
+        <v>0.00609414401793229</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03204816763233934</v>
+        <v>0.03223383492028943</v>
       </c>
       <c r="E42" s="1">
-        <v>0.004788906190322351</v>
+        <v>0.02359649122807017</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01143396867866049</v>
+        <v>0.01139525756719121</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.004380932512777824</v>
+        <v>0.008188580408590829</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02194692641905674</v>
+        <v>0.02187342168880915</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.004344549363833883</v>
+        <v>0.008237232289950658</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01225187786425143</v>
+        <v>0.01248976277279846</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01839811868861552</v>
+        <v>0.03006429412297362</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.0086450113440175</v>
+        <v>0.008706811216670812</v>
       </c>
       <c r="E46" s="1">
-        <v>0.006142787126286464</v>
+        <v>0.003637190270516122</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01352864477406875</v>
+        <v>0.01339513767994554</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01085730989267975</v>
+        <v>-0.007936842994047399</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01076551780242428</v>
+        <v>0.01058711825368769</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01755352644836283</v>
+        <v>-0.01610447880778787</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01582098748693103</v>
+        <v>0.01580626623237491</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.001928250053562564</v>
+        <v>0.007584792253017225</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008664407655479324</v>
+        <v>0.008539547145408022</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.01539503664018715</v>
+        <v>0.01119519669772973</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01100103547428438</v>
+        <v>0.01090100543174677</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01008239375542053</v>
+        <v>0.002190340597962859</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008361065664737329</v>
+        <v>0.008385321126281608</v>
       </c>
       <c r="E52" s="1">
-        <v>0.001899413659261606</v>
+        <v>0.008860863831190224</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009874605671104842</v>
+        <v>0.009777596592487794</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01081297557068472</v>
+        <v>-0.01090868196131367</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1363588315109588</v>
+        <v>0.136481701423705</v>
       </c>
       <c r="E54" s="1">
-        <v>-9.851246182634998E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04368752379029787</v>
+        <v>0.04362972082734263</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.002320468978993628</v>
+        <v>0.01224140041620769</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.0009986903409633374</v>
+        <v>0.008590602272554371</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01435847693936156</v>
+        <v>0.01441195565244332</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01234713770898566</v>
+        <v>0.0060690943043884</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05076671914980087</v>
+        <v>0.05058164329517143</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004913670400396031</v>
+        <v>-0.01373288008670803</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01435599499690668</v>
+        <v>0.01449350478422155</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01825144983039739</v>
+        <v>-0.006340131960712814</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009799588487657582</v>
+        <v>0.00977094410091473</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005642472428827983</v>
+        <v>0.006885998469777999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01553450924206253</v>
+        <v>0.01559282944377741</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0123770886337069</v>
+        <v>-0.0008829722203355095</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02017033790986766</v>
+        <v>0.02020350147874679</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01024890190336758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004666680155029037</v>
+        <v>0.00459749583835281</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006361922714420265</v>
+        <v>0.009058572444865964</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006670707310872528</v>
+        <v>0.006598190714206076</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00237368599525245</v>
+        <v>0.001359619306593896</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01446055074994248</v>
+        <v>0.0143884067052988</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003558718861209842</v>
+        <v>0.0002532928064842288</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008330529890315738</v>
+        <v>0.008265805045328783</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0007542615779152495</v>
+        <v>-0.002487187217365183</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01571729330791656</v>
+        <v>0.01552361547478916</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003837850803549814</v>
+        <v>0.009390801830002404</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003043678291498674</v>
+        <v>0.003001400531891223</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005419075144508567</v>
+        <v>-0.01307664366146022</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005878433578884363</v>
+        <v>0.005814658681834201</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002351557907113611</v>
+        <v>-0.001767825574543136</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01467861609904748</v>
+        <v>0.01452829866512158</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001737943020296617</v>
+        <v>0.0113784741652676</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01080964481581285</v>
+        <v>0.01068112959769083</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003400470834423186</v>
+        <v>0.01902887139107623</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02108630034368934</v>
+        <v>0.02133142128840671</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02031511900771044</v>
+        <v>-0.005256932579839835</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008649412370277663</v>
+        <v>0.008765441437125111</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02212051868802445</v>
+        <v>0.0007462686567163423</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01709888699646886</v>
+        <v>0.0170519296847078</v>
       </c>
       <c r="E19" s="1">
-        <v>0.005820790216368721</v>
+        <v>-0.0006430116326648916</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01234750662804303</v>
+        <v>0.01243047995699768</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01536817464760065</v>
+        <v>0.001754122187139773</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.00673278728923753</v>
+        <v>0.006832185014403956</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02348066298342544</v>
+        <v>0.01248313090418351</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01569517574477438</v>
+        <v>0.0155370720160146</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001569330792511869</v>
+        <v>0.008308072302683378</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0196991144303653</v>
+        <v>0.0195153489121904</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0008181544158808451</v>
+        <v>-0.0002154800896396747</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01005573123239941</v>
+        <v>0.009918592261582721</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.005164446860559946</v>
+        <v>0.006375227686703067</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01995054462614218</v>
+        <v>0.01994907317150288</v>
       </c>
       <c r="E25" s="1">
-        <v>0.008516213560432417</v>
+        <v>0.003572588502760654</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01414188818893224</v>
+        <v>0.01399461597804885</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.001912759505481643</v>
+        <v>-0.009675609984107547</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02081124456910149</v>
+        <v>0.0214741478437191</v>
       </c>
       <c r="E27" s="1">
-        <v>0.04071736964463613</v>
+        <v>-0.02013658412050034</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05484338817441758</v>
+        <v>0.05551882335126358</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02101211003288173</v>
+        <v>-0.01476710391956648</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02048918897283649</v>
+        <v>0.02055455522784558</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0118082889557769</v>
+        <v>-0.003890160183066538</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02935352499290918</v>
+        <v>0.02982617443097383</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02483089305591224</v>
+        <v>-0.005054724705489289</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01518829397810386</v>
+        <v>0.01528712922251249</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01515383437930495</v>
+        <v>-0.008896260554885238</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01309290620632645</v>
+        <v>0.01318734810212656</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01586577915564868</v>
+        <v>-0.004398168925590085</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0180803538609034</v>
+        <v>0.01819548649366209</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01501313649443237</v>
+        <v>-0.005053617650684017</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04281821989557745</v>
+        <v>0.04311606636114237</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01560642747083407</v>
+        <v>-0.005557120873880939</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01107260504805732</v>
+        <v>0.01096708109873138</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001021450459652629</v>
+        <v>0.005453306066802943</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01019104422167981</v>
+        <v>0.01021413777812658</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01087613293051359</v>
+        <v>-0.008453590641277375</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01087185046215025</v>
+        <v>0.01060870724040115</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01582141309059393</v>
+        <v>-0.004404316229905225</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007506147991379679</v>
+        <v>0.007530056194067606</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01180311401305878</v>
+        <v>0.001365103003226453</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01226271216366695</v>
+        <v>0.01212929639887557</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.00238265427686446</v>
+        <v>0.01265822784810133</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01747356605617584</v>
+        <v>0.01745020592569957</v>
       </c>
       <c r="E40" s="1">
-        <v>0.007242233657328123</v>
+        <v>-0.007947019867549754</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01704334175266859</v>
+        <v>0.01700115616110257</v>
       </c>
       <c r="E41" s="1">
-        <v>0.00609414401793229</v>
+        <v>-0.001392466754856159</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03223383492028943</v>
+        <v>0.03271341240825573</v>
       </c>
       <c r="E42" s="1">
-        <v>0.02359649122807017</v>
+        <v>-0.003456451566829388</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01139525756719121</v>
+        <v>0.01139071544407685</v>
       </c>
       <c r="E43" s="1">
-        <v>0.008188580408590829</v>
+        <v>0.001957776863317218</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02187342168880915</v>
+        <v>0.02186575811290011</v>
       </c>
       <c r="E44" s="1">
-        <v>0.008237232289950658</v>
+        <v>0.001457339692633841</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01248976277279846</v>
+        <v>0.01275567970327908</v>
       </c>
       <c r="E45" s="1">
-        <v>0.03006429412297362</v>
+        <v>-0.008263736263736332</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008706811216670812</v>
+        <v>0.00866405013691956</v>
       </c>
       <c r="E46" s="1">
-        <v>0.003637190270516122</v>
+        <v>0.001779647306261012</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01339513767994554</v>
+        <v>0.01317563592735627</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.007936842994047399</v>
+        <v>0.009574875526618065</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01058711825368769</v>
+        <v>0.01032789539052311</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01610447880778787</v>
+        <v>0.01653094462540716</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01580626623237491</v>
+        <v>0.015790503542427</v>
       </c>
       <c r="E49" s="1">
-        <v>0.007584792253017225</v>
+        <v>0.01880740460183694</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008539547145408022</v>
+        <v>0.008561599757080525</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01119519669772973</v>
+        <v>-0.00185551707075704</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01090100543174677</v>
+        <v>0.01083183039965534</v>
       </c>
       <c r="E51" s="1">
-        <v>0.002190340597962859</v>
+        <v>-0.01070921210796638</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008385321126281608</v>
+        <v>0.0083875680537784</v>
       </c>
       <c r="E52" s="1">
-        <v>0.008860863831190224</v>
+        <v>-0.001266391600964201</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009777596592487794</v>
+        <v>0.009588564358148675</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.01090868196131367</v>
+        <v>0.01421262080727681</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,7 +1709,7 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.136481701423705</v>
+        <v>0.1353192277582051</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04362972082734263</v>
+        <v>0.04378764744637485</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01224140041620769</v>
+        <v>-0.0009674688595959768</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.008590602272554371</v>
+        <v>-0.001716490233220069</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01441195565244332</v>
+        <v>0.01452435408233482</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0060690943043884</v>
+        <v>0.01107888631090481</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05058164329517143</v>
+        <v>0.04997278945824203</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01373288008670803</v>
+        <v>0.0130842813791725</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01449350478422155</v>
+        <v>0.01442637678617057</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006340131960712814</v>
+        <v>0.0002595492494701368</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00977094410091473</v>
+        <v>0.009855143063858013</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006885998469777999</v>
+        <v>-0.007345491388044523</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01559282944377741</v>
+        <v>0.0156058486954089</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0008829722203355095</v>
+        <v>0.005098572399728107</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02020350147874679</v>
+        <v>0.02023824022042271</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0002898550724635962</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00459749583835281</v>
+        <v>0.004647119322399005</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009058572444865964</v>
+        <v>-0.0002820078962211259</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006598190714206076</v>
+        <v>0.006618522370697349</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001359619306593896</v>
+        <v>0.01171079429735244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0143884067052988</v>
+        <v>0.01441679747727808</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0002532928064842288</v>
+        <v>0.0007596859964549285</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008265805045328783</v>
+        <v>0.008259423660724468</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002487187217365183</v>
+        <v>-0.001737816395919856</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01552361547478916</v>
+        <v>0.0156963372810383</v>
       </c>
       <c r="E12" s="1">
-        <v>0.009390801830002404</v>
+        <v>-0.001192748091603191</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003001400531891223</v>
+        <v>0.002967245534630123</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01307664366146022</v>
+        <v>0.02686786897313209</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005814658681834201</v>
+        <v>0.005814359671097082</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001767825574543136</v>
+        <v>0.004132231404958775</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01452829866512158</v>
+        <v>0.01471887333847745</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0113784741652676</v>
+        <v>0.00541005778925352</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01068112959769083</v>
+        <v>0.0109030944943281</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01902887139107623</v>
+        <v>0.004893754024468677</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02133142128840671</v>
+        <v>0.02125576876434498</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005256932579839835</v>
+        <v>-0.006077421059584975</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008765441437125111</v>
+        <v>0.008787065723825529</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0007462686567163423</v>
+        <v>0.003579418344519247</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0170519296847078</v>
+        <v>0.01707026604049814</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0006430116326648916</v>
+        <v>-0.002398221806270473</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01243047995699768</v>
+        <v>0.01247369551420935</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001754122187139773</v>
+        <v>0.005703422053231932</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006832185014403956</v>
+        <v>0.006929366263814605</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01248313090418351</v>
+        <v>-0.008663778740420014</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0155370720160146</v>
+        <v>0.01569309217313987</v>
       </c>
       <c r="E22" s="1">
-        <v>0.008308072302683378</v>
+        <v>-0.001113461752589084</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0195153489121904</v>
+        <v>0.01954469201601424</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0002154800896396747</v>
+        <v>0.0003448424501053537</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009918592261582721</v>
+        <v>0.009998988712048192</v>
       </c>
       <c r="E24" s="1">
-        <v>0.006375227686703067</v>
+        <v>0.009954751131221684</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01994907317150288</v>
+        <v>0.02005476681231897</v>
       </c>
       <c r="E25" s="1">
-        <v>0.003572588502760654</v>
+        <v>0.01626213592233006</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01399461597804885</v>
+        <v>0.0138830396339069</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.009675609984107547</v>
+        <v>0.007363005616651597</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0214741478437191</v>
+        <v>0.02107791188914238</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02013658412050034</v>
+        <v>0.03344732128317851</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05551882335126358</v>
+        <v>0.05479302280583824</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01476710391956648</v>
+        <v>0.01331419915490706</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02055455522784558</v>
+        <v>0.02050979958619258</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.003890160183066538</v>
+        <v>0.01102687801516189</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02982617443097383</v>
+        <v>0.02972643646807324</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.005054724705489289</v>
+        <v>0.02195910484107988</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01528712922251249</v>
+        <v>0.01517718242321006</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.008896260554885238</v>
+        <v>0.01102997109386883</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01318734810212656</v>
+        <v>0.01315192306498194</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.004398168925590085</v>
+        <v>0.01442481067435986</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01819548649366209</v>
+        <v>0.01813466143118432</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.005053617650684017</v>
+        <v>0.02700693756194261</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04311606636114237</v>
+        <v>0.04295018874826859</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.005557120873880939</v>
+        <v>0.02916574038960307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01096708109873138</v>
+        <v>0.01104584803889861</v>
       </c>
       <c r="E35" s="1">
-        <v>0.005453306066802943</v>
+        <v>-0.001694915254237261</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01021413777812658</v>
+        <v>0.01014520578524107</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.008453590641277375</v>
+        <v>-0.001808473992421678</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01060870724040115</v>
+        <v>0.01058014385251284</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.004404316229905225</v>
+        <v>0.02123424021234244</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007530056194067606</v>
+        <v>0.007553300663209566</v>
       </c>
       <c r="E38" s="1">
-        <v>0.001365103003226453</v>
+        <v>-0.001611104226050153</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01212929639887557</v>
+        <v>0.01230395140875282</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01265822784810133</v>
+        <v>0.005424528301886777</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01745020592569957</v>
+        <v>0.01734129495593846</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.007947019867549754</v>
+        <v>0.01831012778943353</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01700115616110257</v>
+        <v>0.01700667440687307</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.001392466754856159</v>
+        <v>0.001464128843338131</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03271341240825573</v>
+        <v>0.03265639446483194</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.003456451566829388</v>
+        <v>0.01645359169867566</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01139071544407685</v>
+        <v>0.01143263993802343</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001957776863317218</v>
+        <v>0.00536818087533697</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02186575811290011</v>
+        <v>0.02193527563650061</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001457339692633841</v>
+        <v>0.01124487366053706</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01275567970327908</v>
+        <v>0.01267202153154053</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.008263736263736332</v>
+        <v>0.01761811896108512</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00866405013691956</v>
+        <v>0.008694392930956805</v>
       </c>
       <c r="E46" s="1">
-        <v>0.001779647306261012</v>
+        <v>0.007235142118863003</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01317563592735627</v>
+        <v>0.0133246626546524</v>
       </c>
       <c r="E47" s="1">
-        <v>0.009574875526618065</v>
+        <v>0.007629404822121266</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01032789539052311</v>
+        <v>0.01051667703073002</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01653094462540716</v>
+        <v>0.01145557958824006</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.015790503542427</v>
+        <v>0.01611514341769959</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01880740460183694</v>
+        <v>0.01346468859277161</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008561599757080525</v>
+        <v>0.008560407418304175</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.00185551707075704</v>
+        <v>0.00501920931961819</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01083183039965534</v>
+        <v>0.01073425527472787</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.01070921210796638</v>
+        <v>0.006296255384955263</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0083875680537784</v>
+        <v>0.008391349777980015</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.001266391600964201</v>
+        <v>-0.00310863874345535</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009588564358148675</v>
+        <v>0.009741564287412841</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01421262080727681</v>
+        <v>-0.007197309417040332</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,7 +1709,7 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1353192277582051</v>
+        <v>0.1355519012728343</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04378764744637485</v>
+        <v>0.04382050172426</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.0009674688595959768</v>
+        <v>0.009320905459387241</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.001716490233220069</v>
+        <v>0.008491257913344041</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01452435408233482</v>
+        <v>0.01456162126812822</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01107888631090481</v>
+        <v>0.01067064425448905</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04997278945824203</v>
+        <v>0.05020038309659396</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0130842813791725</v>
+        <v>0.004332833074986331</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01442637678617057</v>
+        <v>0.01430862293372297</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0002595492494701368</v>
+        <v>0.003373264714786162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009855143063858013</v>
+        <v>0.009700383735200503</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007345491388044523</v>
+        <v>-0.007272263332482654</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0156058486954089</v>
+        <v>0.01555334874919603</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005098572399728107</v>
+        <v>0.003043625295908292</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02023824022042271</v>
+        <v>0.02006202225857626</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0002898550724635962</v>
+        <v>0.003406784575239019</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004647119322399005</v>
+        <v>0.004606692186571839</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0002820078962211259</v>
+        <v>-0.02491772449459329</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006618522370697349</v>
+        <v>0.006639651531127479</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01171079429735244</v>
+        <v>-0.02264720684448918</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01441679747727808</v>
+        <v>0.01430627147555802</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0007596859964549285</v>
+        <v>-0.01543522267206499</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008259423660724468</v>
+        <v>0.008175648756664267</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001737816395919856</v>
+        <v>-0.0001513775355737046</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0156963372810383</v>
+        <v>0.01554561368944291</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001192748091603191</v>
+        <v>-0.01456890374970143</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002967245534630123</v>
+        <v>0.003021314339571093</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02686786897313209</v>
+        <v>0.02437275985663079</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005814359671097082</v>
+        <v>0.005789228121629773</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004132231404958775</v>
+        <v>-0.01293356848912419</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01471887333847745</v>
+        <v>0.0146739033955046</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00541005778925352</v>
+        <v>-0.01033386327503982</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0109030944943281</v>
+        <v>0.01086420082565587</v>
       </c>
       <c r="E16" s="1">
-        <v>0.004893754024468677</v>
+        <v>-0.009611687812379865</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02125576876434498</v>
+        <v>0.02094870762819662</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.006077421059584975</v>
+        <v>-0.005117639239665128</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008787065723825529</v>
+        <v>0.008744268469236082</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003579418344519247</v>
+        <v>-0.007876356070738666</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01707026604049814</v>
+        <v>0.01688594484346462</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002398221806270473</v>
+        <v>-0.002755790090882448</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01247369551420935</v>
+        <v>0.01243921369258743</v>
       </c>
       <c r="E20" s="1">
-        <v>0.005703422053231932</v>
+        <v>-0.008954332902198825</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006929366263814605</v>
+        <v>0.00681149361860293</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008663778740420014</v>
+        <v>-0.007731092436974785</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01569309217313987</v>
+        <v>0.01554363351414611</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001113461752589084</v>
+        <v>-0.01125849960985392</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01954469201601424</v>
+        <v>0.01938681342260637</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0003448424501053537</v>
+        <v>0.002154522342396659</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009998988712048192</v>
+        <v>0.01001349895400705</v>
       </c>
       <c r="E24" s="1">
-        <v>0.009954751131221684</v>
+        <v>-0.01532258064516123</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02005476681231897</v>
+        <v>0.02020929779627578</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01626213592233006</v>
+        <v>-0.003343682827800398</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0138830396339069</v>
+        <v>0.01386750794612169</v>
       </c>
       <c r="E26" s="1">
-        <v>0.007363005616651597</v>
+        <v>-0.009089631260834841</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02107791188914238</v>
+        <v>0.02159950461558565</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03344732128317851</v>
+        <v>0.009028740703390881</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05479302280583824</v>
+        <v>0.05505506129885103</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01331419915490706</v>
+        <v>-0.001573564122738014</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02050979958619258</v>
+        <v>0.02056136677599907</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01102687801516189</v>
+        <v>-0.004544421722335712</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02972643646807324</v>
+        <v>0.03012341670257467</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02195910484107988</v>
+        <v>0.006573541495480617</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01517718242321006</v>
+        <v>0.01521538851846245</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01102997109386883</v>
+        <v>0.006320066210217412</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01315192306498194</v>
+        <v>0.01322930363601075</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01442481067435986</v>
+        <v>0.0009776039815143633</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01813466143118432</v>
+        <v>0.01846760986178386</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02700693756194261</v>
+        <v>-0.02014475271411331</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04295018874826859</v>
+        <v>0.04383068515085059</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02916574038960307</v>
+        <v>0.0007750821671805852</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01104584803889861</v>
+        <v>0.0109342804670192</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001694915254237261</v>
+        <v>-0.01154499151103572</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01014520578524107</v>
+        <v>0.01004159269103041</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.001808473992421678</v>
+        <v>-0.01164696747476479</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01058014385251284</v>
+        <v>0.0107138312640551</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02123424021234244</v>
+        <v>0.01082954299328565</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007553300663209566</v>
+        <v>0.007477636964542159</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001611104226050153</v>
+        <v>-0.004344587884806517</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01230395140875282</v>
+        <v>0.01226653621865864</v>
       </c>
       <c r="E39" s="1">
-        <v>0.005424528301886777</v>
+        <v>-0.01454374853389639</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01734129495593846</v>
+        <v>0.01751013322530289</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01831012778943353</v>
+        <v>-0.001498407941561974</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01700667440687307</v>
+        <v>0.01688817254067352</v>
       </c>
       <c r="E41" s="1">
-        <v>0.001464128843338131</v>
+        <v>-0.005778334725703105</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03265639446483194</v>
+        <v>0.0329142262615026</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01645359169867566</v>
+        <v>0.002058657642413975</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01143263993802343</v>
+        <v>0.01139723555053462</v>
       </c>
       <c r="E43" s="1">
-        <v>0.00536818087533697</v>
+        <v>-0.00565518436602519</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02193527563650061</v>
+        <v>0.02199516839207756</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01124487366053706</v>
+        <v>-0.001308215593929907</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01267202153154053</v>
+        <v>0.01278670351693687</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01761811896108512</v>
+        <v>0.000762211720638728</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008694392930956805</v>
+        <v>0.008683563720293545</v>
       </c>
       <c r="E46" s="1">
-        <v>0.007235142118863003</v>
+        <v>-0.01042201128783993</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.0133246626546524</v>
+        <v>0.01331327544469069</v>
       </c>
       <c r="E47" s="1">
-        <v>0.007629404822121266</v>
+        <v>-0.007864463501359831</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01051667703073002</v>
+        <v>0.01054758935984091</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01145557958824006</v>
+        <v>-0.01964200855377796</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01611514341769959</v>
+        <v>0.01619461614296921</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01346468859277161</v>
+        <v>0.002189463065706887</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008560407418304175</v>
+        <v>0.00853093552124486</v>
       </c>
       <c r="E50" s="1">
-        <v>0.00501920931961819</v>
+        <v>-0.006597200813860282</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01073425527472787</v>
+        <v>0.01071089194134891</v>
       </c>
       <c r="E51" s="1">
-        <v>0.006296255384955263</v>
+        <v>0.02305159165751935</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008391349777980015</v>
+        <v>0.008294830557340436</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.00310863874345535</v>
+        <v>-0.005046774987690683</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009741564287412841</v>
+        <v>0.0095900199026429</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.007197309417040332</v>
+        <v>-0.002055150296980668</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1355519012728343</v>
+        <v>0.1344105863181233</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>9.852216748762466E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04382050172426</v>
+        <v>0.04385655119066504</v>
       </c>
       <c r="E55" s="1">
-        <v>0.009320905459387241</v>
+        <v>-0.001559126888942108</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.008491257913344041</v>
+        <v>-0.00215824132275555</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01456162126812822</v>
+        <v>0.01474883469294582</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01067064425448905</v>
+        <v>0.001702900607367885</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05020038309659396</v>
+        <v>0.05052694231166139</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004332833074986331</v>
+        <v>0.001874779460272036</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01430862293372297</v>
+        <v>0.01438794235832965</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003373264714786162</v>
+        <v>-0.009331494332140866</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009700383735200503</v>
+        <v>0.009650668461718286</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007272263332482654</v>
+        <v>0.002441845521141239</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01555334874919603</v>
+        <v>0.01563443018817503</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003043625295908292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02006202225857626</v>
+        <v>0.02017390941148828</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003406784575239019</v>
+        <v>-0.002239398974210771</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004606692186571839</v>
+        <v>0.004501619481018702</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02491772449459329</v>
+        <v>0.01610414657666359</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006639651531127479</v>
+        <v>0.006503317698518657</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02264720684448918</v>
+        <v>0.01167181599725375</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01430627147555802</v>
+        <v>0.01411591654411986</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01543522267206499</v>
+        <v>0.008224106913389928</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008175648756664267</v>
+        <v>0.008192091657839518</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0001513775355737046</v>
+        <v>-0.008099924299772909</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01554561368944291</v>
+        <v>0.01535226503266276</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01456890374970143</v>
+        <v>0.009936984973339946</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003021314339571093</v>
+        <v>0.003101646209438633</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02437275985663079</v>
+        <v>0.02764170748775374</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005789228121629773</v>
+        <v>0.005726712370501061</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01293356848912419</v>
+        <v>0.0160810005955927</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0146739033955046</v>
+        <v>0.01455367562824317</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01033386327503982</v>
+        <v>-0.0001235712079084017</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01086420082565587</v>
+        <v>0.0107830499429609</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.009611687812379865</v>
+        <v>0.003105590062111752</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02094870762819662</v>
+        <v>0.0208865779756964</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005117639239665128</v>
+        <v>0.006012425679738032</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008744268469236082</v>
+        <v>0.008694159591691664</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.007876356070738666</v>
+        <v>-0.009436788496105519</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01688594484346462</v>
+        <v>0.01687583284378919</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002755790090882448</v>
+        <v>-0.00593838193791163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01243921369258743</v>
+        <v>0.01235449280904458</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.008954332902198825</v>
+        <v>0.008884650135528638</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.00681149361860293</v>
+        <v>0.006773452075971714</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.007731092436974785</v>
+        <v>0.001016260162601812</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01554363351414611</v>
+        <v>0.01540187648857701</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01125849960985392</v>
+        <v>-0.01555806087936862</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01938681342260637</v>
+        <v>0.01947060500958398</v>
       </c>
       <c r="E23" s="1">
-        <v>0.002154522342396659</v>
+        <v>-0.01096444081351844</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01001349895400705</v>
+        <v>0.009881392738879467</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01532258064516123</v>
+        <v>0.00955500955500943</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02020929779627578</v>
+        <v>0.02018528903918861</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003343682827800398</v>
+        <v>0.008547008547008517</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01386750794612169</v>
+        <v>0.01377117893983576</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.009089631260834841</v>
+        <v>0.01096978580547558</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02159950461558565</v>
+        <v>0.02184166051636548</v>
       </c>
       <c r="E27" s="1">
-        <v>0.009028740703390881</v>
+        <v>-0.003638521479769508</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05505506129885103</v>
+        <v>0.05508732036077852</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.001573564122738014</v>
+        <v>-0.0003940110323088497</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02056136677599907</v>
+        <v>0.02051219752650353</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004544421722335712</v>
+        <v>-0.0004565167769916556</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03012341670257467</v>
+        <v>0.03038701674747436</v>
       </c>
       <c r="E30" s="1">
-        <v>0.006573541495480617</v>
+        <v>0.001020408163265207</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01521538851846245</v>
+        <v>0.01534466827847589</v>
       </c>
       <c r="E31" s="1">
-        <v>0.006320066210217412</v>
+        <v>-0.004934579439252351</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01322930363601075</v>
+        <v>0.01327087841410055</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0009776039815143633</v>
+        <v>0.001953298410725557</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01846760986178386</v>
+        <v>0.01813472353761313</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02014475271411331</v>
+        <v>0.0124338298658131</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04383068515085059</v>
+        <v>0.04395953281353351</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0007750821671805852</v>
+        <v>0.00738085463863869</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0109342804670192</v>
+        <v>0.01083142111247729</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01154499151103572</v>
+        <v>0.001374098248024813</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01004159269103041</v>
+        <v>0.00994610468168761</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01164696747476479</v>
+        <v>0.001222067039106101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0107138312640551</v>
+        <v>0.0108532811602395</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01082954299328565</v>
+        <v>0.01757017355903145</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007477636964542159</v>
+        <v>0.007461252897902811</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.004344587884806517</v>
+        <v>-0.007605036778456475</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01226653621865864</v>
+        <v>0.0121142803409398</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01454374853389639</v>
+        <v>0.0007141156867411791</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01751013322530289</v>
+        <v>0.01752171198547275</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.001498407941561974</v>
+        <v>-0.007503282686175283</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01688817254067352</v>
+        <v>0.01682690354539377</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.005778334725703105</v>
+        <v>0.001190392829633735</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0329142262615026</v>
+        <v>0.03305332243126551</v>
       </c>
       <c r="E42" s="1">
-        <v>0.002058657642413975</v>
+        <v>0.008442855936734883</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01139723555053462</v>
+        <v>0.01135729386316349</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.00565518436602519</v>
+        <v>0.003948566958607458</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02199516839207756</v>
+        <v>0.02201390528986775</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.001308215593929907</v>
+        <v>-0.008514540214828337</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01278670351693687</v>
+        <v>0.01282412725359279</v>
       </c>
       <c r="E45" s="1">
-        <v>0.000762211720638728</v>
+        <v>0.002067284675980163</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008683563720293545</v>
+        <v>0.008611649539074288</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01042201128783993</v>
+        <v>0.006999578729057987</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01331327544469069</v>
+        <v>0.01323714262407887</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.007864463501359831</v>
+        <v>0.002276847830670059</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01054758935984091</v>
+        <v>0.01036277889704736</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01964200855377796</v>
+        <v>-0.0009694619486185774</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01619461614296921</v>
+        <v>0.01626517783580474</v>
       </c>
       <c r="E49" s="1">
-        <v>0.002189463065706887</v>
+        <v>0.002813776064602536</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00853093552124486</v>
+        <v>0.008492985137959406</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.006597200813860282</v>
+        <v>-0.002358490566037763</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01071089194134891</v>
+        <v>0.01098149576661788</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02305159165751935</v>
+        <v>0.01169527896995715</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008294830557340436</v>
+        <v>0.008270818836943434</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.005046774987690683</v>
+        <v>-0.001938224256670451</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.0095900199026429</v>
+        <v>0.009591010685981408</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.002055150296980668</v>
+        <v>-0.006879695845025902</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1344105863181233</v>
+        <v>0.1347145753036184</v>
       </c>
       <c r="E54" s="1">
-        <v>9.852216748762466E-05</v>
+        <v>0.000197024923652922</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04385655119066504</v>
+        <v>0.04388288311414601</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.001559126888942108</v>
+        <v>0.002522522522522497</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.00215824132275555</v>
+        <v>0.001480600569445656</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01474883469294582</v>
+        <v>0.01475210851223867</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001702900607367885</v>
+        <v>0.0145633818779396</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05052694231166139</v>
+        <v>0.05054682952072559</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001874779460272036</v>
+        <v>-0.01073454287079334</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01438794235832965</v>
+        <v>0.01423260854744168</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009331494332140866</v>
+        <v>0.02782309817485706</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009650668461718286</v>
+        <v>0.009659931403340961</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002441845521141239</v>
+        <v>-0.01448717948717948</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01563443018817503</v>
+        <v>0.01561131606471981</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.01207012811867847</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02017390941148828</v>
+        <v>0.02009897342794369</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002239398974210771</v>
+        <v>-0.02273385461917188</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004501619481018702</v>
+        <v>0.004567351797301449</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01610414657666359</v>
+        <v>0.01599126886210489</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006503317698518657</v>
+        <v>0.006569496425918264</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01167181599725375</v>
+        <v>-0.006447234475738139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01411591654411986</v>
+        <v>0.01421096658573997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008224106913389928</v>
+        <v>0.009431557481519137</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008192091657839518</v>
+        <v>0.008113723152434398</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.008099924299772909</v>
+        <v>0.0139662672670382</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01535226503266276</v>
+        <v>0.01548189775296992</v>
       </c>
       <c r="E12" s="1">
-        <v>0.009936984973339946</v>
+        <v>0.01295896328293722</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003101646209438633</v>
+        <v>0.003182668745533443</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02764170748775374</v>
+        <v>0.02145045965270675</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005726712370501061</v>
+        <v>0.005810201048560784</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0160810005955927</v>
+        <v>0.004103165298944944</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01455367562824317</v>
+        <v>0.01453036354842223</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0001235712079084017</v>
+        <v>0.01557189643452994</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0107830499429609</v>
+        <v>0.0108005463805816</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003105590062111752</v>
+        <v>0.01599587203302399</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0208865779756964</v>
+        <v>0.02098109235618916</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006012425679738032</v>
+        <v>0.001195298492595809</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008694159591691664</v>
+        <v>0.008599382396001085</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.009436788496105519</v>
+        <v>-0.006351126568879595</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01687583284378919</v>
+        <v>0.01675081643449083</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.00593838193791163</v>
+        <v>-0.001537824569704749</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01235449280904458</v>
+        <v>0.01244583085100961</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008884650135528638</v>
+        <v>-0.008905915717199897</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006773452075971714</v>
+        <v>0.006770311538360795</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001016260162601812</v>
+        <v>0.005414551607444862</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01540187648857701</v>
+        <v>0.01513983710507213</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01555806087936862</v>
+        <v>-0.01030691708657805</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01947060500958398</v>
+        <v>0.01922865076208499</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01096444081351844</v>
+        <v>0.003391009477436757</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009881392738879467</v>
+        <v>0.009961061188048953</v>
       </c>
       <c r="E24" s="1">
-        <v>0.00955500955500943</v>
+        <v>0.02361636920858134</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02018528903918861</v>
+        <v>0.02032771564976383</v>
       </c>
       <c r="E25" s="1">
-        <v>0.008547008547008517</v>
+        <v>0.02708696340883887</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01377117893983576</v>
+        <v>0.01390166301292146</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01096978580547558</v>
+        <v>-0.004723820214208918</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02184166051636548</v>
+        <v>0.02173001569181549</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.003638521479769508</v>
+        <v>0.01200551689549267</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05508732036077852</v>
+        <v>0.05498420570254235</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0003940110323088497</v>
+        <v>-0.01237682301931409</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02051219752650353</v>
+        <v>0.02047252173685814</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0004565167769916556</v>
+        <v>-0.01073304407398956</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03038701674747436</v>
+        <v>0.03037305354704321</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001020408163265207</v>
+        <v>0.004811416921508771</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01534466827847589</v>
+        <v>0.01524637500237628</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.004934579439252351</v>
+        <v>0.004132541888947294</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01327087841410055</v>
+        <v>0.01327714225543174</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001953298410725557</v>
+        <v>0.005848471422241985</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01813472353761313</v>
+        <v>0.01833306366024832</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0124338298658131</v>
+        <v>0.02054961089494189</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04395953281353351</v>
+        <v>0.04421852176670485</v>
       </c>
       <c r="E34" s="1">
-        <v>0.00738085463863869</v>
+        <v>-0.007406598300221612</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01083142111247729</v>
+        <v>0.01083026924643804</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001374098248024813</v>
+        <v>-0.003430531732418474</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00994610468168761</v>
+        <v>0.009943537081721099</v>
       </c>
       <c r="E36" s="1">
-        <v>0.001222067039106101</v>
+        <v>-0.02074978204010458</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0108532811602395</v>
+        <v>0.01102764765251592</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01757017355903145</v>
+        <v>0.01179195620130558</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007461252897902811</v>
+        <v>0.007393562881787889</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.007605036778456475</v>
+        <v>-0.001130653266331549</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0121142803409398</v>
+        <v>0.01210500865585584</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0007141156867411791</v>
+        <v>0.01213130352045666</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01752171198547275</v>
+        <v>0.01736453169178899</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.007503282686175283</v>
+        <v>0.0001890001890003656</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01682690354539377</v>
+        <v>0.01682202746727187</v>
       </c>
       <c r="E41" s="1">
-        <v>0.001190392829633735</v>
+        <v>0.01126031612812994</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03305332243126551</v>
+        <v>0.03328310788229968</v>
       </c>
       <c r="E42" s="1">
-        <v>0.008442855936734883</v>
+        <v>-0.006976809086596147</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01135729386316349</v>
+        <v>0.01138528184366974</v>
       </c>
       <c r="E43" s="1">
-        <v>0.003948566958607458</v>
+        <v>0.001446729358272281</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02201390528986775</v>
+        <v>0.02179419850527423</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.008514540214828337</v>
+        <v>-0.0009248249438498224</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01282412725359279</v>
+        <v>0.01283163984208984</v>
       </c>
       <c r="E45" s="1">
-        <v>0.002067284675980163</v>
+        <v>0.01561380268844048</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008611649539074288</v>
+        <v>0.008659106779581356</v>
       </c>
       <c r="E46" s="1">
-        <v>0.006999578729057987</v>
+        <v>0.01557522123893795</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01323714262407887</v>
+        <v>0.01324766708012411</v>
       </c>
       <c r="E47" s="1">
-        <v>0.002276847830670059</v>
+        <v>0.01501829960876711</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01036277889704736</v>
+        <v>0.01033742697695605</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.0009694619486185774</v>
+        <v>0.01172569949862523</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01626517783580474</v>
+        <v>0.01628683011394446</v>
       </c>
       <c r="E49" s="1">
-        <v>0.002813776064602536</v>
+        <v>-0.0003421806029222374</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008492985137959406</v>
+        <v>0.008460427998122256</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.002358490566037763</v>
+        <v>0.002923976608187218</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01098149576661788</v>
+        <v>0.01109350237717908</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01169527896995715</v>
+        <v>0.01368119630925846</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008270818836943434</v>
+        <v>0.008242584160449479</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.001938224256670451</v>
+        <v>-0.004462441120568594</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009591010685981408</v>
+        <v>0.009510945538235586</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.006879695845025902</v>
+        <v>0.001184942120135091</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1347145753036184</v>
+        <v>0.1345419145971657</v>
       </c>
       <c r="E54" s="1">
-        <v>0.000197024923652922</v>
+        <v>9.849305623954585E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04388288311414601</v>
+        <v>0.04392853805669301</v>
       </c>
       <c r="E55" s="1">
-        <v>0.002522522522522497</v>
+        <v>0.0009585430146179519</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.001480600569445656</v>
+        <v>0.001287278743451026</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01475210851223867</v>
+        <v>0.01494770723621869</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0145633818779396</v>
+        <v>-0.00217828418230559</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05054682952072559</v>
+        <v>0.04993994578159893</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01073454287079334</v>
+        <v>-0.002179492339270173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01423260854744168</v>
+        <v>0.01460979693130566</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02782309817485706</v>
+        <v>-0.006307145275990522</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009659931403340961</v>
+        <v>0.009507747122498019</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01448717948717948</v>
+        <v>0.004813321191622144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01561131606471981</v>
+        <v>0.01540305745127627</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01207012811867847</v>
+        <v>0.009760425909494108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02009897342794369</v>
+        <v>0.01961679400609951</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02273385461917188</v>
+        <v>-0.0009631056452806819</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004567351797301449</v>
+        <v>0.004634423752694925</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01599126886210489</v>
+        <v>-0.005744710662743513</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006569496425918264</v>
+        <v>0.006518749893900553</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006447234475738139</v>
+        <v>-0.003244535519125735</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01421096658573997</v>
+        <v>0.01432655586313185</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009431557481519137</v>
+        <v>0.004797979797979801</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008113723152434398</v>
+        <v>0.008216464698159795</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0139662672670382</v>
+        <v>-0.01678458527773607</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01548189775296992</v>
+        <v>0.01566236526761967</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01295896328293722</v>
+        <v>-0.001658374792703032</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003182668745533443</v>
+        <v>0.003246758969241225</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02145045965270675</v>
+        <v>-0.01466666666666672</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005810201048560784</v>
+        <v>0.005826540881658324</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004103165298944944</v>
+        <v>0.002335084646818641</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01453036354842223</v>
+        <v>0.01473765739166578</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01557189643452994</v>
+        <v>-0.0006693033160936057</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0108005463805816</v>
+        <v>0.01095920298931881</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01599587203302399</v>
+        <v>-0.0006348400203149973</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02098109235618916</v>
+        <v>0.02097916499110712</v>
       </c>
       <c r="E17" s="1">
-        <v>0.001195298492595809</v>
+        <v>0.007826490681169807</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008599382396001085</v>
+        <v>0.008533781274753635</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006351126568879595</v>
+        <v>0.0001521838380764695</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01675081643449083</v>
+        <v>0.01670355448678434</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001537824569704749</v>
+        <v>0.002606480658728705</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01244583085100961</v>
+        <v>0.01231913117472099</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.008905915717199897</v>
+        <v>0.002710843373493921</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006770311538360795</v>
+        <v>0.006798218537367242</v>
       </c>
       <c r="E21" s="1">
-        <v>0.005414551607444862</v>
+        <v>-0.009424436216761922</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01513983710507213</v>
+        <v>0.01496452853983076</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01030691708657805</v>
+        <v>0.0002314279102058059</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01922865076208499</v>
+        <v>0.01926905065973678</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003391009477436757</v>
+        <v>0.004159445407278861</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009961061188048953</v>
+        <v>0.01018319667415617</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02361636920858134</v>
+        <v>-0.008277562522014836</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02032771564976383</v>
+        <v>0.02085149005983096</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02708696340883887</v>
+        <v>-0.0008482418260334912</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01390166301292146</v>
+        <v>0.01381820617309066</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004723820214208918</v>
+        <v>0.008458646616541277</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02173001569181549</v>
+        <v>0.02196262374364729</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01200551689549267</v>
+        <v>0.006427133343658076</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05498420570254235</v>
+        <v>0.05423386182220543</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01237682301931409</v>
+        <v>-0.00534802043422733</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02047252173685814</v>
+        <v>0.02022675179112097</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01073304407398956</v>
+        <v>0.007156048014773875</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03037305354704321</v>
+        <v>0.03047995477295677</v>
       </c>
       <c r="E30" s="1">
-        <v>0.004811416921508771</v>
+        <v>0.01119993507284023</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01524637500237628</v>
+        <v>0.01528969918097876</v>
       </c>
       <c r="E31" s="1">
-        <v>0.004132541888947294</v>
+        <v>0.006734510625561185</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01327714225543174</v>
+        <v>0.01333762400261497</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005848471422241985</v>
+        <v>0.003259624702669273</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01833306366024832</v>
+        <v>0.0186857472197771</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02054961089494189</v>
+        <v>0.002502085070892335</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04421852176670485</v>
+        <v>0.04383458560826776</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.007406598300221612</v>
+        <v>-0.002467536864916076</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01083026924643804</v>
+        <v>0.01077923977788087</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003430531732418474</v>
+        <v>0.002065404475042998</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009943537081721099</v>
+        <v>0.009724692464671319</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.02074978204010458</v>
+        <v>0.007834757834757733</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01102764765251592</v>
+        <v>0.01114334060514578</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01179195620130558</v>
+        <v>-0.007700312174817925</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007393562881787889</v>
+        <v>0.007375708732696281</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001130653266331549</v>
+        <v>-0.0001257703433531487</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01210500865585584</v>
+        <v>0.0122361069096504</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01213130352045666</v>
+        <v>-0.003760282021151529</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01736453169178899</v>
+        <v>0.01734548511727432</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0001890001890003656</v>
+        <v>-0.0003779289493576199</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01682202746727187</v>
+        <v>0.0169895784912175</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01126031612812994</v>
+        <v>0.00456463102565885</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03328310788229968</v>
+        <v>0.03300840697214586</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.006976809086596147</v>
+        <v>0.008627715482112386</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01138528184366974</v>
+        <v>0.01138709489995081</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001446729358272281</v>
+        <v>0.002700443710659473</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02179419850527423</v>
+        <v>0.0217460494596419</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.0009248249438498224</v>
+        <v>0.001939522172264674</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01283163984208984</v>
+        <v>0.01301523629772631</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01561380268844048</v>
+        <v>0.009942695860417405</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008659106779581356</v>
+        <v>0.008782668540881472</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01557522123893795</v>
+        <v>-0.002471561202826433</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01324766708012411</v>
+        <v>0.01342933721311754</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01501829960876711</v>
+        <v>-0.0008289124668433567</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01033742697695605</v>
+        <v>0.01044519466221694</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01172569949862523</v>
+        <v>0.002317960195028501</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01628683011394446</v>
+        <v>0.01626032550521193</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.0003421806029222374</v>
+        <v>0.0006960053854843107</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008460427998122256</v>
+        <v>0.008474257360317549</v>
       </c>
       <c r="E50" s="1">
-        <v>0.002923976608187218</v>
+        <v>-0.02059425593945807</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01109350237717908</v>
+        <v>0.01123081756823133</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01368119630925846</v>
+        <v>-0.003034107553881449</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008242584160449479</v>
+        <v>0.008195252539560752</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.004462441120568594</v>
+        <v>0.003942890346144257</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009510945538235586</v>
+        <v>0.009509973471505499</v>
       </c>
       <c r="E53" s="1">
-        <v>0.001184942120135091</v>
+        <v>-0.003778222869628478</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1345419145971657</v>
+        <v>0.1343821787193626</v>
       </c>
       <c r="E54" s="1">
-        <v>9.849305623954585E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04392853805669301</v>
+        <v>0.04391411574225718</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0009585430146179519</v>
+        <v>0.001197031362221601</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.001287278743451026</v>
+        <v>0.0008159092921096178</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01494770723621869</v>
+        <v>0.01466464137559467</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00217828418230559</v>
+        <v>-0.001644643566041104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04993994578159893</v>
+        <v>0.05027085426997394</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002179492339270173</v>
+        <v>0.00522041230228143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01460979693130566</v>
+        <v>0.01358376202582542</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006307145275990522</v>
+        <v>0.01634920634920634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009507747122498019</v>
+        <v>0.009399593695693619</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004813321191622144</v>
+        <v>0.007733647922401277</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01540305745127627</v>
+        <v>0.01532895202323861</v>
       </c>
       <c r="E6" s="1">
-        <v>0.009760425909494108</v>
+        <v>-0.00184464029514253</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01961679400609951</v>
+        <v>0.01952082089873653</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009631056452806819</v>
+        <v>-0.0003708098487097411</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004634423752694925</v>
+        <v>0.005157517264408635</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.005744710662743513</v>
+        <v>-0.009657190635451451</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006518749893900553</v>
+        <v>0.00688946232379211</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003244535519125735</v>
+        <v>0.00836954772251719</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01432655586313185</v>
+        <v>0.01436496695212697</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004797979797979801</v>
+        <v>-0.01028600100351218</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008216464698159795</v>
+        <v>0.007991317959138655</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01678458527773607</v>
+        <v>-0.00323774283071232</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01566236526761967</v>
+        <v>0.01540601908126268</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001658374792703032</v>
+        <v>-0.01271593090211143</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003246758969241225</v>
+        <v>0.003350661299703604</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01466666666666672</v>
+        <v>-0.02027027027027017</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005826540881658324</v>
+        <v>0.006132714329573337</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002335084646818641</v>
+        <v>-0.01602209944751398</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01473765739166578</v>
+        <v>0.01473884383074255</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0006693033160936057</v>
+        <v>-0.01248484848484843</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01095920298931881</v>
+        <v>0.01096126429594157</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0006348400203149973</v>
+        <v>-0.01188669701568024</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02097916499110712</v>
+        <v>0.02191143980655594</v>
       </c>
       <c r="E17" s="1">
-        <v>0.007826490681169807</v>
+        <v>0.01537196356275294</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008533781274753635</v>
+        <v>0.008240815629000756</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0001521838380764695</v>
+        <v>0.02668759811616961</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01670355448678434</v>
+        <v>0.01610485897432827</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002606480658728705</v>
+        <v>0.01346471632290847</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01231913117472099</v>
+        <v>0.0135960828984112</v>
       </c>
       <c r="E20" s="1">
-        <v>0.002710843373493921</v>
+        <v>0.02401449932034438</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006798218537367242</v>
+        <v>0.006605589419415676</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.009424436216761922</v>
+        <v>0.001035196687370732</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01496452853983076</v>
+        <v>0.01480155707220418</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0002314279102058059</v>
+        <v>-0.01002214194149886</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01926905065973678</v>
+        <v>0.01935103927450444</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004159445407278861</v>
+        <v>-0.00154718927282127</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01018319667415617</v>
+        <v>0.01016176287385013</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008277562522014836</v>
+        <v>-0.01503164556962033</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02085149005983096</v>
+        <v>0.0215510542834218</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0008482418260334912</v>
+        <v>-0.01404682274247504</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01381820617309066</v>
+        <v>0.01356823772636733</v>
       </c>
       <c r="E26" s="1">
-        <v>0.008458646616541277</v>
+        <v>-0.04147597254004576</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02196262374364729</v>
+        <v>0.02160172387193083</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006427133343658076</v>
+        <v>-0.005427025331346313</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05423386182220543</v>
+        <v>0.05465415870327345</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.00534802043422733</v>
+        <v>0.003077165851349317</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02022675179112097</v>
+        <v>0.02000450755427289</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007156048014773875</v>
+        <v>-0.005812601720530108</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03047995477295677</v>
+        <v>0.03057301323436117</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01119993507284023</v>
+        <v>-0.003103086967034652</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01528969918097876</v>
+        <v>0.01529451518436135</v>
       </c>
       <c r="E31" s="1">
-        <v>0.006734510625561185</v>
+        <v>-0.009761549925484392</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01333762400261497</v>
+        <v>0.01305322525228162</v>
       </c>
       <c r="E32" s="1">
-        <v>0.003259624702669273</v>
+        <v>-0.001165710186513791</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0186857472197771</v>
+        <v>0.01785959764799545</v>
       </c>
       <c r="E33" s="1">
-        <v>0.002502085070892335</v>
+        <v>-0.02322115981621764</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04383458560826776</v>
+        <v>0.04432631046696697</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.002467536864916076</v>
+        <v>0.003960907923483692</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01077923977788087</v>
+        <v>0.0106821965318736</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002065404475042998</v>
+        <v>0.003114186851211009</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009724692464671319</v>
+        <v>0.009688887784007795</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007834757834757733</v>
+        <v>0.01477657112337538</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01114334060514578</v>
+        <v>0.01086700962066034</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.007700312174817925</v>
+        <v>-0.0110544217687073</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007375708732696281</v>
+        <v>0.007237280556888754</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0001257703433531487</v>
+        <v>-0.01174668028600612</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0122361069096504</v>
+        <v>0.01228341713312192</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.003760282021151529</v>
+        <v>-0.01305970149253732</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01734548511727432</v>
+        <v>0.01767361407631306</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0003779289493576199</v>
+        <v>-0.002032144836504823</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0169895784912175</v>
+        <v>0.01722014436079333</v>
       </c>
       <c r="E41" s="1">
-        <v>0.00456463102565885</v>
+        <v>-0.004825992387167077</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03300840697214586</v>
+        <v>0.03366278005706084</v>
       </c>
       <c r="E42" s="1">
-        <v>0.008627715482112386</v>
+        <v>0.0001098026297727817</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01138709489995081</v>
+        <v>0.01148696697512634</v>
       </c>
       <c r="E43" s="1">
-        <v>0.002700443710659473</v>
+        <v>-0.003349341289419883</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.0217460494596419</v>
+        <v>0.02215770324736428</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001939522172264674</v>
+        <v>0.001120448179271705</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01301523629772631</v>
+        <v>0.01284996165679767</v>
       </c>
       <c r="E45" s="1">
-        <v>0.009942695860417405</v>
+        <v>0.0008629430673312566</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008782668540881472</v>
+        <v>0.008388111660763786</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.002471561202826433</v>
+        <v>-0.03129750809703202</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01342933721311754</v>
+        <v>0.01331541342090707</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.0008289124668433567</v>
+        <v>-0.02294303797468356</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01044519466221694</v>
+        <v>0.01068265856459556</v>
       </c>
       <c r="E48" s="1">
-        <v>0.002317960195028501</v>
+        <v>-0.0133125729855974</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01626032550521193</v>
+        <v>0.01634708732936476</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0006960053854843107</v>
+        <v>-0.01535295979740414</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008474257360317549</v>
+        <v>0.008486586234905655</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.02059425593945807</v>
+        <v>-0.0004319121367311052</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01123081756823133</v>
+        <v>0.01087261561768687</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.003034107553881449</v>
+        <v>-0.02379158144041338</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008195252539560752</v>
+        <v>0.008106364106908402</v>
       </c>
       <c r="E52" s="1">
-        <v>0.003942890346144257</v>
+        <v>0.01713688610240327</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009509973471505499</v>
+        <v>0.009106079708518809</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.003778222869628478</v>
+        <v>0.0009944829872374772</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1343821787193626</v>
+        <v>0.1337844700505594</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>9.854158454869477E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04391411574225718</v>
+        <v>0.04407976980652546</v>
       </c>
       <c r="E55" s="1">
-        <v>0.001197031362221601</v>
+        <v>-0.001306723687336753</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0008159092921096178</v>
+        <v>-0.002425026792646001</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01466464137559467</v>
+        <v>0.01467611323531555</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001644643566041104</v>
+        <v>0.003010679391047377</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05027085426997394</v>
+        <v>0.05065613133174238</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00522041230228143</v>
+        <v>0.02087682672233826</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01358376202582542</v>
+        <v>0.01383940668619249</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01634920634920634</v>
+        <v>0.03725932040784485</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009399593695693619</v>
+        <v>0.00949531323294419</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007733647922401277</v>
+        <v>0.002081165452653577</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01532895202323861</v>
+        <v>0.01533787036723692</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00184464029514253</v>
+        <v>0.01026694045174548</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01952082089873653</v>
+        <v>0.01956101837975472</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0003708098487097411</v>
+        <v>0.007418947993174552</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.005157517264408635</v>
+        <v>0.005120126581121568</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.009657190635451451</v>
+        <v>-0.01194647304656171</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.00688946232379211</v>
+        <v>0.006964011922991131</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00836954772251719</v>
+        <v>0.001596169193934571</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01436496695212697</v>
+        <v>0.01425176981127694</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01028600100351218</v>
+        <v>-0.006844106463878341</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.007991317959138655</v>
+        <v>0.007984807498827289</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.00323774283071232</v>
+        <v>0.002706883217324041</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01540601908126268</v>
+        <v>0.01524709181330594</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01271593090211143</v>
+        <v>-0.01822600243013361</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003350661299703604</v>
+        <v>0.003290722579998137</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02027027027027017</v>
+        <v>-0.02036124794745486</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006132714329573337</v>
+        <v>0.006049124660074455</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01602209944751398</v>
+        <v>0.01122964626614276</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01473884383074255</v>
+        <v>0.01459021325673188</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01248484848484843</v>
+        <v>-0.0155885602062108</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01096126429594157</v>
+        <v>0.01085730031250054</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01188669701568024</v>
+        <v>-0.0159969285897108</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02191143980655594</v>
+        <v>0.02230234544611545</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01537196356275294</v>
+        <v>0.01675908043112573</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008240815629000756</v>
+        <v>0.008481310610123279</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02668759811616961</v>
+        <v>0.03042813455657489</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01610485897432827</v>
+        <v>0.01636138312427917</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01346471632290847</v>
+        <v>0.008998127906274522</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0135960828984112</v>
+        <v>0.01395643074040965</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02401449932034438</v>
+        <v>0.03336283185840716</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006605589419415676</v>
+        <v>0.006628501798156417</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001035196687370732</v>
+        <v>0.005860048259220818</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01480155707220418</v>
+        <v>0.01468883458368955</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01002214194149886</v>
+        <v>0.006474396703943563</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01935103927450444</v>
+        <v>0.01936806763706264</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.00154718927282127</v>
+        <v>0.00154958677685979</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01016176287385013</v>
+        <v>0.01003334598881065</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01503164556962033</v>
+        <v>-0.01481481481481473</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0215510542834218</v>
+        <v>0.02129998347459794</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01404682274247504</v>
+        <v>-0.0001507613447913059</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01356823772636733</v>
+        <v>0.0130370971809739</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.04147597254004576</v>
+        <v>0.01064358897841422</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02160172387193083</v>
+        <v>0.02153671788717918</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.005427025331346313</v>
+        <v>0.01053478212871961</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05465415870327345</v>
+        <v>0.05495560743450419</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003077165851349317</v>
+        <v>-0.008023283253362656</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02000450755427289</v>
+        <v>0.01993657605032021</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005812601720530108</v>
+        <v>0.00654817586529477</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03057301323436117</v>
+        <v>0.03055223249783304</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.003103086967034652</v>
+        <v>0.01305736346363751</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01529451518436135</v>
+        <v>0.0151820338496554</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.009761549925484392</v>
+        <v>0.01000827752276345</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01305322525228162</v>
+        <v>0.01306970335544707</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001165710186513791</v>
+        <v>0.007361522578328339</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01785959764799545</v>
+        <v>0.01748728420949664</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02322115981621764</v>
+        <v>0.007882023900330548</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04432631046696697</v>
+        <v>0.04461006350052478</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003960907923483692</v>
+        <v>0.01129180959658482</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0106821965318736</v>
+        <v>0.0107415113406498</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003114186851211009</v>
+        <v>0.003104518799586176</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009688887784007795</v>
+        <v>0.009855957283935308</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01477657112337538</v>
+        <v>0.01964912280701747</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01086700962066034</v>
+        <v>0.0107730059409932</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0110544217687073</v>
+        <v>-0.005159071367153989</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007237280556888754</v>
+        <v>0.007169653136998052</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01174668028600612</v>
+        <v>-0.005943152454780387</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01228341713312192</v>
+        <v>0.01215246943603422</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01305970149253732</v>
+        <v>-0.0148865784499056</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01767361407631306</v>
+        <v>0.01768057459983948</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.002032144836504823</v>
+        <v>0.01869677897075173</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01722014436079333</v>
+        <v>0.01717869888024962</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.004825992387167077</v>
+        <v>0.002800355166996837</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03366278005706084</v>
+        <v>0.03374831689150518</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0001098026297727817</v>
+        <v>0.01756649191666915</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01148696697512634</v>
+        <v>0.0114763235945442</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.003349341289419883</v>
+        <v>0.001656272364788824</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02215770324736428</v>
+        <v>0.02223645380186759</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001120448179271705</v>
+        <v>0.007059532521200174</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01284996165679767</v>
+        <v>0.01289231465057173</v>
       </c>
       <c r="E45" s="1">
-        <v>0.0008629430673312566</v>
+        <v>0.01021705860797972</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008388111660763786</v>
+        <v>0.00814533732940116</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.03129750809703202</v>
+        <v>-0.0009211558800451547</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01331541342090707</v>
+        <v>0.01304154347749297</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.02294303797468356</v>
+        <v>-0.03801406349882808</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01068265856459556</v>
+        <v>0.01056606789050155</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.0133125729855974</v>
+        <v>-0.01396559886381565</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01634708732936476</v>
+        <v>0.01613523954298988</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.01535295979740414</v>
+        <v>-0.004018646519852065</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008486586234905655</v>
+        <v>0.00850354209271862</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.0004319121367311052</v>
+        <v>0.009197530864197612</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01087261561768687</v>
+        <v>0.01063974055365778</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02379158144041338</v>
+        <v>-0.03131892368769296</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008106364106908402</v>
+        <v>0.008265325581297689</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01713688610240327</v>
+        <v>0.008465173618245281</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009106079708518809</v>
+        <v>0.009137293731981692</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0009944829872374772</v>
+        <v>-0.00423418095801309</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1337844700505594</v>
+        <v>0.134122905022413</v>
       </c>
       <c r="E54" s="1">
-        <v>9.854158454869477E-05</v>
+        <v>-9.853187506159156E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04407976980652546</v>
+        <v>0.04412918418116385</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.001306723687336753</v>
+        <v>0.004995836802664355</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.002425026792646001</v>
+        <v>0.004231348959430559</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01467611323531555</v>
+        <v>0.01471438288020881</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003010679391047377</v>
+        <v>0.00451009132934943</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05065613133174238</v>
+        <v>0.05141351488013729</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02087682672233826</v>
+        <v>0.01106718895193337</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01383940668619249</v>
+        <v>0.01429113307009669</v>
       </c>
       <c r="E4" s="1">
-        <v>0.03725932040784485</v>
+        <v>0.01057723315059644</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00949531323294419</v>
+        <v>0.009491168070545567</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002081165452653577</v>
+        <v>0.006733134792179074</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01533787036723692</v>
+        <v>0.01542778739463995</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01026694045174548</v>
+        <v>0.005958426433746444</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01956101837975472</v>
+        <v>0.01947397692661771</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007418947993174552</v>
+        <v>0.0003707548568883112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.005120126581121568</v>
+        <v>0.005061577378551177</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01194647304656171</v>
+        <v>-0.01822817080943273</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006964011922991131</v>
+        <v>0.006876334676307602</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001596169193934571</v>
+        <v>-0.001608492842206766</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01425176981127694</v>
+        <v>0.01418098857465158</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006844106463878341</v>
+        <v>-0.005576679340938084</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.007984807498827289</v>
+        <v>0.00797218791578779</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002706883217324041</v>
+        <v>-0.001695699090488723</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01524709181330594</v>
+        <v>0.01495753031032113</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01822600243013361</v>
+        <v>-0.02538821789499623</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.003290722579998137</v>
+        <v>0.00321846209772757</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02036124794745486</v>
+        <v>-0.03942532576010682</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006049124660074455</v>
+        <v>0.006052877837557238</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01122964626614276</v>
+        <v>-0.01340033500837501</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01459021325673188</v>
+        <v>0.01428163944412946</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0155885602062108</v>
+        <v>-0.01696924324661553</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01085730031250054</v>
+        <v>0.01057387156273133</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0159969285897108</v>
+        <v>-0.01725941422594157</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02230234544611545</v>
+        <v>0.02241279182837835</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01675908043112573</v>
+        <v>-0.001665535747332081</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008481310610123279</v>
+        <v>0.008689525064923804</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03042813455657489</v>
+        <v>-0.0007425007425007069</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01636138312427917</v>
+        <v>0.01621818552290246</v>
       </c>
       <c r="E19" s="1">
-        <v>0.008998127906274522</v>
+        <v>0.002485451018428675</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01395643074040965</v>
+        <v>0.0137697517346145</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03336283185840716</v>
+        <v>0.008969610424383045</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006628501798156417</v>
+        <v>0.006666061614431343</v>
       </c>
       <c r="E21" s="1">
-        <v>0.005860048259220818</v>
+        <v>-0.00784447476125516</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01468883458368955</v>
+        <v>0.01470535010987105</v>
       </c>
       <c r="E22" s="1">
-        <v>0.006474396703943563</v>
+        <v>-0.009945009945009797</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01936806763706264</v>
+        <v>0.01930754659695907</v>
       </c>
       <c r="E23" s="1">
-        <v>0.00154958677685979</v>
+        <v>-0.001374865735767949</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01003334598881065</v>
+        <v>0.009807099966406696</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01481481481481473</v>
+        <v>-0.01408194785136729</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02129998347459794</v>
+        <v>0.0213188127351247</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0001507613447913059</v>
+        <v>-0.0005245803357314394</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0130370971809739</v>
+        <v>0.01311042094737539</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01064358897841422</v>
+        <v>-0.01038385826771637</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02153671788717918</v>
+        <v>0.02170080060454427</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01053478212871961</v>
+        <v>0.01266138200619826</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05495560743450419</v>
+        <v>0.05477730011969342</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.008023283253362656</v>
+        <v>0.02457793482528459</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01993657605032021</v>
+        <v>0.02002313249470308</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00654817586529477</v>
+        <v>-0.03938832252085256</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03055223249783304</v>
+        <v>0.03090559298693252</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01305736346363751</v>
+        <v>0.01351996182599025</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0151820338496554</v>
+        <v>0.01530329492726377</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01000827752276345</v>
+        <v>0.01998217203981567</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01306970335544707</v>
+        <v>0.01314139044567627</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007361522578328339</v>
+        <v>-0.0009772565742713901</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01748728420949664</v>
+        <v>0.01755085710851681</v>
       </c>
       <c r="E33" s="1">
-        <v>0.007882023900330548</v>
+        <v>0.01449458028737061</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04461006350052478</v>
+        <v>0.04479885403024699</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01129180959658482</v>
+        <v>0.007698954818533554</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0107415113406498</v>
+        <v>0.01081351649005962</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003104518799586176</v>
+        <v>-0.002386634844868674</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009855957283935308</v>
+        <v>0.009929165260800966</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01964912280701747</v>
+        <v>-0.0001732801940738105</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0107730059409932</v>
+        <v>0.01071489338535144</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.005159071367153989</v>
+        <v>-0.01290322580645165</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007169653136998052</v>
+        <v>0.007131280010534546</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.005943152454780387</v>
+        <v>-0.0002584981258887398</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01215246943603422</v>
+        <v>0.01196067832295497</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.0148865784499056</v>
+        <v>-0.01194457716196851</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01768057459983948</v>
+        <v>0.0178370177307137</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01869677897075173</v>
+        <v>-0.0109549023187876</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01717869888024962</v>
+        <v>0.01711906610740504</v>
       </c>
       <c r="E41" s="1">
-        <v>0.002800355166996837</v>
+        <v>-0.004296528677623868</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03374831689150518</v>
+        <v>0.03451716493660439</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01756649191666915</v>
+        <v>0.01236348100082774</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.0114763235945442</v>
+        <v>0.01146719411491048</v>
       </c>
       <c r="E43" s="1">
-        <v>0.001656272364788824</v>
+        <v>-0.004072490327835521</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02223645380186759</v>
+        <v>0.02237841199841932</v>
       </c>
       <c r="E44" s="1">
-        <v>0.007059532521200174</v>
+        <v>-0.003745318352059934</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01289231465057173</v>
+        <v>0.01301548468770303</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01021705860797972</v>
+        <v>0.01089866156787767</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00814533732940116</v>
+        <v>0.008187284599919244</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.0009211558800451547</v>
+        <v>-0.01046978959100275</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01304154347749297</v>
+        <v>0.01220530049108161</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.03801406349882808</v>
+        <v>-0.007657453556864535</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01056606789050155</v>
+        <v>0.01039662648763429</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01396559886381565</v>
+        <v>-0.02577196202026655</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01613523954298988</v>
+        <v>0.01623428474622554</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.004018646519852065</v>
+        <v>-0.004405786569164016</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.00850354209271862</v>
+        <v>0.008575693724442866</v>
       </c>
       <c r="E50" s="1">
-        <v>0.009197530864197612</v>
+        <v>-0.02204762774834035</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01063974055365778</v>
+        <v>0.01035923573422935</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.03131892368769296</v>
+        <v>-0.008452609038656633</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008265325581297689</v>
+        <v>0.00820028072867051</v>
       </c>
       <c r="E52" s="1">
-        <v>0.008465173618245281</v>
+        <v>0.0003297065611607142</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009137293731981692</v>
+        <v>0.009015134929003962</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.00423418095801309</v>
+        <v>-0.00968557660193714</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,7 +1709,7 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.134122905022413</v>
+        <v>0.1334567852911105</v>
       </c>
       <c r="E54" s="1">
         <v>-9.853187506159156E-05</v>
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04412918418116385</v>
+        <v>0.04429129836364913</v>
       </c>
       <c r="E55" s="1">
-        <v>0.004995836802664355</v>
+        <v>0.001533018867924563</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>0.004231348959430559</v>
+        <v>0.0005265736422408462</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01471438288020881</v>
+        <v>0.01426826839319593</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00451009132934943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05141351488013729</v>
+        <v>0.05591746562479984</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01106718895193337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01429113307009669</v>
+        <v>0.01573162670698091</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01057723315059644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009491168070545567</v>
+        <v>0.008876841001099971</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006733134792179074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01542778739463995</v>
+        <v>0.01542682758047619</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005958426433746444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01947397692661771</v>
+        <v>0.01944489424475253</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0003707548568883112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.005061577378551177</v>
+        <v>0.004526592577672236</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01822817080943273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006876334676307602</v>
+        <v>0.006721888662102477</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001608492842206766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01418098857465158</v>
+        <v>0.01364093227926092</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005576679340938084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.00797218791578779</v>
+        <v>0.008192883687881135</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001695699090488723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01495753031032113</v>
+        <v>0.01362559800497879</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02538821789499623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.00321846209772757</v>
+        <v>0.002664330156520169</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.03942532576010682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.006052877837557238</v>
+        <v>0.005599139873294584</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01340033500837501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01428163944412946</v>
+        <v>0.01353581339504512</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01696924324661553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.01057387156273133</v>
+        <v>0.009338846864143921</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01725941422594157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02241279182837835</v>
+        <v>0.0222976777641765</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001665535747332081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008689525064923804</v>
+        <v>0.008516911507533299</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0007425007425007069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01621818552290246</v>
+        <v>0.01635363842012352</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002485451018428675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0137697517346145</v>
+        <v>0.01432537639483791</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008969610424383045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006666061614431343</v>
+        <v>0.006533739550672528</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.00784447476125516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01470535010987105</v>
+        <v>0.01383151540248168</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.009945009945009797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01930754659695907</v>
+        <v>0.01829351539225518</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001374865735767949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.009807099966406696</v>
+        <v>0.008831233705169587</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01408194785136729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0213188127351247</v>
+        <v>0.02079996945899365</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0005245803357314394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01311042094737539</v>
+        <v>0.01349991172113061</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01038385826771637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02170080060454427</v>
+        <v>0.02081353907472744</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01266138200619826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05477730011969342</v>
+        <v>0.06049371204300471</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02457793482528459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02002313249470308</v>
+        <v>0.01856974530536523</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.03938832252085256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03090559298693252</v>
+        <v>0.03160807711551528</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01351996182599025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01530329492726377</v>
+        <v>0.01589418826945993</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01998217203981567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01314139044567627</v>
+        <v>0.01338018876616993</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0009772565742713901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01755085710851681</v>
+        <v>0.01776147083993055</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01449458028737061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04479885403024699</v>
+        <v>0.04607219218242962</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007698954818533554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01081351649005962</v>
+        <v>0.01028491682208608</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002386634844868674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009929165260800966</v>
+        <v>0.009859086459283106</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.0001732801940738105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01071489338535144</v>
+        <v>0.009866875297013711</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01290322580645165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007131280010534546</v>
+        <v>0.006665845540618977</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0002584981258887398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01196067832295497</v>
+        <v>0.01133796159823453</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01194457716196851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0178370177307137</v>
+        <v>0.01708639766974819</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.0109549023187876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01711906610740504</v>
+        <v>0.01730764934153321</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.004296528677623868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03451716493660439</v>
+        <v>0.03647366668535319</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01236348100082774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01146719411491048</v>
+        <v>0.01118900798717501</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.004072490327835521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02237841199841932</v>
+        <v>0.02259858247181593</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.003745318352059934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01301548468770303</v>
+        <v>0.01295965237901198</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01089866156787767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008187284599919244</v>
+        <v>0.00806719740403296</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.01046978959100275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01220530049108161</v>
+        <v>0.01169347944543035</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.007657453556864535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.01039662648763429</v>
+        <v>0.009288462820074063</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02577196202026655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01623428474622554</v>
+        <v>0.01629595234068122</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.004405786569164016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008575693724442866</v>
+        <v>0.008108575604476803</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.02204762774834035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01035923573422935</v>
+        <v>0.0105094544097887</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.008452609038656633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00820028072867051</v>
+        <v>0.00834516155054396</v>
       </c>
       <c r="E52" s="1">
-        <v>0.0003297065611607142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009015134929003962</v>
+        <v>0.009660379821710498</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.00968557660193714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1334567852911105</v>
+        <v>0.1320557276029691</v>
       </c>
       <c r="E54" s="1">
-        <v>-9.853187506159156E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04429129836364913</v>
+        <v>0.04495741478223664</v>
       </c>
       <c r="E55" s="1">
-        <v>0.001533018867924563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0005265736422408462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -852,7 +852,7 @@
         <v>0.01426826839319593</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.005008923944959554</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -869,7 +869,7 @@
         <v>0.05591746562479984</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.005669606664236548</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -886,7 +886,7 @@
         <v>0.01573162670698091</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.01094650524117147</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -903,7 +903,7 @@
         <v>0.008876841001099971</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.00548395941870039</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -920,7 +920,7 @@
         <v>0.01542682758047619</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.004425668879501021</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -937,7 +937,7 @@
         <v>0.01944489424475253</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.007501103103397577</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,7 +951,7 @@
         <v>0.004526592577672236</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.02192528465230081</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,7 +968,7 @@
         <v>0.006721888662102477</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>-0.01564282222584323</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -982,7 +982,7 @@
         <v>0.01364093227926092</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.0007828810020877874</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -999,7 +999,7 @@
         <v>0.008192883687881135</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.008021390374331583</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1016,7 +1016,7 @@
         <v>0.01362559800497879</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.006698821007502631</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1033,7 +1033,7 @@
         <v>0.002664330156520169</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>-0.03756994404476421</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1050,7 +1050,7 @@
         <v>0.005599139873294584</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>-0.008965929468021661</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1067,7 +1067,7 @@
         <v>0.01353581339504512</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.001173326380287998</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1084,7 +1084,7 @@
         <v>0.009338846864143921</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>-0.004104969945755599</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1098,7 +1098,7 @@
         <v>0.0222976777641765</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>-0.00878054770968939</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1115,7 +1115,7 @@
         <v>0.008516911507533299</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>0.007351837959489904</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1132,7 +1132,7 @@
         <v>0.01635363842012352</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.008572959457045837</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1149,7 +1149,7 @@
         <v>0.01432537639483791</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>0.001699090986322371</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1166,7 +1166,7 @@
         <v>0.006533739550672528</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>-0.003101309441764233</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1183,7 +1183,7 @@
         <v>0.01383151540248168</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.001970928800197003</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1200,7 +1200,7 @@
         <v>0.01829351539225518</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>0.01131617944227403</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1217,7 +1217,7 @@
         <v>0.008831233705169587</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>0.003097212508742286</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1231,7 +1231,7 @@
         <v>0.02079996945899365</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>-0.001977637483836503</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1248,7 +1248,7 @@
         <v>0.01349991172113061</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.01405651000993902</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1265,7 +1265,7 @@
         <v>0.02081353907472744</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>-0.01336227689339109</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1282,7 +1282,7 @@
         <v>0.06049371204300471</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.0179552175749893</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1299,7 +1299,7 @@
         <v>0.01856974530536523</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.005690252350321501</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1313,7 +1313,7 @@
         <v>0.03160807711551528</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>-0.01386108116433105</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1330,7 +1330,7 @@
         <v>0.01589418826945993</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>-0.008640838586302046</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1347,7 +1347,7 @@
         <v>0.01338018876616993</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>0.01218353063164268</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1364,7 +1364,7 @@
         <v>0.01776147083993055</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>-0.03527380365071531</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1381,7 +1381,7 @@
         <v>0.04607219218242962</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>0.002250574530469951</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1398,7 +1398,7 @@
         <v>0.01028491682208608</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>-0.0003549875754349507</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1415,7 +1415,7 @@
         <v>0.009859086459283106</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>0.008813617903741466</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0.009866875297013711</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>-0.01618871415356149</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1449,7 +1449,7 @@
         <v>0.006665845540618977</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>0.004929481035190975</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1466,7 +1466,7 @@
         <v>0.01133796159823453</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>-0.007986024457199981</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1483,7 +1483,7 @@
         <v>0.01708639766974819</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>0.00528501321253283</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1500,7 +1500,7 @@
         <v>0.01730764934153321</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>0.01656646626586511</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1514,7 +1514,7 @@
         <v>0.03647366668535319</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>0.0002252252252252784</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1528,7 +1528,7 @@
         <v>0.01118900798717501</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>0.003846960611793904</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1545,7 +1545,7 @@
         <v>0.02259858247181593</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>0.001669449081802998</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1562,7 +1562,7 @@
         <v>0.01295965237901198</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>-0.007902298850574474</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1579,7 +1579,7 @@
         <v>0.00806719740403296</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>-0.003597976986524531</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1596,7 +1596,7 @@
         <v>0.01169347944543035</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>0.005479580367178771</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1613,7 +1613,7 @@
         <v>0.009288462820074063</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>0.009286282833643078</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1630,7 +1630,7 @@
         <v>0.01629595234068122</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>0.0092530358023033</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1647,7 +1647,7 @@
         <v>0.008108575604476803</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>0.007973464310773837</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1664,7 +1664,7 @@
         <v>0.0105094544097887</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>0.02299229922992296</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1681,7 +1681,7 @@
         <v>0.00834516155054396</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>0.01054742330058156</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1698,7 +1698,7 @@
         <v>0.009660379821710498</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>0.008576026808351234</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1712,7 +1712,7 @@
         <v>0.1320557276029691</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>0.0002958288137264731</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1726,7 +1726,7 @@
         <v>0.04495741478223664</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>0.004601932811781007</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>0.001913003656452306</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01426826839319593</v>
+        <v>0.0141696930473777</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005008923944959554</v>
+        <v>-0.0001157273463717745</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05591746562479984</v>
+        <v>0.05612712426660525</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005669606664236548</v>
+        <v>0.009422222703147076</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01573162670698091</v>
+        <v>0.01587346704069161</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01094650524117147</v>
+        <v>-0.007862718089990839</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.008876841001099971</v>
+        <v>0.008908479283473544</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00548395941870039</v>
+        <v>0.0002727024815925017</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01542682758047619</v>
+        <v>0.01546551602250854</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004425668879501021</v>
+        <v>0.0004673209159491432</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01944489424475253</v>
+        <v>0.01955334677743596</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007501103103397577</v>
+        <v>-0.000145985401459936</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004526592577672236</v>
+        <v>0.004418892389603</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02192528465230081</v>
+        <v>-0.002693861843371059</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006721888662102477</v>
+        <v>0.006604105674436501</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01564282222584323</v>
+        <v>-0.004469458698890816</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01364093227926092</v>
+        <v>0.01362554578708127</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0007828810020877874</v>
+        <v>-0.02659713168187749</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008192883687881135</v>
+        <v>0.008242833435731043</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008021390374331583</v>
+        <v>-0.003094606542882405</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01362559800497879</v>
+        <v>0.01350848078967947</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006698821007502631</v>
+        <v>-0.01402751551119497</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002664330156520169</v>
+        <v>0.002559335403637681</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.03756994404476421</v>
+        <v>-0.01495016611295685</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005599139873294584</v>
+        <v>0.005538343508726153</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008965929468021661</v>
+        <v>0.001809408926417566</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01353581339504512</v>
+        <v>0.01352582037814028</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001173326380287998</v>
+        <v>-0.01725372745621445</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009338846864143921</v>
+        <v>0.009282753237553213</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.004104969945755599</v>
+        <v>-0.01766524363315181</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0222976777641765</v>
+        <v>0.02205969166992808</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00878054770968939</v>
+        <v>0.001982283342625291</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008516911507533299</v>
+        <v>0.008563145132902024</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007351837959489904</v>
+        <v>-0.006702412868632712</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01635363842012352</v>
+        <v>0.01646234497314702</v>
       </c>
       <c r="E19" s="1">
-        <v>0.008572959457045837</v>
+        <v>-0.001947936957676588</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01432537639483791</v>
+        <v>0.01432231786629896</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001699090986322371</v>
+        <v>0.005512679162072764</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006533739550672528</v>
+        <v>0.006501039889434766</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.003101309441764233</v>
+        <v>-0.02592464569650876</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01383151540248168</v>
+        <v>0.01383231506524179</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001970928800197003</v>
+        <v>-0.01376936316695354</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01829351539225518</v>
+        <v>0.01846520409211858</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01131617944227403</v>
+        <v>-0.006127614226721589</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.008831233705169587</v>
+        <v>0.008841671762258512</v>
       </c>
       <c r="E24" s="1">
-        <v>0.003097212508742286</v>
+        <v>-0.01384462151394439</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02079996945899365</v>
+        <v>0.02071919875674847</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001977637483836503</v>
+        <v>-0.001905342580595937</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01349991172113061</v>
+        <v>0.01366353497300855</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01405651000993902</v>
+        <v>-0.0102212265471856</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02081353907472744</v>
+        <v>0.02049621347116575</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01336227689339109</v>
+        <v>-0.01232093091478037</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.06049371204300471</v>
+        <v>0.06146231217672751</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0179552175749893</v>
+        <v>-0.00919969564916634</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01856974530536523</v>
+        <v>0.0186397539248204</v>
       </c>
       <c r="E29" s="1">
-        <v>0.005690252350321501</v>
+        <v>-0.01353013530135294</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03160807711551528</v>
+        <v>0.03111044060653454</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01386108116433105</v>
+        <v>-0.01339215992503506</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01589418826945993</v>
+        <v>0.01572676379751442</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.008640838586302046</v>
+        <v>-0.01200257197971011</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01338018876616993</v>
+        <v>0.01351734796976801</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01218353063164268</v>
+        <v>-0.009817312617380836</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01776147083993055</v>
+        <v>0.01710223955816663</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.03527380365071531</v>
+        <v>-0.0141907440552288</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04607219218242962</v>
+        <v>0.04608771511718161</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002250574530469951</v>
+        <v>-0.01130667172699529</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01028491682208608</v>
+        <v>0.01026163525862892</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0003549875754349507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009859086459283106</v>
+        <v>0.009926990311451804</v>
       </c>
       <c r="E36" s="1">
-        <v>0.008813617903741466</v>
+        <v>-0.003426124197002278</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009866875297013711</v>
+        <v>0.00968860892893453</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01618871415356149</v>
+        <v>-0.01104842501175363</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006665845540618977</v>
+        <v>0.006685914520869818</v>
       </c>
       <c r="E38" s="1">
-        <v>0.004929481035190975</v>
+        <v>-0.01021937593677613</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01133796159823453</v>
+        <v>0.01122594109325771</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.007986024457199981</v>
+        <v>-0.02440251572327046</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01708639766974819</v>
+        <v>0.01714390315776073</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00528501321253283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01730764934153321</v>
+        <v>0.01756078209014254</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01656646626586511</v>
+        <v>-0.01057957681692734</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03647366668535319</v>
+        <v>0.0364122247560493</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0002252252252252784</v>
+        <v>-0.009107057969926724</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01118900798717501</v>
+        <v>0.01121060573043335</v>
       </c>
       <c r="E43" s="1">
-        <v>0.003846960611793904</v>
+        <v>-0.008749356664951136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02259858247181593</v>
+        <v>0.02259308899271992</v>
       </c>
       <c r="E44" s="1">
-        <v>0.001669449081802998</v>
+        <v>-0.01412499999999994</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01295965237901198</v>
+        <v>0.01283269234553433</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.007902298850574474</v>
+        <v>0.002044554244579722</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.00806719740403296</v>
+        <v>0.008022824121547903</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.003597976986524531</v>
+        <v>-0.00105603815363664</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01169347944543035</v>
+        <v>0.01173510550608155</v>
       </c>
       <c r="E47" s="1">
-        <v>0.005479580367178771</v>
+        <v>-0.01201732730914329</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009288462820074063</v>
+        <v>0.009356818484936604</v>
       </c>
       <c r="E48" s="1">
-        <v>0.009286282833643078</v>
+        <v>-0.02278303540133197</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01629595234068122</v>
+        <v>0.01641533677185571</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0092530358023033</v>
+        <v>-0.02712722267853585</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008108575604476803</v>
+        <v>0.008157623479126779</v>
       </c>
       <c r="E50" s="1">
-        <v>0.007973464310773837</v>
+        <v>0.001265662574357451</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0105094544097887</v>
+        <v>0.01073056332344825</v>
       </c>
       <c r="E51" s="1">
-        <v>0.02299229922992296</v>
+        <v>-0.04193999354769329</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.00834516155054396</v>
+        <v>0.008417079597881884</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01054742330058156</v>
+        <v>-0.003889197555361434</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009660379821710498</v>
+        <v>0.009724624256280453</v>
       </c>
       <c r="E53" s="1">
-        <v>0.008576026808351234</v>
+        <v>-0.006513945964850998</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1320557276029691</v>
+        <v>0.1318425781581191</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0002958288137264731</v>
+        <v>0.0001971608832807004</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04495741478223664</v>
+        <v>0.04507807126929188</v>
       </c>
       <c r="E55" s="1">
-        <v>0.004601932811781007</v>
+        <v>-0.008932661475034243</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E56" s="1">
-        <v>0.001913003656452306</v>
+        <v>-0.007059884804398564</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0141696930473777</v>
+        <v>0.01426878923469764</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0001157273463717745</v>
+        <v>0.02453703703703702</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05612712426660525</v>
+        <v>0.05705879505127219</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009422222703147076</v>
+        <v>-0.003234702163525283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01587346704069161</v>
+        <v>0.0158606326839132</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007862718089990839</v>
+        <v>-0.002603112165210808</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.008908479283473544</v>
+        <v>0.00897426593156223</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0002727024815925017</v>
+        <v>-0.0008178844056706547</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01546551602250854</v>
+        <v>0.0155827558428071</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0004673209159491432</v>
+        <v>-0.002535699986654372</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01955334677743596</v>
+        <v>0.01968949786101197</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.000145985401459936</v>
+        <v>0.0003650167907724988</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004418892389603</v>
+        <v>0.00443832254993197</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002693861843371059</v>
+        <v>0.03038780628979354</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006604105674436501</v>
+        <v>0.006621334757520955</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004469458698890816</v>
+        <v>0.01812437645493836</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01362554578708127</v>
+        <v>0.01335744739140898</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02659713168187749</v>
+        <v>0.02250200910795619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008242833435731043</v>
+        <v>0.008275750957881474</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003094606542882405</v>
+        <v>-0.002069475240206953</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01350848078967947</v>
+        <v>0.01341368946831786</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01402751551119497</v>
+        <v>0.04186046511627906</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002559335403637681</v>
+        <v>0.00253899794724065</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01495016611295685</v>
+        <v>0.02276559865092764</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005538343508726153</v>
+        <v>0.005587813959772816</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001809408926417566</v>
+        <v>0.0301023479831426</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01352582037814028</v>
+        <v>0.01338695995487667</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01725372745621445</v>
+        <v>0.03199946998807457</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009282753237553213</v>
+        <v>0.00918360634289519</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01766524363315181</v>
+        <v>0.02577551326240068</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02205969166992808</v>
+        <v>0.02226057734097553</v>
       </c>
       <c r="E17" s="1">
-        <v>0.001982283342625291</v>
+        <v>0.00865533230293658</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008563145132902024</v>
+        <v>0.008566227981525074</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006702412868632712</v>
+        <v>0.007047533363322867</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01646234497314702</v>
+        <v>0.01654709796846829</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001947936957676588</v>
+        <v>0.003962621244381292</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01432231786629896</v>
+        <v>0.01450366642374616</v>
       </c>
       <c r="E20" s="1">
-        <v>0.005512679162072764</v>
+        <v>-0.008982793522267052</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006501039889434766</v>
+        <v>0.006377527342013819</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02592464569650876</v>
+        <v>0.009581263307310017</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01383231506524179</v>
+        <v>0.01373884757690691</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01376936316695354</v>
+        <v>0.01371229119920225</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01846520409211858</v>
+        <v>0.01848254105556928</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.006127614226721589</v>
+        <v>0.01586025108341138</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.008841671762258512</v>
+        <v>0.008781256824780301</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01384462151394439</v>
+        <v>0.03757196242803751</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02071919875674847</v>
+        <v>0.02082675608392321</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001905342580595937</v>
+        <v>0.01206475259621254</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01366353497300855</v>
+        <v>0.01362003274885307</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0102212265471856</v>
+        <v>0.008723534681944534</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02049621347116575</v>
+        <v>0.02038761525611752</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01232093091478037</v>
+        <v>0.01125356830519952</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.06146231217672751</v>
+        <v>0.06132985935290906</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.00919969564916634</v>
+        <v>0.01305501256632224</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0186397539248204</v>
+        <v>0.01851829254437107</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01353013530135294</v>
+        <v>0.02319201995012454</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03111044060653454</v>
+        <v>0.03091204005243266</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01339215992503506</v>
+        <v>0.01705647235743402</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01572676379751442</v>
+        <v>0.01564847863958643</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01200257197971011</v>
+        <v>0.02270590787475602</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01351734796976801</v>
+        <v>0.01347980984367241</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.009817312617380836</v>
+        <v>0.01275972066557451</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01710223955816663</v>
+        <v>0.01697941879456072</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0141907440552288</v>
+        <v>0.02113863312151465</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04608771511718161</v>
+        <v>0.0458905987927863</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01130667172699529</v>
+        <v>0.003794664278174098</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01026163525862892</v>
+        <v>0.01033459631813491</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.009943181818181879</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009926990311451804</v>
+        <v>0.009963319094821234</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.003426124197002278</v>
+        <v>0.001976794155565065</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00968860892893453</v>
+        <v>0.009649690764913349</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01104842501175363</v>
+        <v>0.02020442120275723</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006685914520869818</v>
+        <v>0.006664640239251776</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01021937593677613</v>
+        <v>0.01252753303964771</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01122594109325771</v>
+        <v>0.01102986949727932</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02440251572327046</v>
+        <v>0.03249097472924189</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01714390315776073</v>
+        <v>0.0172657977005829</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>0.009012392039053907</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01756078209014254</v>
+        <v>0.01749853408191874</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01057957681692734</v>
+        <v>0.01985787341435885</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.0364122247560493</v>
+        <v>0.03633715262604166</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.009107057969926724</v>
+        <v>0.0063375836384294</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01121060573043335</v>
+        <v>0.01119153106255413</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.008749356664951136</v>
+        <v>0.01460539979231568</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02259308899271992</v>
+        <v>0.02243233128546726</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.01412499999999994</v>
+        <v>0.007861037149739847</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01283269234553433</v>
+        <v>0.01295035751335887</v>
       </c>
       <c r="E45" s="1">
-        <v>0.002044554244579722</v>
+        <v>0.02057385759829966</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008022824121547903</v>
+        <v>0.008071334404287683</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.00105603815363664</v>
+        <v>0.01077615604965221</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01173510550608155</v>
+        <v>0.01167651575837853</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01201732730914329</v>
+        <v>0.02503418037810556</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009356818484936604</v>
+        <v>0.009208653793133566</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.02278303540133197</v>
+        <v>0.03075681492109039</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01641533677185571</v>
+        <v>0.01608358251570535</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.02712722267853585</v>
+        <v>0.02830576155162579</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008157623479126779</v>
+        <v>0.008226023053012605</v>
       </c>
       <c r="E50" s="1">
-        <v>0.001265662574357451</v>
+        <v>0.007963594994311762</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01073056332344825</v>
+        <v>0.01035361892381046</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.04193999354769329</v>
+        <v>0.005387810079694688</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008417079597881884</v>
+        <v>0.008443957278163617</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.003889197555361434</v>
+        <v>-0.004780876494023811</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009724624256280453</v>
+        <v>0.009729971054138916</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.006513945964850998</v>
+        <v>0.002530253025302409</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1318425781581191</v>
+        <v>0.1328061686089756</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0001971608832807004</v>
+        <v>-9.856100926475264E-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04507807126929188</v>
+        <v>0.04499304986776078</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.008932661475034243</v>
+        <v>0.009937601109313743</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.007059884804398564</v>
+        <v>0.01030993727158114</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01426878923469764</v>
+        <v>0.01503251085076809</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02453703703703702</v>
+        <v>-0.003959214665364974</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05705879505127219</v>
+        <v>0.0561432540929197</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003234702163525283</v>
+        <v>-0.01107689825335145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0158606326839132</v>
+        <v>0.01554174151165634</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002603112165210808</v>
+        <v>-0.0007577376673338909</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00897426593156223</v>
+        <v>0.008860806755873314</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0008178844056706547</v>
+        <v>-0.009950926935659798</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0155827558428071</v>
+        <v>0.01534981373173427</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002535699986654372</v>
+        <v>0.02307537957327277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01968949786101197</v>
+        <v>0.01946327658448811</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0003650167907724988</v>
+        <v>-0.001239609158523947</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00443832254993197</v>
+        <v>0.004523408029000213</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03038780628979354</v>
+        <v>-0.02009345794392536</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006621334757520955</v>
+        <v>0.006649590980521995</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01812437645493836</v>
+        <v>-0.004740886055255689</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01335744739140898</v>
+        <v>0.01357719943583041</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02250200910795619</v>
+        <v>-0.01535258912308091</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008275750957881474</v>
+        <v>0.008134887336533093</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002069475240206953</v>
+        <v>-0.002672605790645766</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01341368946831786</v>
+        <v>0.01391083852336327</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04186046511627906</v>
+        <v>-0.02135972909611894</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.00253899794724065</v>
+        <v>0.002521694289064137</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02276559865092764</v>
+        <v>-0.04233025984911987</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005587813959772816</v>
+        <v>0.005676605309557744</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0301023479831426</v>
+        <v>-0.03101228788765364</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01338695995487667</v>
+        <v>0.01383595166146794</v>
       </c>
       <c r="E15" s="1">
-        <v>0.03199946998807457</v>
+        <v>-0.01487341772151896</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.00918360634289519</v>
+        <v>0.009435744598811658</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02577551326240068</v>
+        <v>-0.0154089861751151</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02226057734097553</v>
+        <v>0.02208649088552487</v>
       </c>
       <c r="E17" s="1">
-        <v>0.00865533230293658</v>
+        <v>-0.009843730773963166</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008566227981525074</v>
+        <v>0.008560655381986384</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007047533363322867</v>
+        <v>-0.000888888888888828</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01654709796846829</v>
+        <v>0.01637654884389759</v>
       </c>
       <c r="E19" s="1">
-        <v>0.003962621244381292</v>
+        <v>-0.00123908425772945</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01450366642374616</v>
+        <v>0.01425326473864273</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.008982793522267052</v>
+        <v>-0.003008347103936271</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006377527342013819</v>
+        <v>0.006363933837969645</v>
       </c>
       <c r="E21" s="1">
-        <v>0.009581263307310017</v>
+        <v>-0.007373595505618002</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01373884757690691</v>
+        <v>0.0138357100909457</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01371229119920225</v>
+        <v>-0.001955512099731105</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01848254105556928</v>
+        <v>0.01854564075943279</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01586025108341138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.008781256824780301</v>
+        <v>0.008953962388513271</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03757196242803751</v>
+        <v>-0.002151589242053831</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02082675608392321</v>
+        <v>0.02051634288357592</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01206475259621254</v>
+        <v>-0.01331700596969243</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01362003274885307</v>
+        <v>0.01352773787140115</v>
       </c>
       <c r="E26" s="1">
-        <v>0.008723534681944534</v>
+        <v>-0.009656400881263849</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02038761525611752</v>
+        <v>0.02077391745291752</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01125356830519952</v>
+        <v>-0.001199194141536908</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.06132985935290906</v>
+        <v>0.06108714581219914</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01305501256632224</v>
+        <v>0.007889273356401327</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01851829254437107</v>
+        <v>0.01865806164122163</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02319201995012454</v>
+        <v>-0.008553274682307044</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03091204005243266</v>
+        <v>0.03144885843820522</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01705647235743402</v>
+        <v>-0.002150785420747314</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01564847863958643</v>
+        <v>0.01591765544058173</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02270590787475602</v>
+        <v>-0.00905453779743115</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01347980984367241</v>
+        <v>0.01359281093083036</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01275972066557451</v>
+        <v>0.009201418200236455</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01697941879456072</v>
+        <v>0.01729741567468792</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02113863312151465</v>
+        <v>-0.01395173453996967</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0458905987927863</v>
+        <v>0.04601030677059946</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003794664278174098</v>
+        <v>0.002882445826163149</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01033459631813491</v>
+        <v>0.01028003357405095</v>
       </c>
       <c r="E35" s="1">
-        <v>0.009943181818181879</v>
+        <v>-0.01550934085301381</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009963319094821234</v>
+        <v>0.009945579186005514</v>
       </c>
       <c r="E36" s="1">
-        <v>0.001976794155565065</v>
+        <v>0.002380345150046814</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009649690764913349</v>
+        <v>0.009704340823230597</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02020442120275723</v>
+        <v>-0.03547257876312715</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006664640239251776</v>
+        <v>0.006572228020773674</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01252753303964771</v>
+        <v>-0.01075120606478297</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01102986949727932</v>
+        <v>0.01140994949552731</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03249097472924189</v>
+        <v>-0.01895151365985726</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0172657977005829</v>
+        <v>0.01703790854116837</v>
       </c>
       <c r="E40" s="1">
-        <v>0.009012392039053907</v>
+        <v>0.00169077587826405</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01749853408191874</v>
+        <v>0.01779366192000561</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01985787341435885</v>
+        <v>-0.006642161604436758</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03633715262604166</v>
+        <v>0.03584604586933347</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0063375836384294</v>
+        <v>-0.0005307050796057311</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01119153106255413</v>
+        <v>0.01123445938179127</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01460539979231568</v>
+        <v>-0.008954397633677669</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02243233128546726</v>
+        <v>0.02226667229880287</v>
       </c>
       <c r="E44" s="1">
-        <v>0.007861037149739847</v>
+        <v>0.01883381679068385</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01295035751335887</v>
+        <v>0.01320107413269805</v>
       </c>
       <c r="E45" s="1">
-        <v>0.02057385759829966</v>
+        <v>-0.003582089552238821</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008071334404287683</v>
+        <v>0.008144036820063047</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01077615604965221</v>
+        <v>-0.001968832382287289</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01167651575837853</v>
+        <v>0.01188055906917196</v>
       </c>
       <c r="E47" s="1">
-        <v>0.02503418037810556</v>
+        <v>-0.01550919571781495</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.009208653793133566</v>
+        <v>0.00939470780634563</v>
       </c>
       <c r="E48" s="1">
-        <v>0.03075681492109039</v>
+        <v>-0.01466631953484321</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01608358251570535</v>
+        <v>0.01659444545496078</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02830576155162579</v>
+        <v>-0.008570617521180823</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.008226023053012605</v>
+        <v>0.007926442172152662</v>
       </c>
       <c r="E50" s="1">
-        <v>0.007963594994311762</v>
+        <v>-0.02072404637005365</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01035361892381046</v>
+        <v>0.01021583620776487</v>
       </c>
       <c r="E51" s="1">
-        <v>0.005387810079694688</v>
+        <v>-0.02830506570818814</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008443957278163617</v>
+        <v>0.008290036004443661</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.004780876494023811</v>
+        <v>-0.003846462056254496</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009729971054138916</v>
+        <v>0.009687491279304149</v>
       </c>
       <c r="E53" s="1">
-        <v>0.002530253025302409</v>
+        <v>0.004363858523706687</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1328061686089756</v>
+        <v>0.1311012887033662</v>
       </c>
       <c r="E54" s="1">
-        <v>-9.856100926475264E-05</v>
+        <v>-0.0001971608832807004</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04499304986776078</v>
+        <v>0.04500941970431614</v>
       </c>
       <c r="E55" s="1">
-        <v>0.009937601109313743</v>
+        <v>-0.003991788321167866</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1734,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01030993727158114</v>
+        <v>-0.004150920174006534</v>
       </c>
     </row>
     <row r="59" spans="1:5">

--- a/FOCUSEDGROWTH_holdings.xlsx
+++ b/FOCUSEDGROWTH_holdings.xlsx
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -849,10 +849,10 @@
         <v>114</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01503251085076809</v>
+        <v>0.01503540467795254</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003959214665364974</v>
+        <v>-0.001252382248843054</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,10 +866,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0561432540929197</v>
+        <v>0.05575278634531822</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01107689825335145</v>
+        <v>0.001174755803076133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,10 +883,10 @@
         <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01554174151165634</v>
+        <v>0.01559469729229511</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007577376673338909</v>
+        <v>-0.006844254326268895</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,10 +900,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="1">
-        <v>0.008860806755873314</v>
+        <v>0.008809199800423049</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.009950926935659798</v>
+        <v>0.007710312543026232</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,10 +917,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01534981373173427</v>
+        <v>0.01576947433914089</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02307537957327277</v>
+        <v>0.01032949790794957</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,10 +934,10 @@
         <v>118</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01946327658448811</v>
+        <v>0.01952017642269221</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001239609158523947</v>
+        <v>0.007373877491421377</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +948,10 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <v>0.004523408029000213</v>
+        <v>0.004450992835963443</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02009345794392536</v>
+        <v>-0.03633762517882666</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,10 +965,10 @@
         <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>0.006649590980521995</v>
+        <v>0.006645651596651243</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004740886055255689</v>
+        <v>-0.02217477003942203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01357719943583041</v>
+        <v>0.0134244782088727</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01535258912308091</v>
+        <v>-0.003171247357294016</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -996,10 +996,10 @@
         <v>118</v>
       </c>
       <c r="D11" s="1">
-        <v>0.008134887336533093</v>
+        <v>0.008146963384199591</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002672605790645766</v>
+        <v>0.006699419383653371</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1013,10 +1013,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01391083852336327</v>
+        <v>0.01367045173489855</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02135972909611894</v>
+        <v>-0.005057226510513546</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1030,10 +1030,10 @@
         <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>0.002521694289064137</v>
+        <v>0.002425016363895199</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.04233025984911987</v>
+        <v>-0.01181619256017508</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1047,10 +1047,10 @@
         <v>121</v>
       </c>
       <c r="D14" s="1">
-        <v>0.005676605309557744</v>
+        <v>0.005523488350698962</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.03101228788765364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01383595166146794</v>
+        <v>0.01368697732312391</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01487341772151896</v>
+        <v>-0.003405075489881115</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>120</v>
       </c>
       <c r="D16" s="1">
-        <v>0.009435744598811658</v>
+        <v>0.009329073580466602</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0154089861751151</v>
+        <v>-0.002925259616791021</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1095,10 +1095,10 @@
         <v>75</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02208649088552487</v>
+        <v>0.0219602325879815</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.009843730773963166</v>
+        <v>-0.01273766621101047</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1112,10 +1112,10 @@
         <v>116</v>
       </c>
       <c r="D18" s="1">
-        <v>0.008560655381986384</v>
+        <v>0.008588696905790403</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.000888888888888828</v>
+        <v>0.006524317912218303</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1129,10 +1129,10 @@
         <v>116</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01637654884389759</v>
+        <v>0.01642443343210915</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.00123908425772945</v>
+        <v>0.006793879600637931</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1146,10 +1146,10 @@
         <v>116</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01425326473864273</v>
+        <v>0.01426961801624359</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003008347103936271</v>
+        <v>0.004462388440289011</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1163,10 +1163,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="1">
-        <v>0.006363933837969645</v>
+        <v>0.006343339459758023</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.007373595505618002</v>
+        <v>-0.0003537318712415471</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1180,10 +1180,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0138357100909457</v>
+        <v>0.01386621173046351</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001955512099731105</v>
+        <v>0.009306882194464849</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1197,10 +1197,10 @@
         <v>122</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01854564075943279</v>
+        <v>0.01862294310968616</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>0.006638238009407882</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1214,10 +1214,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="1">
-        <v>0.008953962388513271</v>
+        <v>0.008971938941717522</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002151589242053831</v>
+        <v>-0.005978633735175931</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02051634288357592</v>
+        <v>0.02032750447131628</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01331700596969243</v>
+        <v>-0.01706484641638217</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>122</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01352773787140115</v>
+        <v>0.01345295073610868</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.009656400881263849</v>
+        <v>0.001230652719269143</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>124</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02077391745291752</v>
+        <v>0.02083549195670967</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.001199194141536908</v>
+        <v>-0.01086973922230927</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="D28" s="1">
-        <v>0.06108714581219914</v>
+        <v>0.061825712601785</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007889273356401327</v>
+        <v>0.02410052183466083</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>124</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01865806164122163</v>
+        <v>0.01857557986416688</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.008553274682307044</v>
+        <v>0.004683263495193435</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>88</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03144885843820522</v>
+        <v>0.03151202258223754</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.002150785420747314</v>
+        <v>-0.002193910934913945</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,10 +1327,10 @@
         <v>124</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01591765544058173</v>
+        <v>0.01583927599803038</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.00905453779743115</v>
+        <v>0.01820371157387735</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,10 +1344,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01359281093083036</v>
+        <v>0.01377506325669209</v>
       </c>
       <c r="E32" s="1">
-        <v>0.009201418200236455</v>
+        <v>0.002091175240485077</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1361,10 +1361,10 @@
         <v>124</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01729741567468792</v>
+        <v>0.01712718028111991</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01395173453996967</v>
+        <v>0.000509878903760308</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1378,10 +1378,10 @@
         <v>114</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04601030677059946</v>
+        <v>0.04633526296512068</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002882445826163149</v>
+        <v>0.007032271490440944</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1395,10 +1395,10 @@
         <v>117</v>
       </c>
       <c r="D35" s="1">
-        <v>0.01028003357405095</v>
+        <v>0.01016278192589078</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01550934085301381</v>
+        <v>0.005012531328320913</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1412,10 +1412,10 @@
         <v>116</v>
       </c>
       <c r="D36" s="1">
-        <v>0.009945579186005514</v>
+        <v>0.01001080715857796</v>
       </c>
       <c r="E36" s="1">
-        <v>0.002380345150046814</v>
+        <v>-0.004664574675600108</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>122</v>
       </c>
       <c r="D37" s="1">
-        <v>0.009704340823230597</v>
+        <v>0.00939911781679793</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.03547257876312715</v>
+        <v>-0.01572707476409385</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,10 +1446,10 @@
         <v>118</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006572228020773674</v>
+        <v>0.006528668625323856</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01075120606478297</v>
+        <v>-0.008360039013515341</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,10 +1463,10 @@
         <v>120</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01140994949552731</v>
+        <v>0.01124037156690494</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01895151365985726</v>
+        <v>-0.02508780732563975</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,10 +1480,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="1">
-        <v>0.01703790854116837</v>
+        <v>0.01713785368856087</v>
       </c>
       <c r="E40" s="1">
-        <v>0.00169077587826405</v>
+        <v>0.01444111027756945</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1497,10 +1497,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="1">
-        <v>0.01779366192000561</v>
+        <v>0.01774914884199791</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.006642161604436758</v>
+        <v>-0.004154764996104898</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1511,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="1">
-        <v>0.03584604586933347</v>
+        <v>0.03597635717750219</v>
       </c>
       <c r="E42" s="1">
-        <v>-0.0005307050796057311</v>
+        <v>-0.007155680295329758</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="D43" s="1">
-        <v>0.01123445938179127</v>
+        <v>0.01118026997347103</v>
       </c>
       <c r="E43" s="1">
-        <v>-0.008954397633677669</v>
+        <v>-0.001447998309809795</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1542,10 +1542,10 @@
         <v>124</v>
       </c>
       <c r="D44" s="1">
-        <v>0.02226667229880287</v>
+        <v>0.02278059917410447</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01883381679068385</v>
+        <v>0.01501959975242428</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1559,10 +1559,10 @@
         <v>124</v>
       </c>
       <c r="D45" s="1">
-        <v>0.01320107413269805</v>
+        <v>0.01320861460781524</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.003582089552238821</v>
+        <v>-0.004999896696349371</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1576,10 +1576,10 @@
         <v>122</v>
       </c>
       <c r="D46" s="1">
-        <v>0.008144036820063047</v>
+        <v>0.008161881896872754</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.001968832382287289</v>
+        <v>-0.01076635014043048</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1593,10 +1593,10 @@
         <v>122</v>
       </c>
       <c r="D47" s="1">
-        <v>0.01188055906917196</v>
+        <v>0.01174505393465326</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.01550919571781495</v>
+        <v>-0.01649704911938299</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1610,10 +1610,10 @@
         <v>123</v>
       </c>
       <c r="D48" s="1">
-        <v>0.00939470780634563</v>
+        <v>0.009295506926951981</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.01466631953484321</v>
+        <v>-0.001497269684692659</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1627,10 +1627,10 @@
         <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>0.01659444545496078</v>
+        <v>0.01652079732088013</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.008570617521180823</v>
+        <v>-0.03055931811424228</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1644,10 +1644,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="1">
-        <v>0.007926442172152662</v>
+        <v>0.007794528683386162</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.02072404637005365</v>
+        <v>-0.004563190265194139</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01021583620776487</v>
+        <v>0.009968052884453644</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.02830506570818814</v>
+        <v>0.00300543289793076</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1678,10 +1678,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1">
-        <v>0.008290036004443661</v>
+        <v>0.008292570493664107</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.003846462056254496</v>
+        <v>-0.01053817070227658</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1695,10 +1695,10 @@
         <v>116</v>
       </c>
       <c r="D53" s="1">
-        <v>0.009687491279304149</v>
+        <v>0.009770321947173735</v>
       </c>
       <c r="E53" s="1">
-        <v>0.004363858523706687</v>
+        <v>-0.0004344898003519893</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1709,10 +1709,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1311012887033662</v>
+        <v>0.13162179221011</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.0001971608832807004</v>
+        <v>0.0001971997633603007</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,10 +1723,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="1">
-        <v>0.04500941970431614</v>
+        <v>0.04501661199127793</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.003991788321167866</v>
+        <v>0.0006870491240122956</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>-0.004150920174006534</v>
+        <v>0.0004523796390696333</v>
       </c>
     </row>
     <row r="59" spans="1:5">
